--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,30 @@
     <t>['10', '53']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['71', '81']</t>
+  </si>
+  <si>
+    <t>['14', '59']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['4', '67']</t>
+  </si>
+  <si>
+    <t>['18', '39', '60']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -548,9 +572,6 @@
   </si>
   <si>
     <t>['33', '74', '78']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -677,6 +698,27 @@
   </si>
   <si>
     <t>['32', '71']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['24', '90+4']</t>
+  </si>
+  <si>
+    <t>['54', '60']</t>
+  </si>
+  <si>
+    <t>['12', '23', '63', '82']</t>
+  </si>
+  <si>
+    <t>['41', '89']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1560,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>1.29</v>
+      </c>
+      <c r="AT3">
         <v>1.5</v>
-      </c>
-      <c r="AT3">
-        <v>1.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1751,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1945,7 +1987,7 @@
         <v>2.14</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2046,7 +2088,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2133,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2324,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2428,7 +2470,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2515,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2706,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2810,7 +2852,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2897,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT10">
         <v>1.43</v>
@@ -3088,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3279,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT12">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3383,7 +3425,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3470,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT13">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3661,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3765,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -3855,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4043,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4234,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4425,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT18">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4616,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT19">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4720,7 +4762,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4807,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4998,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5189,10 +5231,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5383,7 +5425,7 @@
         <v>2.14</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU23">
         <v>1.12</v>
@@ -5571,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.08</v>
@@ -5762,10 +5804,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -5953,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU26">
         <v>1.73</v>
@@ -6057,7 +6099,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6144,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT27">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6248,7 +6290,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6335,7 +6377,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT28">
         <v>1.43</v>
@@ -6439,7 +6481,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6526,10 +6568,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU29">
         <v>1.27</v>
@@ -6717,10 +6759,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU30">
         <v>1.26</v>
@@ -6821,7 +6863,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6908,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7012,7 +7054,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7099,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>2.15</v>
@@ -7203,7 +7245,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7290,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT33">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU33">
         <v>1.02</v>
@@ -7394,7 +7436,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7481,10 +7523,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7585,7 +7627,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7672,10 +7714,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -7776,7 +7818,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7863,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0.9</v>
@@ -8054,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8158,7 +8200,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8245,10 +8287,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.48</v>
@@ -8349,7 +8391,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -8439,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>2.51</v>
@@ -8540,7 +8582,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8627,10 +8669,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT40">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU40">
         <v>1</v>
@@ -8818,10 +8860,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT41">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -8922,7 +8964,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9009,10 +9051,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU42">
         <v>1.46</v>
@@ -9113,7 +9155,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9200,10 +9242,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9394,7 +9436,7 @@
         <v>2.14</v>
       </c>
       <c r="AT44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.31</v>
@@ -9495,7 +9537,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9582,10 +9624,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>1.6</v>
@@ -9686,7 +9728,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9773,10 +9815,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>0.79</v>
@@ -9877,7 +9919,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9964,10 +10006,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT47">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10155,10 +10197,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU48">
         <v>1.67</v>
@@ -10346,10 +10388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU49">
         <v>1.28</v>
@@ -10450,7 +10492,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10537,10 +10579,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -10728,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT51">
         <v>1.43</v>
@@ -10919,10 +10961,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT52">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11023,7 +11065,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11110,10 +11152,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53">
         <v>1.29</v>
@@ -11214,7 +11256,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11301,10 +11343,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.61</v>
@@ -11405,7 +11447,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11492,10 +11534,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.65</v>
@@ -11596,7 +11638,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -11686,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.76</v>
@@ -11787,7 +11829,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11874,10 +11916,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU57">
         <v>1.27</v>
@@ -11978,7 +12020,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12065,10 +12107,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT58">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU58">
         <v>1.35</v>
@@ -12169,7 +12211,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12256,10 +12298,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU59">
         <v>1.87</v>
@@ -12447,10 +12489,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.45</v>
@@ -12551,7 +12593,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12638,10 +12680,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT61">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -12742,7 +12784,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12832,7 +12874,7 @@
         <v>2.14</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13020,10 +13062,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.32</v>
@@ -13211,10 +13253,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13402,10 +13444,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU65">
         <v>1.66</v>
@@ -13506,7 +13548,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13593,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT66">
         <v>1.43</v>
@@ -13697,7 +13739,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13784,10 +13826,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT67">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU67">
         <v>1.04</v>
@@ -13888,7 +13930,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -13975,10 +14017,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU68">
         <v>1.56</v>
@@ -14079,7 +14121,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14166,10 +14208,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT69">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU69">
         <v>1.45</v>
@@ -14270,7 +14312,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14357,10 +14399,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU70">
         <v>1.37</v>
@@ -14548,10 +14590,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU71">
         <v>1.47</v>
@@ -14652,7 +14694,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14739,10 +14781,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -14843,7 +14885,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14930,10 +14972,10 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT73">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU73">
         <v>1.4</v>
@@ -15121,10 +15163,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT74">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15225,7 +15267,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15312,10 +15354,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15503,10 +15545,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT76">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU76">
         <v>1.54</v>
@@ -15694,10 +15736,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT77">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU77">
         <v>1.35</v>
@@ -15888,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU78">
         <v>1.64</v>
@@ -16076,10 +16118,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -16180,7 +16222,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16267,10 +16309,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
+        <v>1.75</v>
+      </c>
+      <c r="AT80">
         <v>1.57</v>
-      </c>
-      <c r="AT80">
-        <v>1.67</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16371,7 +16413,7 @@
         <v>134</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16458,10 +16500,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT81">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU81">
         <v>1.45</v>
@@ -16562,7 +16604,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16649,10 +16691,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>1.45</v>
@@ -16753,7 +16795,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16840,7 +16882,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT83">
         <v>1.43</v>
@@ -16944,7 +16986,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17031,10 +17073,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT84">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU84">
         <v>1.87</v>
@@ -17135,7 +17177,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17222,10 +17264,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT85">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17413,10 +17455,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT86">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17607,7 +17649,7 @@
         <v>2.14</v>
       </c>
       <c r="AT87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU87">
         <v>1.52</v>
@@ -17795,10 +17837,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -17986,10 +18028,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT89">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18177,10 +18219,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18281,7 +18323,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18368,10 +18410,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU91">
         <v>1.46</v>
@@ -18472,7 +18514,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18559,10 +18601,10 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT92">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU92">
         <v>1.88</v>
@@ -18750,10 +18792,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU93">
         <v>1.39</v>
@@ -18941,10 +18983,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT94">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19045,7 +19087,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19132,10 +19174,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19236,7 +19278,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19323,10 +19365,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19514,10 +19556,10 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19705,10 +19747,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -19899,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU99">
         <v>1.43</v>
@@ -20000,7 +20042,7 @@
         <v>123</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20087,10 +20129,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20278,10 +20320,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT101">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU101">
         <v>1.46</v>
@@ -20469,10 +20511,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT102">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20573,7 +20615,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20660,10 +20702,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU103">
         <v>1.5</v>
@@ -20851,10 +20893,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT104">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU104">
         <v>1.86</v>
@@ -21045,7 +21087,7 @@
         <v>2.14</v>
       </c>
       <c r="AT105">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.54</v>
@@ -21146,7 +21188,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21233,10 +21275,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
+        <v>1.71</v>
+      </c>
+      <c r="AT106">
         <v>1.5</v>
-      </c>
-      <c r="AT106">
-        <v>1.29</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21337,7 +21379,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21424,10 +21466,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21528,7 +21570,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21615,7 +21657,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT108">
         <v>1.43</v>
@@ -21806,10 +21848,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT109">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.31</v>
@@ -21910,7 +21952,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -21997,10 +22039,10 @@
         <v>0.2</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT110">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU110">
         <v>1.45</v>
@@ -22188,10 +22230,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT111">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU111">
         <v>1.95</v>
@@ -22292,7 +22334,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22379,10 +22421,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT112">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22483,7 +22525,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22573,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -22761,10 +22803,10 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -22865,7 +22907,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -22952,10 +22994,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23143,10 +23185,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23334,10 +23376,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT117">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AU117">
         <v>1.58</v>
@@ -23525,10 +23567,10 @@
         <v>2</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU118">
         <v>1.24</v>
@@ -23716,10 +23758,10 @@
         <v>0.8</v>
       </c>
       <c r="AS119">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT119">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU119">
         <v>1.26</v>
@@ -23907,10 +23949,10 @@
         <v>1.4</v>
       </c>
       <c r="AS120">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT120">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24011,7 +24053,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24098,10 +24140,10 @@
         <v>2</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT121">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24202,7 +24244,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24289,10 +24331,10 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT122">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU122">
         <v>1.68</v>
@@ -24483,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AT123">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -24671,7 +24713,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT124">
         <v>1.43</v>
@@ -24862,10 +24904,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.3</v>
@@ -25053,10 +25095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS126">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT126">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU126">
         <v>1.53</v>
@@ -25157,7 +25199,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25244,10 +25286,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT127">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -25435,10 +25477,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT128">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.53</v>
@@ -25626,10 +25668,10 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT129">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>1.77</v>
@@ -25817,10 +25859,10 @@
         <v>0.17</v>
       </c>
       <c r="AS130">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT130">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU130">
         <v>1.5</v>
@@ -26011,7 +26053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.59</v>
@@ -26063,6 +26105,3826 @@
       </c>
       <c r="BK131">
         <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>3168620</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" t="s">
+        <v>70</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>166</v>
+      </c>
+      <c r="P132" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132">
+        <v>9</v>
+      </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
+      <c r="T132">
+        <v>4</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>2.7</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>2.55</v>
+      </c>
+      <c r="Y132">
+        <v>2.95</v>
+      </c>
+      <c r="Z132">
+        <v>1.34</v>
+      </c>
+      <c r="AA132">
+        <v>8</v>
+      </c>
+      <c r="AB132">
+        <v>1.07</v>
+      </c>
+      <c r="AC132">
+        <v>2.8</v>
+      </c>
+      <c r="AD132">
+        <v>3.15</v>
+      </c>
+      <c r="AE132">
+        <v>2.32</v>
+      </c>
+      <c r="AF132">
+        <v>1.02</v>
+      </c>
+      <c r="AG132">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH132">
+        <v>1.31</v>
+      </c>
+      <c r="AI132">
+        <v>3.2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.9</v>
+      </c>
+      <c r="AK132">
+        <v>1.8</v>
+      </c>
+      <c r="AL132">
+        <v>1.83</v>
+      </c>
+      <c r="AM132">
+        <v>1.85</v>
+      </c>
+      <c r="AN132">
+        <v>1.71</v>
+      </c>
+      <c r="AO132">
+        <v>1.31</v>
+      </c>
+      <c r="AP132">
+        <v>1.28</v>
+      </c>
+      <c r="AQ132">
+        <v>1.67</v>
+      </c>
+      <c r="AR132">
+        <v>1.83</v>
+      </c>
+      <c r="AS132">
+        <v>1.86</v>
+      </c>
+      <c r="AT132">
+        <v>1.57</v>
+      </c>
+      <c r="AU132">
+        <v>1.4</v>
+      </c>
+      <c r="AV132">
+        <v>1.29</v>
+      </c>
+      <c r="AW132">
+        <v>2.69</v>
+      </c>
+      <c r="AX132">
+        <v>2.55</v>
+      </c>
+      <c r="AY132">
+        <v>5.5</v>
+      </c>
+      <c r="AZ132">
+        <v>1.68</v>
+      </c>
+      <c r="BA132">
+        <v>1.49</v>
+      </c>
+      <c r="BB132">
+        <v>1.89</v>
+      </c>
+      <c r="BC132">
+        <v>2.5</v>
+      </c>
+      <c r="BD132">
+        <v>3.42</v>
+      </c>
+      <c r="BE132">
+        <v>4.7</v>
+      </c>
+      <c r="BF132">
+        <v>3</v>
+      </c>
+      <c r="BG132">
+        <v>2</v>
+      </c>
+      <c r="BH132">
+        <v>7</v>
+      </c>
+      <c r="BI132">
+        <v>9</v>
+      </c>
+      <c r="BJ132">
+        <v>10</v>
+      </c>
+      <c r="BK132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2468451</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q133">
+        <v>5</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <v>4.33</v>
+      </c>
+      <c r="U133">
+        <v>2.05</v>
+      </c>
+      <c r="V133">
+        <v>2.75</v>
+      </c>
+      <c r="W133">
+        <v>1.5</v>
+      </c>
+      <c r="X133">
+        <v>2.5</v>
+      </c>
+      <c r="Y133">
+        <v>3.4</v>
+      </c>
+      <c r="Z133">
+        <v>1.3</v>
+      </c>
+      <c r="AA133">
+        <v>10</v>
+      </c>
+      <c r="AB133">
+        <v>1.06</v>
+      </c>
+      <c r="AC133">
+        <v>3.76</v>
+      </c>
+      <c r="AD133">
+        <v>3.26</v>
+      </c>
+      <c r="AE133">
+        <v>2.06</v>
+      </c>
+      <c r="AF133">
+        <v>1.1</v>
+      </c>
+      <c r="AG133">
+        <v>6.5</v>
+      </c>
+      <c r="AH133">
+        <v>1.42</v>
+      </c>
+      <c r="AI133">
+        <v>2.75</v>
+      </c>
+      <c r="AJ133">
+        <v>2.2</v>
+      </c>
+      <c r="AK133">
+        <v>1.64</v>
+      </c>
+      <c r="AL133">
+        <v>2</v>
+      </c>
+      <c r="AM133">
+        <v>1.73</v>
+      </c>
+      <c r="AN133">
+        <v>1.7</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1.28</v>
+      </c>
+      <c r="AQ133">
+        <v>0.67</v>
+      </c>
+      <c r="AR133">
+        <v>1.67</v>
+      </c>
+      <c r="AS133">
+        <v>1</v>
+      </c>
+      <c r="AT133">
+        <v>1.43</v>
+      </c>
+      <c r="AU133">
+        <v>1.35</v>
+      </c>
+      <c r="AV133">
+        <v>1.49</v>
+      </c>
+      <c r="AW133">
+        <v>2.84</v>
+      </c>
+      <c r="AX133">
+        <v>2.3</v>
+      </c>
+      <c r="AY133">
+        <v>5.5</v>
+      </c>
+      <c r="AZ133">
+        <v>1.8</v>
+      </c>
+      <c r="BA133">
+        <v>1.53</v>
+      </c>
+      <c r="BB133">
+        <v>1.98</v>
+      </c>
+      <c r="BC133">
+        <v>2.62</v>
+      </c>
+      <c r="BD133">
+        <v>3.56</v>
+      </c>
+      <c r="BE133">
+        <v>5.2</v>
+      </c>
+      <c r="BF133">
+        <v>7</v>
+      </c>
+      <c r="BG133">
+        <v>7</v>
+      </c>
+      <c r="BH133">
+        <v>2</v>
+      </c>
+      <c r="BI133">
+        <v>3</v>
+      </c>
+      <c r="BJ133">
+        <v>9</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2468449</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H134" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>86</v>
+      </c>
+      <c r="P134" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>4.5</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>2.75</v>
+      </c>
+      <c r="W134">
+        <v>1.5</v>
+      </c>
+      <c r="X134">
+        <v>2.5</v>
+      </c>
+      <c r="Y134">
+        <v>3.4</v>
+      </c>
+      <c r="Z134">
+        <v>1.3</v>
+      </c>
+      <c r="AA134">
+        <v>10</v>
+      </c>
+      <c r="AB134">
+        <v>1.06</v>
+      </c>
+      <c r="AC134">
+        <v>3.5</v>
+      </c>
+      <c r="AD134">
+        <v>3.24</v>
+      </c>
+      <c r="AE134">
+        <v>2.16</v>
+      </c>
+      <c r="AF134">
+        <v>1.08</v>
+      </c>
+      <c r="AG134">
+        <v>7</v>
+      </c>
+      <c r="AH134">
+        <v>1.5</v>
+      </c>
+      <c r="AI134">
+        <v>2.55</v>
+      </c>
+      <c r="AJ134">
+        <v>2.33</v>
+      </c>
+      <c r="AK134">
+        <v>1.57</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.73</v>
+      </c>
+      <c r="AN134">
+        <v>1.73</v>
+      </c>
+      <c r="AO134">
+        <v>1.33</v>
+      </c>
+      <c r="AP134">
+        <v>1.26</v>
+      </c>
+      <c r="AQ134">
+        <v>1.5</v>
+      </c>
+      <c r="AR134">
+        <v>1.83</v>
+      </c>
+      <c r="AS134">
+        <v>1.29</v>
+      </c>
+      <c r="AT134">
+        <v>2.13</v>
+      </c>
+      <c r="AU134">
+        <v>1.46</v>
+      </c>
+      <c r="AV134">
+        <v>1.47</v>
+      </c>
+      <c r="AW134">
+        <v>2.93</v>
+      </c>
+      <c r="AX134">
+        <v>2.65</v>
+      </c>
+      <c r="AY134">
+        <v>5.5</v>
+      </c>
+      <c r="AZ134">
+        <v>1.62</v>
+      </c>
+      <c r="BA134">
+        <v>1.6</v>
+      </c>
+      <c r="BB134">
+        <v>2.09</v>
+      </c>
+      <c r="BC134">
+        <v>2.81</v>
+      </c>
+      <c r="BD134">
+        <v>3.96</v>
+      </c>
+      <c r="BE134">
+        <v>5.4</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>2</v>
+      </c>
+      <c r="BH134">
+        <v>5</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>9</v>
+      </c>
+      <c r="BK134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2468452</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>7</v>
+      </c>
+      <c r="T135">
+        <v>2.6</v>
+      </c>
+      <c r="U135">
+        <v>2.1</v>
+      </c>
+      <c r="V135">
+        <v>4.75</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>2.63</v>
+      </c>
+      <c r="Y135">
+        <v>3.25</v>
+      </c>
+      <c r="Z135">
+        <v>1.33</v>
+      </c>
+      <c r="AA135">
+        <v>10</v>
+      </c>
+      <c r="AB135">
+        <v>1.06</v>
+      </c>
+      <c r="AC135">
+        <v>2.05</v>
+      </c>
+      <c r="AD135">
+        <v>3.42</v>
+      </c>
+      <c r="AE135">
+        <v>3.6</v>
+      </c>
+      <c r="AF135">
+        <v>1.08</v>
+      </c>
+      <c r="AG135">
+        <v>7</v>
+      </c>
+      <c r="AH135">
+        <v>1.36</v>
+      </c>
+      <c r="AI135">
+        <v>2.95</v>
+      </c>
+      <c r="AJ135">
+        <v>2.11</v>
+      </c>
+      <c r="AK135">
+        <v>1.73</v>
+      </c>
+      <c r="AL135">
+        <v>2</v>
+      </c>
+      <c r="AM135">
+        <v>1.73</v>
+      </c>
+      <c r="AN135">
+        <v>1.24</v>
+      </c>
+      <c r="AO135">
+        <v>1.31</v>
+      </c>
+      <c r="AP135">
+        <v>1.8</v>
+      </c>
+      <c r="AQ135">
+        <v>0.67</v>
+      </c>
+      <c r="AR135">
+        <v>0.67</v>
+      </c>
+      <c r="AS135">
+        <v>1.25</v>
+      </c>
+      <c r="AT135">
+        <v>0.57</v>
+      </c>
+      <c r="AU135">
+        <v>1.59</v>
+      </c>
+      <c r="AV135">
+        <v>1.21</v>
+      </c>
+      <c r="AW135">
+        <v>2.8</v>
+      </c>
+      <c r="AX135">
+        <v>1.43</v>
+      </c>
+      <c r="AY135">
+        <v>6</v>
+      </c>
+      <c r="AZ135">
+        <v>3.25</v>
+      </c>
+      <c r="BA135">
+        <v>1.39</v>
+      </c>
+      <c r="BB135">
+        <v>1.83</v>
+      </c>
+      <c r="BC135">
+        <v>2.17</v>
+      </c>
+      <c r="BD135">
+        <v>2.88</v>
+      </c>
+      <c r="BE135">
+        <v>4.1</v>
+      </c>
+      <c r="BF135">
+        <v>5</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>4</v>
+      </c>
+      <c r="BI135">
+        <v>3</v>
+      </c>
+      <c r="BJ135">
+        <v>9</v>
+      </c>
+      <c r="BK135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2468456</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>65</v>
+      </c>
+      <c r="H136" t="s">
+        <v>67</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>131</v>
+      </c>
+      <c r="P136" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>6</v>
+      </c>
+      <c r="S136">
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>3.6</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>3.4</v>
+      </c>
+      <c r="Z136">
+        <v>1.3</v>
+      </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>2.51</v>
+      </c>
+      <c r="AD136">
+        <v>3.18</v>
+      </c>
+      <c r="AE136">
+        <v>2.88</v>
+      </c>
+      <c r="AF136">
+        <v>1.1</v>
+      </c>
+      <c r="AG136">
+        <v>6.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.42</v>
+      </c>
+      <c r="AI136">
+        <v>2.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2.18</v>
+      </c>
+      <c r="AK136">
+        <v>1.64</v>
+      </c>
+      <c r="AL136">
+        <v>1.91</v>
+      </c>
+      <c r="AM136">
+        <v>1.8</v>
+      </c>
+      <c r="AN136">
+        <v>1.39</v>
+      </c>
+      <c r="AO136">
+        <v>1.34</v>
+      </c>
+      <c r="AP136">
+        <v>1.52</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.67</v>
+      </c>
+      <c r="AS136">
+        <v>1.25</v>
+      </c>
+      <c r="AT136">
+        <v>1.57</v>
+      </c>
+      <c r="AU136">
+        <v>1.19</v>
+      </c>
+      <c r="AV136">
+        <v>1.56</v>
+      </c>
+      <c r="AW136">
+        <v>2.75</v>
+      </c>
+      <c r="AX136">
+        <v>1.95</v>
+      </c>
+      <c r="AY136">
+        <v>5.25</v>
+      </c>
+      <c r="AZ136">
+        <v>2.15</v>
+      </c>
+      <c r="BA136">
+        <v>1.5</v>
+      </c>
+      <c r="BB136">
+        <v>1.83</v>
+      </c>
+      <c r="BC136">
+        <v>2.53</v>
+      </c>
+      <c r="BD136">
+        <v>3.42</v>
+      </c>
+      <c r="BE136">
+        <v>4.5</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>1</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>6</v>
+      </c>
+      <c r="BK136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2468453</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>86</v>
+      </c>
+      <c r="P137" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>3.2</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
+        <v>4</v>
+      </c>
+      <c r="W137">
+        <v>1.57</v>
+      </c>
+      <c r="X137">
+        <v>2.25</v>
+      </c>
+      <c r="Y137">
+        <v>3.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.25</v>
+      </c>
+      <c r="AA137">
+        <v>11</v>
+      </c>
+      <c r="AB137">
+        <v>1.05</v>
+      </c>
+      <c r="AC137">
+        <v>2.68</v>
+      </c>
+      <c r="AD137">
+        <v>3.08</v>
+      </c>
+      <c r="AE137">
+        <v>2.76</v>
+      </c>
+      <c r="AF137">
+        <v>1.1</v>
+      </c>
+      <c r="AG137">
+        <v>7</v>
+      </c>
+      <c r="AH137">
+        <v>1.5</v>
+      </c>
+      <c r="AI137">
+        <v>2.48</v>
+      </c>
+      <c r="AJ137">
+        <v>2.5</v>
+      </c>
+      <c r="AK137">
+        <v>1.5</v>
+      </c>
+      <c r="AL137">
+        <v>2.2</v>
+      </c>
+      <c r="AM137">
+        <v>1.62</v>
+      </c>
+      <c r="AN137">
+        <v>1.35</v>
+      </c>
+      <c r="AO137">
+        <v>1.36</v>
+      </c>
+      <c r="AP137">
+        <v>1.55</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1</v>
+      </c>
+      <c r="AS137">
+        <v>0.43</v>
+      </c>
+      <c r="AT137">
+        <v>1.29</v>
+      </c>
+      <c r="AU137">
+        <v>1.42</v>
+      </c>
+      <c r="AV137">
+        <v>1.04</v>
+      </c>
+      <c r="AW137">
+        <v>2.46</v>
+      </c>
+      <c r="AX137">
+        <v>1.58</v>
+      </c>
+      <c r="AY137">
+        <v>5.5</v>
+      </c>
+      <c r="AZ137">
+        <v>2.8</v>
+      </c>
+      <c r="BA137">
+        <v>1.56</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>2.62</v>
+      </c>
+      <c r="BD137">
+        <v>3.64</v>
+      </c>
+      <c r="BE137">
+        <v>5.4</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
+        <v>5</v>
+      </c>
+      <c r="BI137">
+        <v>3</v>
+      </c>
+      <c r="BJ137">
+        <v>5</v>
+      </c>
+      <c r="BK137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2468454</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>169</v>
+      </c>
+      <c r="P138" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>6</v>
+      </c>
+      <c r="T138">
+        <v>4</v>
+      </c>
+      <c r="U138">
+        <v>1.95</v>
+      </c>
+      <c r="V138">
+        <v>3.2</v>
+      </c>
+      <c r="W138">
+        <v>1.53</v>
+      </c>
+      <c r="X138">
+        <v>2.38</v>
+      </c>
+      <c r="Y138">
+        <v>3.75</v>
+      </c>
+      <c r="Z138">
+        <v>1.25</v>
+      </c>
+      <c r="AA138">
+        <v>11</v>
+      </c>
+      <c r="AB138">
+        <v>1.05</v>
+      </c>
+      <c r="AC138">
+        <v>2.83</v>
+      </c>
+      <c r="AD138">
+        <v>3.08</v>
+      </c>
+      <c r="AE138">
+        <v>2.62</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>6.8</v>
+      </c>
+      <c r="AH138">
+        <v>1.45</v>
+      </c>
+      <c r="AI138">
+        <v>2.59</v>
+      </c>
+      <c r="AJ138">
+        <v>2.4</v>
+      </c>
+      <c r="AK138">
+        <v>1.54</v>
+      </c>
+      <c r="AL138">
+        <v>2.1</v>
+      </c>
+      <c r="AM138">
+        <v>1.67</v>
+      </c>
+      <c r="AN138">
+        <v>1.58</v>
+      </c>
+      <c r="AO138">
+        <v>1.36</v>
+      </c>
+      <c r="AP138">
+        <v>1.33</v>
+      </c>
+      <c r="AQ138">
+        <v>2.33</v>
+      </c>
+      <c r="AR138">
+        <v>0.83</v>
+      </c>
+      <c r="AS138">
+        <v>2.14</v>
+      </c>
+      <c r="AT138">
+        <v>0.86</v>
+      </c>
+      <c r="AU138">
+        <v>1.26</v>
+      </c>
+      <c r="AV138">
+        <v>1.45</v>
+      </c>
+      <c r="AW138">
+        <v>2.71</v>
+      </c>
+      <c r="AX138">
+        <v>2.1</v>
+      </c>
+      <c r="AY138">
+        <v>5.25</v>
+      </c>
+      <c r="AZ138">
+        <v>2</v>
+      </c>
+      <c r="BA138">
+        <v>1.54</v>
+      </c>
+      <c r="BB138">
+        <v>1.88</v>
+      </c>
+      <c r="BC138">
+        <v>2.62</v>
+      </c>
+      <c r="BD138">
+        <v>3.64</v>
+      </c>
+      <c r="BE138">
+        <v>5</v>
+      </c>
+      <c r="BF138">
+        <v>2</v>
+      </c>
+      <c r="BG138">
+        <v>2</v>
+      </c>
+      <c r="BH138">
+        <v>3</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
+        <v>5</v>
+      </c>
+      <c r="BK138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2468455</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" t="s">
+        <v>82</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>86</v>
+      </c>
+      <c r="P139" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.53</v>
+      </c>
+      <c r="X139">
+        <v>2.38</v>
+      </c>
+      <c r="Y139">
+        <v>3.5</v>
+      </c>
+      <c r="Z139">
+        <v>1.29</v>
+      </c>
+      <c r="AA139">
+        <v>11</v>
+      </c>
+      <c r="AB139">
+        <v>1.05</v>
+      </c>
+      <c r="AC139">
+        <v>2.61</v>
+      </c>
+      <c r="AD139">
+        <v>3.13</v>
+      </c>
+      <c r="AE139">
+        <v>2.8</v>
+      </c>
+      <c r="AF139">
+        <v>1.1</v>
+      </c>
+      <c r="AG139">
+        <v>6.5</v>
+      </c>
+      <c r="AH139">
+        <v>1.45</v>
+      </c>
+      <c r="AI139">
+        <v>2.6</v>
+      </c>
+      <c r="AJ139">
+        <v>2.4</v>
+      </c>
+      <c r="AK139">
+        <v>1.54</v>
+      </c>
+      <c r="AL139">
+        <v>2</v>
+      </c>
+      <c r="AM139">
+        <v>1.73</v>
+      </c>
+      <c r="AN139">
+        <v>1.37</v>
+      </c>
+      <c r="AO139">
+        <v>1.36</v>
+      </c>
+      <c r="AP139">
+        <v>1.51</v>
+      </c>
+      <c r="AQ139">
+        <v>1.67</v>
+      </c>
+      <c r="AR139">
+        <v>1.71</v>
+      </c>
+      <c r="AS139">
+        <v>1.43</v>
+      </c>
+      <c r="AT139">
+        <v>1.88</v>
+      </c>
+      <c r="AU139">
+        <v>1.55</v>
+      </c>
+      <c r="AV139">
+        <v>1.43</v>
+      </c>
+      <c r="AW139">
+        <v>2.98</v>
+      </c>
+      <c r="AX139">
+        <v>1.76</v>
+      </c>
+      <c r="AY139">
+        <v>5.25</v>
+      </c>
+      <c r="AZ139">
+        <v>2.4</v>
+      </c>
+      <c r="BA139">
+        <v>1.56</v>
+      </c>
+      <c r="BB139">
+        <v>1.9</v>
+      </c>
+      <c r="BC139">
+        <v>2.69</v>
+      </c>
+      <c r="BD139">
+        <v>3.74</v>
+      </c>
+      <c r="BE139">
+        <v>5.4</v>
+      </c>
+      <c r="BF139">
+        <v>2</v>
+      </c>
+      <c r="BG139">
+        <v>5</v>
+      </c>
+      <c r="BH139">
+        <v>5</v>
+      </c>
+      <c r="BI139">
+        <v>1</v>
+      </c>
+      <c r="BJ139">
+        <v>7</v>
+      </c>
+      <c r="BK139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2468457</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" t="s">
+        <v>79</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>170</v>
+      </c>
+      <c r="P140" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q140">
+        <v>4</v>
+      </c>
+      <c r="R140">
+        <v>13</v>
+      </c>
+      <c r="S140">
+        <v>17</v>
+      </c>
+      <c r="T140">
+        <v>3.5</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
+        <v>3.4</v>
+      </c>
+      <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>2.5</v>
+      </c>
+      <c r="Y140">
+        <v>3.4</v>
+      </c>
+      <c r="Z140">
+        <v>1.3</v>
+      </c>
+      <c r="AA140">
+        <v>10</v>
+      </c>
+      <c r="AB140">
+        <v>1.06</v>
+      </c>
+      <c r="AC140">
+        <v>2.6</v>
+      </c>
+      <c r="AD140">
+        <v>3.2</v>
+      </c>
+      <c r="AE140">
+        <v>2.75</v>
+      </c>
+      <c r="AF140">
+        <v>1.08</v>
+      </c>
+      <c r="AG140">
+        <v>7</v>
+      </c>
+      <c r="AH140">
+        <v>1.4</v>
+      </c>
+      <c r="AI140">
+        <v>2.8</v>
+      </c>
+      <c r="AJ140">
+        <v>2.18</v>
+      </c>
+      <c r="AK140">
+        <v>1.64</v>
+      </c>
+      <c r="AL140">
+        <v>1.91</v>
+      </c>
+      <c r="AM140">
+        <v>1.8</v>
+      </c>
+      <c r="AN140">
+        <v>1.45</v>
+      </c>
+      <c r="AO140">
+        <v>1.43</v>
+      </c>
+      <c r="AP140">
+        <v>1.41</v>
+      </c>
+      <c r="AQ140">
+        <v>1.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.17</v>
+      </c>
+      <c r="AS140">
+        <v>1.71</v>
+      </c>
+      <c r="AT140">
+        <v>1</v>
+      </c>
+      <c r="AU140">
+        <v>1.54</v>
+      </c>
+      <c r="AV140">
+        <v>1.32</v>
+      </c>
+      <c r="AW140">
+        <v>2.86</v>
+      </c>
+      <c r="AX140">
+        <v>1.95</v>
+      </c>
+      <c r="AY140">
+        <v>5</v>
+      </c>
+      <c r="AZ140">
+        <v>2.15</v>
+      </c>
+      <c r="BA140">
+        <v>1.63</v>
+      </c>
+      <c r="BB140">
+        <v>1.88</v>
+      </c>
+      <c r="BC140">
+        <v>2.62</v>
+      </c>
+      <c r="BD140">
+        <v>3.65</v>
+      </c>
+      <c r="BE140">
+        <v>5.4</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>7</v>
+      </c>
+      <c r="BH140">
+        <v>5</v>
+      </c>
+      <c r="BI140">
+        <v>11</v>
+      </c>
+      <c r="BJ140">
+        <v>8</v>
+      </c>
+      <c r="BK140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2468450</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44872.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>171</v>
+      </c>
+      <c r="P141" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
+        <v>10</v>
+      </c>
+      <c r="S141">
+        <v>12</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>2.1</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>2.75</v>
+      </c>
+      <c r="Y141">
+        <v>3</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>9</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>2.25</v>
+      </c>
+      <c r="AD141">
+        <v>3.3</v>
+      </c>
+      <c r="AE141">
+        <v>3.1</v>
+      </c>
+      <c r="AF141">
+        <v>1.07</v>
+      </c>
+      <c r="AG141">
+        <v>7.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.33</v>
+      </c>
+      <c r="AI141">
+        <v>3.2</v>
+      </c>
+      <c r="AJ141">
+        <v>1.9</v>
+      </c>
+      <c r="AK141">
+        <v>1.72</v>
+      </c>
+      <c r="AL141">
+        <v>1.83</v>
+      </c>
+      <c r="AM141">
+        <v>1.83</v>
+      </c>
+      <c r="AN141">
+        <v>1.33</v>
+      </c>
+      <c r="AO141">
+        <v>1.32</v>
+      </c>
+      <c r="AP141">
+        <v>1.63</v>
+      </c>
+      <c r="AQ141">
+        <v>1.57</v>
+      </c>
+      <c r="AR141">
+        <v>0.86</v>
+      </c>
+      <c r="AS141">
+        <v>1.75</v>
+      </c>
+      <c r="AT141">
+        <v>0.75</v>
+      </c>
+      <c r="AU141">
+        <v>1.51</v>
+      </c>
+      <c r="AV141">
+        <v>1.48</v>
+      </c>
+      <c r="AW141">
+        <v>2.99</v>
+      </c>
+      <c r="AX141">
+        <v>1.8</v>
+      </c>
+      <c r="AY141">
+        <v>5.5</v>
+      </c>
+      <c r="AZ141">
+        <v>2.35</v>
+      </c>
+      <c r="BA141">
+        <v>1.36</v>
+      </c>
+      <c r="BB141">
+        <v>1.66</v>
+      </c>
+      <c r="BC141">
+        <v>2.12</v>
+      </c>
+      <c r="BD141">
+        <v>2.88</v>
+      </c>
+      <c r="BE141">
+        <v>4.1</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>6</v>
+      </c>
+      <c r="BH141">
+        <v>8</v>
+      </c>
+      <c r="BI141">
+        <v>15</v>
+      </c>
+      <c r="BJ141">
+        <v>15</v>
+      </c>
+      <c r="BK141">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2468458</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>86</v>
+      </c>
+      <c r="P142" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q142">
+        <v>5</v>
+      </c>
+      <c r="R142">
+        <v>7</v>
+      </c>
+      <c r="S142">
+        <v>12</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
+        <v>5.25</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>2.6</v>
+      </c>
+      <c r="Y142">
+        <v>3</v>
+      </c>
+      <c r="Z142">
+        <v>1.33</v>
+      </c>
+      <c r="AA142">
+        <v>7</v>
+      </c>
+      <c r="AB142">
+        <v>1.07</v>
+      </c>
+      <c r="AC142">
+        <v>1.68</v>
+      </c>
+      <c r="AD142">
+        <v>3.84</v>
+      </c>
+      <c r="AE142">
+        <v>4.94</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>7.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.36</v>
+      </c>
+      <c r="AI142">
+        <v>2.9</v>
+      </c>
+      <c r="AJ142">
+        <v>1.94</v>
+      </c>
+      <c r="AK142">
+        <v>1.86</v>
+      </c>
+      <c r="AL142">
+        <v>2</v>
+      </c>
+      <c r="AM142">
+        <v>1.7</v>
+      </c>
+      <c r="AN142">
+        <v>1.17</v>
+      </c>
+      <c r="AO142">
+        <v>1.29</v>
+      </c>
+      <c r="AP142">
+        <v>2.15</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.29</v>
+      </c>
+      <c r="AS142">
+        <v>1.14</v>
+      </c>
+      <c r="AT142">
+        <v>1.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.64</v>
+      </c>
+      <c r="AV142">
+        <v>1.04</v>
+      </c>
+      <c r="AW142">
+        <v>2.68</v>
+      </c>
+      <c r="AX142">
+        <v>1.32</v>
+      </c>
+      <c r="AY142">
+        <v>6.5</v>
+      </c>
+      <c r="AZ142">
+        <v>4.05</v>
+      </c>
+      <c r="BA142">
+        <v>1.5</v>
+      </c>
+      <c r="BB142">
+        <v>1.92</v>
+      </c>
+      <c r="BC142">
+        <v>2.27</v>
+      </c>
+      <c r="BD142">
+        <v>3.18</v>
+      </c>
+      <c r="BE142">
+        <v>5.2</v>
+      </c>
+      <c r="BF142">
+        <v>5</v>
+      </c>
+      <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>6</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2468466</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" t="s">
+        <v>68</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>86</v>
+      </c>
+      <c r="P143" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>7</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>3.7</v>
+      </c>
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>3.3</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>2.4</v>
+      </c>
+      <c r="Y143">
+        <v>3.2</v>
+      </c>
+      <c r="Z143">
+        <v>1.3</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>1.05</v>
+      </c>
+      <c r="AC143">
+        <v>2.88</v>
+      </c>
+      <c r="AD143">
+        <v>3</v>
+      </c>
+      <c r="AE143">
+        <v>2.7</v>
+      </c>
+      <c r="AF143">
+        <v>1.08</v>
+      </c>
+      <c r="AG143">
+        <v>6.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.4</v>
+      </c>
+      <c r="AI143">
+        <v>2.7</v>
+      </c>
+      <c r="AJ143">
+        <v>2.38</v>
+      </c>
+      <c r="AK143">
+        <v>1.57</v>
+      </c>
+      <c r="AL143">
+        <v>1.98</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.53</v>
+      </c>
+      <c r="AO143">
+        <v>1.36</v>
+      </c>
+      <c r="AP143">
+        <v>1.4</v>
+      </c>
+      <c r="AQ143">
+        <v>1.29</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AS143">
+        <v>1.13</v>
+      </c>
+      <c r="AT143">
+        <v>2.13</v>
+      </c>
+      <c r="AU143">
+        <v>1.53</v>
+      </c>
+      <c r="AV143">
+        <v>1.4</v>
+      </c>
+      <c r="AW143">
+        <v>2.93</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>5.25</v>
+      </c>
+      <c r="AZ143">
+        <v>2.1</v>
+      </c>
+      <c r="BA143">
+        <v>1.65</v>
+      </c>
+      <c r="BB143">
+        <v>1.95</v>
+      </c>
+      <c r="BC143">
+        <v>2.73</v>
+      </c>
+      <c r="BD143">
+        <v>3.74</v>
+      </c>
+      <c r="BE143">
+        <v>5.1</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
+        <v>5</v>
+      </c>
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>8</v>
+      </c>
+      <c r="BK143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2468459</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>83</v>
+      </c>
+      <c r="H144" t="s">
+        <v>81</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>172</v>
+      </c>
+      <c r="P144" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>6</v>
+      </c>
+      <c r="T144">
+        <v>2.8</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>3.9</v>
+      </c>
+      <c r="W144">
+        <v>1.49</v>
+      </c>
+      <c r="X144">
+        <v>2.45</v>
+      </c>
+      <c r="Y144">
+        <v>3.3</v>
+      </c>
+      <c r="Z144">
+        <v>1.29</v>
+      </c>
+      <c r="AA144">
+        <v>9.25</v>
+      </c>
+      <c r="AB144">
+        <v>1.05</v>
+      </c>
+      <c r="AC144">
+        <v>2.15</v>
+      </c>
+      <c r="AD144">
+        <v>3.13</v>
+      </c>
+      <c r="AE144">
+        <v>3.7</v>
+      </c>
+      <c r="AF144">
+        <v>1.07</v>
+      </c>
+      <c r="AG144">
+        <v>7</v>
+      </c>
+      <c r="AH144">
+        <v>1.4</v>
+      </c>
+      <c r="AI144">
+        <v>2.7</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.62</v>
+      </c>
+      <c r="AL144">
+        <v>1.98</v>
+      </c>
+      <c r="AM144">
+        <v>1.72</v>
+      </c>
+      <c r="AN144">
+        <v>1.31</v>
+      </c>
+      <c r="AO144">
+        <v>1.32</v>
+      </c>
+      <c r="AP144">
+        <v>1.65</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.14</v>
+      </c>
+      <c r="AS144">
+        <v>1.25</v>
+      </c>
+      <c r="AT144">
+        <v>1</v>
+      </c>
+      <c r="AU144">
+        <v>1.58</v>
+      </c>
+      <c r="AV144">
+        <v>1.14</v>
+      </c>
+      <c r="AW144">
+        <v>2.72</v>
+      </c>
+      <c r="AX144">
+        <v>1.57</v>
+      </c>
+      <c r="AY144">
+        <v>5.75</v>
+      </c>
+      <c r="AZ144">
+        <v>2.75</v>
+      </c>
+      <c r="BA144">
+        <v>1.56</v>
+      </c>
+      <c r="BB144">
+        <v>1.85</v>
+      </c>
+      <c r="BC144">
+        <v>2.42</v>
+      </c>
+      <c r="BD144">
+        <v>3.48</v>
+      </c>
+      <c r="BE144">
+        <v>5.1</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>6</v>
+      </c>
+      <c r="BH144">
+        <v>8</v>
+      </c>
+      <c r="BI144">
+        <v>13</v>
+      </c>
+      <c r="BJ144">
+        <v>13</v>
+      </c>
+      <c r="BK144">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2468460</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>74</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>96</v>
+      </c>
+      <c r="P145" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q145">
+        <v>7</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>2.65</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>4.33</v>
+      </c>
+      <c r="W145">
+        <v>1.46</v>
+      </c>
+      <c r="X145">
+        <v>2.55</v>
+      </c>
+      <c r="Y145">
+        <v>3.05</v>
+      </c>
+      <c r="Z145">
+        <v>1.33</v>
+      </c>
+      <c r="AA145">
+        <v>8</v>
+      </c>
+      <c r="AB145">
+        <v>1.05</v>
+      </c>
+      <c r="AC145">
+        <v>1.95</v>
+      </c>
+      <c r="AD145">
+        <v>3.3</v>
+      </c>
+      <c r="AE145">
+        <v>4.2</v>
+      </c>
+      <c r="AF145">
+        <v>1.07</v>
+      </c>
+      <c r="AG145">
+        <v>7</v>
+      </c>
+      <c r="AH145">
+        <v>1.36</v>
+      </c>
+      <c r="AI145">
+        <v>2.95</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.65</v>
+      </c>
+      <c r="AL145">
+        <v>1.9</v>
+      </c>
+      <c r="AM145">
+        <v>1.83</v>
+      </c>
+      <c r="AN145">
+        <v>1.2</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.8</v>
+      </c>
+      <c r="AQ145">
+        <v>2</v>
+      </c>
+      <c r="AR145">
+        <v>1.14</v>
+      </c>
+      <c r="AS145">
+        <v>2.13</v>
+      </c>
+      <c r="AT145">
+        <v>1</v>
+      </c>
+      <c r="AU145">
+        <v>1.77</v>
+      </c>
+      <c r="AV145">
+        <v>1.23</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
+        <v>1.45</v>
+      </c>
+      <c r="AY145">
+        <v>6</v>
+      </c>
+      <c r="AZ145">
+        <v>3.2</v>
+      </c>
+      <c r="BA145">
+        <v>1.55</v>
+      </c>
+      <c r="BB145">
+        <v>1.85</v>
+      </c>
+      <c r="BC145">
+        <v>2.43</v>
+      </c>
+      <c r="BD145">
+        <v>3.42</v>
+      </c>
+      <c r="BE145">
+        <v>5.1</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2468461</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>82</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>173</v>
+      </c>
+      <c r="P146" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>8</v>
+      </c>
+      <c r="S146">
+        <v>14</v>
+      </c>
+      <c r="T146">
+        <v>2.9</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.45</v>
+      </c>
+      <c r="X146">
+        <v>2.6</v>
+      </c>
+      <c r="Y146">
+        <v>3</v>
+      </c>
+      <c r="Z146">
+        <v>1.34</v>
+      </c>
+      <c r="AA146">
+        <v>7.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.06</v>
+      </c>
+      <c r="AC146">
+        <v>2.2</v>
+      </c>
+      <c r="AD146">
+        <v>3.2</v>
+      </c>
+      <c r="AE146">
+        <v>3.5</v>
+      </c>
+      <c r="AF146">
+        <v>1.07</v>
+      </c>
+      <c r="AG146">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH146">
+        <v>1.36</v>
+      </c>
+      <c r="AI146">
+        <v>3</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.7</v>
+      </c>
+      <c r="AL146">
+        <v>1.83</v>
+      </c>
+      <c r="AM146">
+        <v>1.9</v>
+      </c>
+      <c r="AN146">
+        <v>1.28</v>
+      </c>
+      <c r="AO146">
+        <v>1.28</v>
+      </c>
+      <c r="AP146">
+        <v>1.63</v>
+      </c>
+      <c r="AQ146">
+        <v>0.83</v>
+      </c>
+      <c r="AR146">
+        <v>0.67</v>
+      </c>
+      <c r="AS146">
+        <v>0.71</v>
+      </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>1.36</v>
+      </c>
+      <c r="AV146">
+        <v>1.52</v>
+      </c>
+      <c r="AW146">
+        <v>2.88</v>
+      </c>
+      <c r="AX146">
+        <v>1.64</v>
+      </c>
+      <c r="AY146">
+        <v>5.75</v>
+      </c>
+      <c r="AZ146">
+        <v>2.6</v>
+      </c>
+      <c r="BA146">
+        <v>1.53</v>
+      </c>
+      <c r="BB146">
+        <v>1.88</v>
+      </c>
+      <c r="BC146">
+        <v>2.34</v>
+      </c>
+      <c r="BD146">
+        <v>3.2</v>
+      </c>
+      <c r="BE146">
+        <v>4.1</v>
+      </c>
+      <c r="BF146">
+        <v>2</v>
+      </c>
+      <c r="BG146">
+        <v>8</v>
+      </c>
+      <c r="BH146">
+        <v>3</v>
+      </c>
+      <c r="BI146">
+        <v>3</v>
+      </c>
+      <c r="BJ146">
+        <v>5</v>
+      </c>
+      <c r="BK146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2468462</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H147" t="s">
+        <v>65</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>86</v>
+      </c>
+      <c r="P147" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>6</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>3.47</v>
+      </c>
+      <c r="U147">
+        <v>1.99</v>
+      </c>
+      <c r="V147">
+        <v>3.82</v>
+      </c>
+      <c r="W147">
+        <v>1.56</v>
+      </c>
+      <c r="X147">
+        <v>2.45</v>
+      </c>
+      <c r="Y147">
+        <v>3.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.26</v>
+      </c>
+      <c r="AA147">
+        <v>10</v>
+      </c>
+      <c r="AB147">
+        <v>1.05</v>
+      </c>
+      <c r="AC147">
+        <v>2.63</v>
+      </c>
+      <c r="AD147">
+        <v>2.88</v>
+      </c>
+      <c r="AE147">
+        <v>3.1</v>
+      </c>
+      <c r="AF147">
+        <v>1.09</v>
+      </c>
+      <c r="AG147">
+        <v>6</v>
+      </c>
+      <c r="AH147">
+        <v>1.53</v>
+      </c>
+      <c r="AI147">
+        <v>2.45</v>
+      </c>
+      <c r="AJ147">
+        <v>2.35</v>
+      </c>
+      <c r="AK147">
+        <v>1.53</v>
+      </c>
+      <c r="AL147">
+        <v>2.09</v>
+      </c>
+      <c r="AM147">
+        <v>1.75</v>
+      </c>
+      <c r="AN147">
+        <v>1.38</v>
+      </c>
+      <c r="AO147">
+        <v>1.42</v>
+      </c>
+      <c r="AP147">
+        <v>1.49</v>
+      </c>
+      <c r="AQ147">
+        <v>2.29</v>
+      </c>
+      <c r="AR147">
+        <v>0.67</v>
+      </c>
+      <c r="AS147">
+        <v>2.13</v>
+      </c>
+      <c r="AT147">
+        <v>0.71</v>
+      </c>
+      <c r="AU147">
+        <v>1.3</v>
+      </c>
+      <c r="AV147">
+        <v>1.19</v>
+      </c>
+      <c r="AW147">
+        <v>2.49</v>
+      </c>
+      <c r="AX147">
+        <v>1.95</v>
+      </c>
+      <c r="AY147">
+        <v>5</v>
+      </c>
+      <c r="AZ147">
+        <v>2.15</v>
+      </c>
+      <c r="BA147">
+        <v>1.66</v>
+      </c>
+      <c r="BB147">
+        <v>1.88</v>
+      </c>
+      <c r="BC147">
+        <v>2.69</v>
+      </c>
+      <c r="BD147">
+        <v>3.74</v>
+      </c>
+      <c r="BE147">
+        <v>5.1</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>3</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>7</v>
+      </c>
+      <c r="BK147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>3168621</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>70</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>112</v>
+      </c>
+      <c r="P148" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q148">
+        <v>9</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>2.14</v>
+      </c>
+      <c r="U148">
+        <v>2.17</v>
+      </c>
+      <c r="V148">
+        <v>4.55</v>
+      </c>
+      <c r="W148">
+        <v>1.41</v>
+      </c>
+      <c r="X148">
+        <v>2.74</v>
+      </c>
+      <c r="Y148">
+        <v>2.84</v>
+      </c>
+      <c r="Z148">
+        <v>1.37</v>
+      </c>
+      <c r="AA148">
+        <v>7.95</v>
+      </c>
+      <c r="AB148">
+        <v>1.08</v>
+      </c>
+      <c r="AC148">
+        <v>1.65</v>
+      </c>
+      <c r="AD148">
+        <v>3.6</v>
+      </c>
+      <c r="AE148">
+        <v>5.75</v>
+      </c>
+      <c r="AF148">
+        <v>1.06</v>
+      </c>
+      <c r="AG148">
+        <v>10.75</v>
+      </c>
+      <c r="AH148">
+        <v>1.33</v>
+      </c>
+      <c r="AI148">
+        <v>3.37</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>1.8</v>
+      </c>
+      <c r="AL148">
+        <v>1.94</v>
+      </c>
+      <c r="AM148">
+        <v>1.77</v>
+      </c>
+      <c r="AN148">
+        <v>1.11</v>
+      </c>
+      <c r="AO148">
+        <v>1.23</v>
+      </c>
+      <c r="AP148">
+        <v>2.13</v>
+      </c>
+      <c r="AQ148">
+        <v>2.29</v>
+      </c>
+      <c r="AR148">
+        <v>1.14</v>
+      </c>
+      <c r="AS148">
+        <v>2.13</v>
+      </c>
+      <c r="AT148">
+        <v>1.13</v>
+      </c>
+      <c r="AU148">
+        <v>1.56</v>
+      </c>
+      <c r="AV148">
+        <v>1.21</v>
+      </c>
+      <c r="AW148">
+        <v>2.77</v>
+      </c>
+      <c r="AX148">
+        <v>1.32</v>
+      </c>
+      <c r="AY148">
+        <v>6.5</v>
+      </c>
+      <c r="AZ148">
+        <v>4.05</v>
+      </c>
+      <c r="BA148">
+        <v>1.51</v>
+      </c>
+      <c r="BB148">
+        <v>1.88</v>
+      </c>
+      <c r="BC148">
+        <v>2.28</v>
+      </c>
+      <c r="BD148">
+        <v>3.18</v>
+      </c>
+      <c r="BE148">
+        <v>5.1</v>
+      </c>
+      <c r="BF148">
+        <v>10</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>17</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>27</v>
+      </c>
+      <c r="BK148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2468463</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>79</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>86</v>
+      </c>
+      <c r="P149" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q149">
+        <v>9</v>
+      </c>
+      <c r="R149">
+        <v>8</v>
+      </c>
+      <c r="S149">
+        <v>17</v>
+      </c>
+      <c r="T149">
+        <v>2.55</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>4.5</v>
+      </c>
+      <c r="W149">
+        <v>1.5</v>
+      </c>
+      <c r="X149">
+        <v>2.4</v>
+      </c>
+      <c r="Y149">
+        <v>3.3</v>
+      </c>
+      <c r="Z149">
+        <v>1.29</v>
+      </c>
+      <c r="AA149">
+        <v>9.25</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+      <c r="AC149">
+        <v>1.91</v>
+      </c>
+      <c r="AD149">
+        <v>3.25</v>
+      </c>
+      <c r="AE149">
+        <v>4.5</v>
+      </c>
+      <c r="AF149">
+        <v>1.08</v>
+      </c>
+      <c r="AG149">
+        <v>7</v>
+      </c>
+      <c r="AH149">
+        <v>1.42</v>
+      </c>
+      <c r="AI149">
+        <v>2.65</v>
+      </c>
+      <c r="AJ149">
+        <v>2.25</v>
+      </c>
+      <c r="AK149">
+        <v>1.62</v>
+      </c>
+      <c r="AL149">
+        <v>2.05</v>
+      </c>
+      <c r="AM149">
+        <v>1.66</v>
+      </c>
+      <c r="AN149">
+        <v>1.22</v>
+      </c>
+      <c r="AO149">
+        <v>1.32</v>
+      </c>
+      <c r="AP149">
+        <v>1.83</v>
+      </c>
+      <c r="AQ149">
+        <v>2.29</v>
+      </c>
+      <c r="AR149">
+        <v>0.86</v>
+      </c>
+      <c r="AS149">
+        <v>2</v>
+      </c>
+      <c r="AT149">
+        <v>1.13</v>
+      </c>
+      <c r="AU149">
+        <v>1.62</v>
+      </c>
+      <c r="AV149">
+        <v>0.91</v>
+      </c>
+      <c r="AW149">
+        <v>2.53</v>
+      </c>
+      <c r="AX149">
+        <v>1.41</v>
+      </c>
+      <c r="AY149">
+        <v>6</v>
+      </c>
+      <c r="AZ149">
+        <v>3.4</v>
+      </c>
+      <c r="BA149">
+        <v>1.65</v>
+      </c>
+      <c r="BB149">
+        <v>2.06</v>
+      </c>
+      <c r="BC149">
+        <v>2.77</v>
+      </c>
+      <c r="BD149">
+        <v>3.9</v>
+      </c>
+      <c r="BE149">
+        <v>5.7</v>
+      </c>
+      <c r="BF149">
+        <v>9</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>10</v>
+      </c>
+      <c r="BI149">
+        <v>6</v>
+      </c>
+      <c r="BJ149">
+        <v>19</v>
+      </c>
+      <c r="BK149">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2468464</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>115</v>
+      </c>
+      <c r="P150" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q150">
+        <v>7</v>
+      </c>
+      <c r="R150">
+        <v>4</v>
+      </c>
+      <c r="S150">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>3.1</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>3.6</v>
+      </c>
+      <c r="W150">
+        <v>1.47</v>
+      </c>
+      <c r="X150">
+        <v>2.6</v>
+      </c>
+      <c r="Y150">
+        <v>3.2</v>
+      </c>
+      <c r="Z150">
+        <v>1.33</v>
+      </c>
+      <c r="AA150">
+        <v>8.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.06</v>
+      </c>
+      <c r="AC150">
+        <v>2.7</v>
+      </c>
+      <c r="AD150">
+        <v>3.1</v>
+      </c>
+      <c r="AE150">
+        <v>2.8</v>
+      </c>
+      <c r="AF150">
+        <v>1.07</v>
+      </c>
+      <c r="AG150">
+        <v>7</v>
+      </c>
+      <c r="AH150">
+        <v>1.4</v>
+      </c>
+      <c r="AI150">
+        <v>2.7</v>
+      </c>
+      <c r="AJ150">
+        <v>2.25</v>
+      </c>
+      <c r="AK150">
+        <v>1.62</v>
+      </c>
+      <c r="AL150">
+        <v>1.92</v>
+      </c>
+      <c r="AM150">
+        <v>1.79</v>
+      </c>
+      <c r="AN150">
+        <v>1.4</v>
+      </c>
+      <c r="AO150">
+        <v>1.35</v>
+      </c>
+      <c r="AP150">
+        <v>1.55</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>0.14</v>
+      </c>
+      <c r="AS150">
+        <v>1</v>
+      </c>
+      <c r="AT150">
+        <v>0.25</v>
+      </c>
+      <c r="AU150">
+        <v>1.29</v>
+      </c>
+      <c r="AV150">
+        <v>1.53</v>
+      </c>
+      <c r="AW150">
+        <v>2.82</v>
+      </c>
+      <c r="AX150">
+        <v>1.8</v>
+      </c>
+      <c r="AY150">
+        <v>5.25</v>
+      </c>
+      <c r="AZ150">
+        <v>2.35</v>
+      </c>
+      <c r="BA150">
+        <v>1.56</v>
+      </c>
+      <c r="BB150">
+        <v>1.85</v>
+      </c>
+      <c r="BC150">
+        <v>2.44</v>
+      </c>
+      <c r="BD150">
+        <v>3.42</v>
+      </c>
+      <c r="BE150">
+        <v>5.1</v>
+      </c>
+      <c r="BF150">
+        <v>4</v>
+      </c>
+      <c r="BG150">
+        <v>2</v>
+      </c>
+      <c r="BH150">
+        <v>9</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>13</v>
+      </c>
+      <c r="BK150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2468465</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>84</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>86</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>5</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151">
+        <v>6</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.98</v>
+      </c>
+      <c r="V151">
+        <v>4.75</v>
+      </c>
+      <c r="W151">
+        <v>1.49</v>
+      </c>
+      <c r="X151">
+        <v>2.45</v>
+      </c>
+      <c r="Y151">
+        <v>3.2</v>
+      </c>
+      <c r="Z151">
+        <v>1.3</v>
+      </c>
+      <c r="AA151">
+        <v>8.75</v>
+      </c>
+      <c r="AB151">
+        <v>1.06</v>
+      </c>
+      <c r="AC151">
+        <v>1.85</v>
+      </c>
+      <c r="AD151">
+        <v>3.3</v>
+      </c>
+      <c r="AE151">
+        <v>4.75</v>
+      </c>
+      <c r="AF151">
+        <v>1.08</v>
+      </c>
+      <c r="AG151">
+        <v>7</v>
+      </c>
+      <c r="AH151">
+        <v>1.41</v>
+      </c>
+      <c r="AI151">
+        <v>2.65</v>
+      </c>
+      <c r="AJ151">
+        <v>2.38</v>
+      </c>
+      <c r="AK151">
+        <v>1.57</v>
+      </c>
+      <c r="AL151">
+        <v>2.05</v>
+      </c>
+      <c r="AM151">
+        <v>1.66</v>
+      </c>
+      <c r="AN151">
+        <v>1.2</v>
+      </c>
+      <c r="AO151">
+        <v>1.31</v>
+      </c>
+      <c r="AP151">
+        <v>1.9</v>
+      </c>
+      <c r="AQ151">
+        <v>2.29</v>
+      </c>
+      <c r="AR151">
+        <v>1.14</v>
+      </c>
+      <c r="AS151">
+        <v>2.13</v>
+      </c>
+      <c r="AT151">
+        <v>1.13</v>
+      </c>
+      <c r="AU151">
+        <v>1.76</v>
+      </c>
+      <c r="AV151">
+        <v>1.07</v>
+      </c>
+      <c r="AW151">
+        <v>2.83</v>
+      </c>
+      <c r="AX151">
+        <v>1.4</v>
+      </c>
+      <c r="AY151">
+        <v>6</v>
+      </c>
+      <c r="AZ151">
+        <v>3.5</v>
+      </c>
+      <c r="BA151">
+        <v>1.58</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>2.46</v>
+      </c>
+      <c r="BD151">
+        <v>3.64</v>
+      </c>
+      <c r="BE151">
+        <v>5.3</v>
+      </c>
+      <c r="BF151">
+        <v>5</v>
+      </c>
+      <c r="BG151">
+        <v>2</v>
+      </c>
+      <c r="BH151">
+        <v>4</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>9</v>
+      </c>
+      <c r="BK151">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>2.13</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.13</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.27</v>
@@ -6587,7 +6587,7 @@
         <v>2.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.43</v>
@@ -7399,7 +7399,7 @@
         <v>2.13</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT35" t="n">
         <v>0.25</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.13</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -8820,7 +8820,7 @@
         <v>2.13</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>0.71</v>
@@ -9226,7 +9226,7 @@
         <v>2.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU46" t="n">
         <v>0.79</v>
@@ -10038,7 +10038,7 @@
         <v>0.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>1.13</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT55" t="n">
         <v>1.13</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT64" t="n">
         <v>0.71</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT65" t="n">
         <v>1.13</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.25</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>0.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -14910,7 +14910,7 @@
         <v>1.14</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT72" t="n">
         <v>1.43</v>
@@ -15316,7 +15316,7 @@
         <v>2.13</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT80" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>1.57</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -17143,7 +17143,7 @@
         <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT84" t="n">
         <v>0.25</v>
@@ -17752,7 +17752,7 @@
         <v>0.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>2.13</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT87" t="n">
         <v>1.13</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT94" t="n">
         <v>2.13</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
         <v>1.43</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
         <v>1.13</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21609,7 +21609,7 @@
         <v>2.13</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22421,7 +22421,7 @@
         <v>2.13</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22824,7 +22824,7 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT110" t="n">
         <v>0.25</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.95</v>
@@ -23233,7 +23233,7 @@
         <v>1.14</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
         <v>1.43</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
         <v>1.13</v>
@@ -24045,7 +24045,7 @@
         <v>1.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT119" t="n">
         <v>1.13</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25057,10 +25057,10 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25263,7 +25263,7 @@
         <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -25669,7 +25669,7 @@
         <v>0.71</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT127" t="n">
         <v>1.13</v>
@@ -26684,7 +26684,7 @@
         <v>2.13</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26884,7 +26884,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
         <v>0.25</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT134" t="n">
         <v>1.43</v>
@@ -27899,7 +27899,7 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
         <v>2.13</v>
@@ -28105,7 +28105,7 @@
         <v>0.43</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28305,10 +28305,10 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU137" t="n">
         <v>1.26</v>
@@ -28508,10 +28508,10 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         <v>1.25</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29117,10 +29117,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29323,7 +29323,7 @@
         <v>1.14</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -31202,6 +31202,2036 @@
       </c>
       <c r="BK151" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2468469</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44921.54166666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['2', '51']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>7</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3168622</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44921.62847222222</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>7</v>
+      </c>
+      <c r="S153" t="n">
+        <v>9</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2468473</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3</v>
+      </c>
+      <c r="L154" t="n">
+        <v>5</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['27', '30', '37', '63', '88']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2468467</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['65', '69']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>7</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2468468</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>10</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2468470</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R157" t="n">
+        <v>6</v>
+      </c>
+      <c r="S157" t="n">
+        <v>12</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2468471</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>5</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2468474</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>5</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>9</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2468472</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>8</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2468475</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['22', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT8" t="n">
         <v>0.63</v>
@@ -2324,7 +2324,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT10" t="n">
         <v>1.25</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1.38</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT20" t="n">
         <v>1.75</v>
@@ -4760,7 +4760,7 @@
         <v>2.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>2.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -5978,7 +5978,7 @@
         <v>2.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.44</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU29" t="n">
         <v>1.27</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT30" t="n">
         <v>0.63</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7602,7 +7602,7 @@
         <v>1.44</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT38" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.13</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU42" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT43" t="n">
         <v>1.75</v>
@@ -9429,7 +9429,7 @@
         <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU44" t="n">
         <v>1.31</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT49" t="n">
         <v>1.13</v>
@@ -10647,7 +10647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>2.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13083,7 +13083,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT69" t="n">
         <v>1.38</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT71" t="n">
         <v>1.38</v>
@@ -15113,7 +15113,7 @@
         <v>1.44</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15719,10 +15719,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16328,10 +16328,10 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.45</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT85" t="n">
         <v>1.33</v>
@@ -17952,10 +17952,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18561,10 +18561,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18767,7 +18767,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT91" t="n">
         <v>1.13</v>
@@ -19173,7 +19173,7 @@
         <v>2.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.88</v>
@@ -19579,7 +19579,7 @@
         <v>1.44</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -19782,7 +19782,7 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20591,7 +20591,7 @@
         <v>2.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT99" t="n">
         <v>1.75</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.33</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT103" t="n">
         <v>1.13</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT108" t="n">
         <v>1.25</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT112" t="n">
         <v>2</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1.13</v>
@@ -23639,7 +23639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24245,10 +24245,10 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -24654,7 +24654,7 @@
         <v>1.44</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.26</v>
@@ -24857,7 +24857,7 @@
         <v>1.63</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,7 +25057,7 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT121" t="n">
         <v>1.38</v>
@@ -25463,10 +25463,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT124" t="n">
         <v>1.25</v>
@@ -25869,10 +25869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT126" t="n">
         <v>1.13</v>
@@ -26278,7 +26278,7 @@
         <v>2.22</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>2.25</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27696,10 +27696,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT134" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>1.43</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27902,7 +27902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT136" t="n">
         <v>1.13</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.26</v>
@@ -28508,7 +28508,7 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU139" t="n">
         <v>1.54</v>
@@ -28914,7 +28914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT140" t="n">
         <v>0.63</v>
@@ -29320,7 +29320,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU146" t="n">
         <v>1.3</v>
@@ -30335,10 +30335,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30541,7 +30541,7 @@
         <v>2</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -30741,10 +30741,10 @@
         <v>0.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -31147,10 +31147,10 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -32571,7 +32571,7 @@
         <v>2</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32974,10 +32974,10 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU160" t="n">
         <v>1.47</v>
@@ -33232,6 +33232,2036 @@
       </c>
       <c r="BK161" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3168623</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44925.54166666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['30', '32']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2468476</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44925.62847222222</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2468480</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['9', '16']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>6</v>
+      </c>
+      <c r="R164" t="n">
+        <v>9</v>
+      </c>
+      <c r="S164" t="n">
+        <v>15</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2468483</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>8</v>
+      </c>
+      <c r="R165" t="n">
+        <v>6</v>
+      </c>
+      <c r="S165" t="n">
+        <v>14</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2468482</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['15', '50']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>7</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2468481</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>6</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2468479</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>8</v>
+      </c>
+      <c r="S168" t="n">
+        <v>11</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2468478</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>3</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['23', '54', '83']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>9</v>
+      </c>
+      <c r="R169" t="n">
+        <v>5</v>
+      </c>
+      <c r="S169" t="n">
+        <v>14</v>
+      </c>
+      <c r="T169" t="n">
+        <v>3</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2468477</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4</v>
+      </c>
+      <c r="R170" t="n">
+        <v>4</v>
+      </c>
+      <c r="S170" t="n">
+        <v>8</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2468484</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['31', '48']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT6" t="n">
         <v>0.78</v>
@@ -2121,7 +2121,7 @@
         <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.78</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>0.33</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.89</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.11</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5775,7 +5775,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -6181,7 +6181,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT31" t="n">
         <v>0.67</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -8211,7 +8211,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU40" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.89</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU42" t="n">
         <v>1.46</v>
@@ -9226,7 +9226,7 @@
         <v>2.22</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT44" t="n">
         <v>1.22</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT46" t="n">
         <v>0.67</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0.78</v>
@@ -10241,7 +10241,7 @@
         <v>2.22</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>1.22</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11662,7 +11662,7 @@
         <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU55" t="n">
         <v>1.65</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT62" t="n">
         <v>0.78</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13489,7 +13489,7 @@
         <v>1.78</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13692,7 +13692,7 @@
         <v>1.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13895,7 +13895,7 @@
         <v>2.22</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
         <v>0.33</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14501,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT70" t="n">
         <v>0.67</v>
@@ -14907,10 +14907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15113,7 +15113,7 @@
         <v>1.44</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.22</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT75" t="n">
         <v>0.89</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16940,7 +16940,7 @@
         <v>2.22</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81" t="n">
         <v>1.45</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>1.33</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU87" t="n">
         <v>1.52</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT90" t="n">
         <v>0.89</v>
@@ -18967,10 +18967,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.33</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
         <v>2</v>
@@ -19779,10 +19779,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT96" t="n">
         <v>1.22</v>
@@ -20594,7 +20594,7 @@
         <v>1.22</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>1.11</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21406,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22421,7 +22421,7 @@
         <v>1.89</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.89</v>
@@ -22824,7 +22824,7 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT110" t="n">
         <v>0.33</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>2</v>
@@ -23436,7 +23436,7 @@
         <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23639,7 +23639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT120" t="n">
         <v>1.22</v>
@@ -25060,7 +25060,7 @@
         <v>1.78</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT122" t="n">
         <v>0.67</v>
@@ -25466,7 +25466,7 @@
         <v>1.22</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,10 +25666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -26075,7 +26075,7 @@
         <v>2.22</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU126" t="n">
         <v>1.53</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -26884,7 +26884,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT130" t="n">
         <v>0.33</v>
@@ -27087,10 +27087,10 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27496,7 +27496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27699,7 +27699,7 @@
         <v>1.22</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,7 +27899,7 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT135" t="n">
         <v>2</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT137" t="n">
         <v>0.78</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT139" t="n">
         <v>1.22</v>
@@ -28917,7 +28917,7 @@
         <v>1.11</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29320,7 +29320,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30135,7 +30135,7 @@
         <v>1.89</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU146" t="n">
         <v>1.3</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT148" t="n">
         <v>1.33</v>
@@ -30944,10 +30944,10 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU150" t="n">
         <v>1.76</v>
@@ -31553,10 +31553,10 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31759,7 +31759,7 @@
         <v>1.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31959,10 +31959,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>1.67</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32568,7 +32568,7 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT158" t="n">
         <v>1.22</v>
@@ -32771,7 +32771,7 @@
         <v>1.88</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT159" t="n">
         <v>2</v>
@@ -33177,10 +33177,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>2.22</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU162" t="n">
         <v>1.76</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT163" t="n">
         <v>0.78</v>
@@ -33786,10 +33786,10 @@
         <v>0.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -34398,7 +34398,7 @@
         <v>1.89</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34598,7 +34598,7 @@
         <v>2.13</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>2</v>
@@ -35262,6 +35262,2036 @@
       </c>
       <c r="BK171" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3168624</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['52', '82']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['4', '25']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>10</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>12</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2468493</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>7</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2468492</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>4</v>
+      </c>
+      <c r="N174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['48', '56', '60', '89']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2</v>
+      </c>
+      <c r="R174" t="n">
+        <v>5</v>
+      </c>
+      <c r="S174" t="n">
+        <v>7</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2468485</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2</v>
+      </c>
+      <c r="R175" t="n">
+        <v>6</v>
+      </c>
+      <c r="S175" t="n">
+        <v>8</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2468486</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>4</v>
+      </c>
+      <c r="R176" t="n">
+        <v>7</v>
+      </c>
+      <c r="S176" t="n">
+        <v>11</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2468487</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['11', '90+3']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>6</v>
+      </c>
+      <c r="R177" t="n">
+        <v>7</v>
+      </c>
+      <c r="S177" t="n">
+        <v>13</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2468488</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>7</v>
+      </c>
+      <c r="R178" t="n">
+        <v>4</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2468489</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['45+1', '73']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['42', '70']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R179" t="n">
+        <v>6</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>3</v>
+      </c>
+      <c r="U179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2468490</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>8</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>10</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2468491</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>6</v>
+      </c>
+      <c r="R181" t="n">
+        <v>4</v>
+      </c>
+      <c r="S181" t="n">
+        <v>10</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1106,7 +1106,7 @@
         <v>1.44</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.67</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT10" t="n">
         <v>1.11</v>
@@ -2730,7 +2730,7 @@
         <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT20" t="n">
         <v>1.67</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5978,7 +5978,7 @@
         <v>2.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1.11</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT29" t="n">
         <v>0.78</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>1.89</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT38" t="n">
         <v>1.44</v>
@@ -8414,7 +8414,7 @@
         <v>1.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5600000000000001</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT43" t="n">
         <v>1.67</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.31</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10647,7 +10647,7 @@
         <v>1.44</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT53" t="n">
         <v>1.11</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT55" t="n">
         <v>1.11</v>
@@ -11865,7 +11865,7 @@
         <v>1.22</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -12068,7 +12068,7 @@
         <v>1.89</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -12271,7 +12271,7 @@
         <v>1.89</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT62" t="n">
         <v>0.78</v>
@@ -13286,7 +13286,7 @@
         <v>1.89</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT64" t="n">
         <v>0.5600000000000001</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT65" t="n">
         <v>1.11</v>
@@ -14098,7 +14098,7 @@
         <v>1.89</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
         <v>1.11</v>
@@ -15316,7 +15316,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15722,7 +15722,7 @@
         <v>0.78</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT80" t="n">
         <v>1.67</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5600000000000001</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT82" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT87" t="n">
         <v>1.11</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT89" t="n">
         <v>1.44</v>
@@ -18767,7 +18767,7 @@
         <v>1.44</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.88</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
         <v>2</v>
@@ -19985,7 +19985,7 @@
         <v>0.78</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT100" t="n">
         <v>1.33</v>
@@ -20997,10 +20997,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT102" t="n">
         <v>1.44</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT103" t="n">
         <v>1.11</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22015,7 +22015,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -22827,7 +22827,7 @@
         <v>1.44</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23233,7 +23233,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT114" t="n">
         <v>1.11</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT116" t="n">
         <v>0.78</v>
@@ -24651,10 +24651,10 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU119" t="n">
         <v>1.26</v>
@@ -24857,7 +24857,7 @@
         <v>1.44</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,7 +25057,7 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -25872,7 +25872,7 @@
         <v>1.89</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT126" t="n">
         <v>1.11</v>
@@ -26278,7 +26278,7 @@
         <v>2.22</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26887,7 +26887,7 @@
         <v>1.44</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
         <v>1.44</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
         <v>1.67</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT134" t="n">
         <v>1.11</v>
@@ -28105,7 +28105,7 @@
         <v>0.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28508,10 +28508,10 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28714,7 +28714,7 @@
         <v>1.44</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.54</v>
@@ -28914,7 +28914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT140" t="n">
         <v>0.67</v>
@@ -29117,7 +29117,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT141" t="n">
         <v>0.67</v>
@@ -29323,7 +29323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -30335,10 +30335,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30541,7 +30541,7 @@
         <v>1.89</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -30744,7 +30744,7 @@
         <v>1.22</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT151" t="n">
         <v>2</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -31553,7 +31553,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT153" t="n">
         <v>1.33</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT154" t="n">
         <v>1.11</v>
@@ -31962,7 +31962,7 @@
         <v>1.44</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32162,7 +32162,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT156" t="n">
         <v>0.67</v>
@@ -32368,7 +32368,7 @@
         <v>2.22</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32571,7 +32571,7 @@
         <v>1.89</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32774,7 +32774,7 @@
         <v>1.44</v>
       </c>
       <c r="AT159" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -32974,7 +32974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT160" t="n">
         <v>0.78</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT162" t="n">
         <v>1.11</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34195,7 +34195,7 @@
         <v>1.22</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35207,10 +35207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -35613,7 +35613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT173" t="n">
         <v>1.11</v>
@@ -37240,7 +37240,7 @@
         <v>1.44</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -37292,6 +37292,1630 @@
       </c>
       <c r="BK181" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2468501</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>3</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['61', '84', '90+2']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>6</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V182" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2468499</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>7</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>9</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V183" t="n">
+        <v>4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2468496</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>3</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>4</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['16', '49', '78']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
+      <c r="S184" t="n">
+        <v>7</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2468500</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['45+1', '75']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>8</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V185" t="n">
+        <v>4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2468494</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['72', '90+2']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>6</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3</v>
+      </c>
+      <c r="S186" t="n">
+        <v>9</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2468502</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>4</v>
+      </c>
+      <c r="N187" t="n">
+        <v>6</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['2', '57']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['43', '48', '83', '89']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2468495</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3168625</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.44</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.8</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.27</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.21</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>0.67</v>
@@ -13083,7 +13083,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -17346,7 +17346,7 @@
         <v>1.89</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.41</v>
@@ -17952,7 +17952,7 @@
         <v>0.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.3</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>0.9</v>
@@ -24451,7 +24451,7 @@
         <v>1.3</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.59</v>
@@ -25463,7 +25463,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
         <v>1.2</v>
@@ -28917,7 +28917,7 @@
         <v>1.89</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.26</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -32365,7 +32365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.2</v>
@@ -32774,7 +32774,7 @@
         <v>1.9</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -33586,7 +33586,7 @@
         <v>1.33</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -39118,6 +39118,209 @@
         <v>10</v>
       </c>
       <c r="BK190" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2468497</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44946.60416666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['64', '89']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
+      <c r="R191" t="n">
+        <v>4</v>
+      </c>
+      <c r="S191" t="n">
+        <v>7</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK191" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT2" t="n">
         <v>0.9</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>1.2</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.3</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5600000000000001</v>
@@ -3542,7 +3542,7 @@
         <v>1.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.3</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0.9</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT24" t="n">
         <v>1.2</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>2.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
         <v>0.9</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT35" t="n">
         <v>0.3</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU36" t="n">
         <v>0.9</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.2</v>
@@ -8211,7 +8211,7 @@
         <v>1.3</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8414,7 +8414,7 @@
         <v>1.1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU40" t="n">
         <v>1</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9226,7 +9226,7 @@
         <v>2.1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT46" t="n">
         <v>0.9</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0.9</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>0.9</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11659,10 +11659,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.65</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT58" t="n">
         <v>0.3</v>
@@ -12474,7 +12474,7 @@
         <v>1.3</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.45</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT61" t="n">
         <v>0.9</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT63" t="n">
         <v>1.3</v>
@@ -13692,7 +13692,7 @@
         <v>1.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
         <v>0.3</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT70" t="n">
         <v>0.9</v>
@@ -14907,10 +14907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,10 +15313,10 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT74" t="n">
         <v>1.2</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT75" t="n">
         <v>0.8</v>
@@ -16331,7 +16331,7 @@
         <v>1.1</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -17952,7 +17952,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>2.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.52</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18564,7 +18564,7 @@
         <v>1.9</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT90" t="n">
         <v>0.8</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT91" t="n">
         <v>1.3</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT92" t="n">
         <v>1.2</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,10 +19576,10 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -19779,10 +19779,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT96" t="n">
         <v>1.2</v>
@@ -20188,7 +20188,7 @@
         <v>1.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20594,7 +20594,7 @@
         <v>1.1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>2.1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21406,7 +21406,7 @@
         <v>0.9</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -21812,7 +21812,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU105" t="n">
         <v>1.54</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT106" t="n">
         <v>1.2</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5600000000000001</v>
@@ -22418,10 +22418,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22824,7 +22824,7 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT110" t="n">
         <v>0.3</v>
@@ -23230,10 +23230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23639,7 +23639,7 @@
         <v>1.8</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24245,10 +24245,10 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT119" t="n">
         <v>1.2</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT120" t="n">
         <v>1.2</v>
@@ -25060,7 +25060,7 @@
         <v>1.9</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT122" t="n">
         <v>0.9</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT125" t="n">
         <v>0.8</v>
@@ -26075,7 +26075,7 @@
         <v>2.1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.53</v>
@@ -26481,7 +26481,7 @@
         <v>0.9</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU128" t="n">
         <v>1.53</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT129" t="n">
         <v>1.2</v>
@@ -26884,7 +26884,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT130" t="n">
         <v>0.3</v>
@@ -27090,7 +27090,7 @@
         <v>2.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27699,7 +27699,7 @@
         <v>1.4</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,10 +27899,10 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT136" t="n">
         <v>1.3</v>
@@ -28305,7 +28305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28511,7 +28511,7 @@
         <v>1.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT139" t="n">
         <v>1.2</v>
@@ -28917,7 +28917,7 @@
         <v>1.3</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29320,7 +29320,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.2</v>
@@ -29729,7 +29729,7 @@
         <v>2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT146" t="n">
         <v>0.5600000000000001</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT148" t="n">
         <v>1.2</v>
@@ -30944,10 +30944,10 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.76</v>
@@ -31150,7 +31150,7 @@
         <v>0.9</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31556,7 +31556,7 @@
         <v>2.4</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31756,10 +31756,10 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31959,7 +31959,7 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT155" t="n">
         <v>1.3</v>
@@ -32165,7 +32165,7 @@
         <v>1.8</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32568,7 +32568,7 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT158" t="n">
         <v>1.2</v>
@@ -32771,10 +32771,10 @@
         <v>1.88</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -33177,10 +33177,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>2.1</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU162" t="n">
         <v>1.76</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -33786,7 +33786,7 @@
         <v>0.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT164" t="n">
         <v>0.5600000000000001</v>
@@ -34395,10 +34395,10 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -35410,10 +35410,10 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35616,7 +35616,7 @@
         <v>2.4</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35816,10 +35816,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -36019,10 +36019,10 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU175" t="n">
         <v>1.5</v>
@@ -36222,10 +36222,10 @@
         <v>1.25</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36628,10 +36628,10 @@
         <v>0.63</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU178" t="n">
         <v>1.28</v>
@@ -36831,10 +36831,10 @@
         <v>1.13</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.3</v>
@@ -37034,10 +37034,10 @@
         <v>1.75</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37237,7 +37237,7 @@
         <v>1.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT181" t="n">
         <v>1.3</v>
@@ -38049,7 +38049,7 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT185" t="n">
         <v>0.8</v>
@@ -38661,7 +38661,7 @@
         <v>1.4</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU188" t="n">
         <v>1.37</v>
@@ -39322,6 +39322,2036 @@
       </c>
       <c r="BK191" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2468504</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>3</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['50', '78']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['3', '89', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>8</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>10</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2468503</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['15', '62', '87']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>4</v>
+      </c>
+      <c r="S193" t="n">
+        <v>8</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2468505</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>7</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2468506</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>8</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2468507</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3</v>
+      </c>
+      <c r="R196" t="n">
+        <v>9</v>
+      </c>
+      <c r="S196" t="n">
+        <v>12</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2468508</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>3</v>
+      </c>
+      <c r="R197" t="n">
+        <v>8</v>
+      </c>
+      <c r="S197" t="n">
+        <v>11</v>
+      </c>
+      <c r="T197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2468509</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['53', '60']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['6', '35']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>9</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>12</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2468510</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>4</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['12', '17', '35']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['30', '63']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>6</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2468511</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7</v>
+      </c>
+      <c r="S200" t="n">
+        <v>10</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3168626</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3</v>
+      </c>
+      <c r="N201" t="n">
+        <v>3</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['12', '56', '60']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.45</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT11" t="n">
         <v>1.64</v>
@@ -2933,7 +2933,7 @@
         <v>1.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1.2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
         <v>1.3</v>
@@ -4151,7 +4151,7 @@
         <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT20" t="n">
         <v>1.8</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT22" t="n">
         <v>1.64</v>
@@ -5166,7 +5166,7 @@
         <v>2.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5369,7 +5369,7 @@
         <v>1.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU27" t="n">
         <v>1.59</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT28" t="n">
         <v>1.1</v>
@@ -6384,7 +6384,7 @@
         <v>1.45</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU29" t="n">
         <v>1.27</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT30" t="n">
         <v>0.6</v>
@@ -6790,7 +6790,7 @@
         <v>1.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>2.15</v>
@@ -7602,7 +7602,7 @@
         <v>1.45</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT38" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.64</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT43" t="n">
         <v>1.8</v>
@@ -9429,7 +9429,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU44" t="n">
         <v>1.31</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -9835,7 +9835,7 @@
         <v>1.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU46" t="n">
         <v>0.79</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU47" t="n">
         <v>1.21</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT48" t="n">
         <v>0.6</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT49" t="n">
         <v>1.3</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT53" t="n">
         <v>1.3</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.87</v>
@@ -12880,7 +12880,7 @@
         <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13083,7 +13083,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU62" t="n">
         <v>1.62</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT65" t="n">
         <v>1.1</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT66" t="n">
         <v>1.1</v>
@@ -14098,7 +14098,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14707,7 +14707,7 @@
         <v>1.4</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT73" t="n">
         <v>1.64</v>
@@ -15519,7 +15519,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU74" t="n">
         <v>1.97</v>
@@ -15722,7 +15722,7 @@
         <v>0.7</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16328,10 +16328,10 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT80" t="n">
         <v>1.8</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.45</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -17749,10 +17749,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,10 +17952,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.4</v>
@@ -18767,7 +18767,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -19173,7 +19173,7 @@
         <v>1.9</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU92" t="n">
         <v>1.88</v>
@@ -19579,7 +19579,7 @@
         <v>1.45</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.47</v>
@@ -19985,7 +19985,7 @@
         <v>0.7</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT97" t="n">
         <v>1.2</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20591,7 +20591,7 @@
         <v>2.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
         <v>1.8</v>
@@ -20794,7 +20794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -20997,10 +20997,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT102" t="n">
         <v>1.4</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT103" t="n">
         <v>1.1</v>
@@ -22015,7 +22015,7 @@
         <v>1.4</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22218,7 +22218,7 @@
         <v>1.8</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT108" t="n">
         <v>1.1</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -22827,7 +22827,7 @@
         <v>1.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU111" t="n">
         <v>1.95</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.3</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT114" t="n">
         <v>1.3</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24248,7 +24248,7 @@
         <v>0.7</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.58</v>
@@ -24654,7 +24654,7 @@
         <v>1.45</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU119" t="n">
         <v>1.26</v>
@@ -24857,7 +24857,7 @@
         <v>1.6</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,7 +25057,7 @@
         <v>2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25263,7 +25263,7 @@
         <v>1.8</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -25463,10 +25463,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT124" t="n">
         <v>1.1</v>
@@ -25869,10 +25869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT126" t="n">
         <v>1.1</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT128" t="n">
         <v>1.2</v>
@@ -26684,7 +26684,7 @@
         <v>1.9</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26887,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT134" t="n">
         <v>1.3</v>
@@ -27902,7 +27902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.46</v>
@@ -28308,7 +28308,7 @@
         <v>1.8</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU137" t="n">
         <v>1.26</v>
@@ -28508,7 +28508,7 @@
         <v>1.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.4</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU139" t="n">
         <v>1.54</v>
@@ -28914,7 +28914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT140" t="n">
         <v>0.6</v>
@@ -29117,10 +29117,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29323,7 +29323,7 @@
         <v>1.2</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT144" t="n">
         <v>1.2</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT145" t="n">
         <v>1.4</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.3</v>
@@ -30335,10 +30335,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30541,7 +30541,7 @@
         <v>1.8</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -30741,10 +30741,10 @@
         <v>0.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -31147,10 +31147,10 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31350,10 +31350,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -32162,7 +32162,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT156" t="n">
         <v>0.6</v>
@@ -32365,10 +32365,10 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32571,7 +32571,7 @@
         <v>1.8</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32974,10 +32974,10 @@
         <v>0.86</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU160" t="n">
         <v>1.47</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT162" t="n">
         <v>1.3</v>
@@ -33586,7 +33586,7 @@
         <v>1.2</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33789,7 +33789,7 @@
         <v>0.7</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.32</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT167" t="n">
         <v>1.4</v>
@@ -34598,10 +34598,10 @@
         <v>2.13</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35207,10 +35207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -36425,10 +36425,10 @@
         <v>0.63</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.23</v>
@@ -37443,7 +37443,7 @@
         <v>2.4</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -37846,10 +37846,10 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU184" t="n">
         <v>1.58</v>
@@ -38052,7 +38052,7 @@
         <v>1.45</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU185" t="n">
         <v>1.19</v>
@@ -38252,10 +38252,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU186" t="n">
         <v>1.52</v>
@@ -38455,7 +38455,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT187" t="n">
         <v>1.3</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT188" t="n">
         <v>1.64</v>
@@ -38861,10 +38861,10 @@
         <v>1.22</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39064,10 +39064,10 @@
         <v>0.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -39267,10 +39267,10 @@
         <v>0.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU191" t="n">
         <v>1.77</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT196" t="n">
         <v>1.2</v>
@@ -40488,7 +40488,7 @@
         <v>1.8</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU197" t="n">
         <v>1.75</v>
@@ -41352,6 +41352,2036 @@
       </c>
       <c r="BK201" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3168627</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['15', '77']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2468512</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>7</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>10</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V203" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2468515</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>4</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['14', '20', '64', '87']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>7</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2468516</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>8</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2468517</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>3</v>
+      </c>
+      <c r="S206" t="n">
+        <v>6</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2468518</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>3</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['30', '37', '51']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4</v>
+      </c>
+      <c r="R207" t="n">
+        <v>7</v>
+      </c>
+      <c r="S207" t="n">
+        <v>11</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2468519</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['50', '65']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>12</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>15</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2468520</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['63', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>5</v>
+      </c>
+      <c r="R209" t="n">
+        <v>4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2468514</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>5</v>
+      </c>
+      <c r="S210" t="n">
+        <v>10</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2468513</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['67', '80']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3</v>
+      </c>
+      <c r="R211" t="n">
+        <v>3</v>
+      </c>
+      <c r="S211" t="n">
+        <v>6</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>0.82</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT3" t="n">
         <v>1.18</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT6" t="n">
         <v>0.91</v>
@@ -2121,7 +2121,7 @@
         <v>1.55</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.09</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT12" t="n">
         <v>0.55</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.82</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4557,7 +4557,7 @@
         <v>1.45</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>1.4</v>
@@ -4963,7 +4963,7 @@
         <v>0.82</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT23" t="n">
         <v>1.09</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT24" t="n">
         <v>1.18</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -6181,7 +6181,7 @@
         <v>1.55</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>0.91</v>
@@ -6587,7 +6587,7 @@
         <v>1.91</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT31" t="n">
         <v>0.82</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU33" t="n">
         <v>1.02</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
         <v>0.55</v>
@@ -7805,7 +7805,7 @@
         <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU36" t="n">
         <v>0.9</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT37" t="n">
         <v>1.09</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU39" t="n">
         <v>2.51</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.82</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU41" t="n">
         <v>1.49</v>
@@ -9226,7 +9226,7 @@
         <v>1.91</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT44" t="n">
         <v>1.36</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT46" t="n">
         <v>0.82</v>
@@ -10241,7 +10241,7 @@
         <v>2.09</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU48" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>1.55</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT50" t="n">
         <v>1.09</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>0.82</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU53" t="n">
         <v>1.29</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11659,10 +11659,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.65</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU57" t="n">
         <v>1.27</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU60" t="n">
         <v>1.45</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.09</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT62" t="n">
         <v>0.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13692,7 +13692,7 @@
         <v>1.73</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13895,7 +13895,7 @@
         <v>2.09</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14095,7 +14095,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT67" t="n">
         <v>0.55</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU68" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>0.9</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.45</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT70" t="n">
         <v>0.82</v>
@@ -14907,10 +14907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT72" t="n">
         <v>1.45</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>1.3</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15316,7 +15316,7 @@
         <v>1.82</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU73" t="n">
         <v>1.4</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT75" t="n">
         <v>0.73</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.52</v>
@@ -18361,7 +18361,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT90" t="n">
         <v>0.73</v>
@@ -18967,10 +18967,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.09</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU93" t="n">
         <v>1.39</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT94" t="n">
         <v>2</v>
@@ -19779,10 +19779,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU95" t="n">
         <v>1.15</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT96" t="n">
         <v>1.36</v>
@@ -20188,7 +20188,7 @@
         <v>1.55</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>1.45</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21406,7 +21406,7 @@
         <v>0.82</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.86</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU105" t="n">
         <v>1.54</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT106" t="n">
         <v>1.18</v>
@@ -22421,7 +22421,7 @@
         <v>1.82</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22824,7 +22824,7 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT110" t="n">
         <v>0.55</v>
@@ -23230,10 +23230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23639,7 +23639,7 @@
         <v>1.73</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1.09</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT120" t="n">
         <v>1.36</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.57</v>
@@ -25669,7 +25669,7 @@
         <v>0.9</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -26075,7 +26075,7 @@
         <v>1.91</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.53</v>
@@ -26481,7 +26481,7 @@
         <v>0.82</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU128" t="n">
         <v>1.53</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.18</v>
@@ -26884,7 +26884,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT130" t="n">
         <v>0.55</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT131" t="n">
         <v>1.4</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU132" t="n">
         <v>1.4</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27699,7 +27699,7 @@
         <v>1.55</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,7 +27899,7 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT135" t="n">
         <v>2</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -28305,7 +28305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT137" t="n">
         <v>0.91</v>
@@ -28511,7 +28511,7 @@
         <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28711,7 +28711,7 @@
         <v>1.17</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT139" t="n">
         <v>1.36</v>
@@ -28917,7 +28917,7 @@
         <v>1.45</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU140" t="n">
         <v>1.59</v>
@@ -29320,7 +29320,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT142" t="n">
         <v>1.18</v>
@@ -29729,7 +29729,7 @@
         <v>2.09</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -30944,10 +30944,10 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.76</v>
@@ -31553,10 +31553,10 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU153" t="n">
         <v>1.57</v>
@@ -31756,10 +31756,10 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31959,10 +31959,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>1.73</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32568,7 +32568,7 @@
         <v>1</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT158" t="n">
         <v>1.36</v>
@@ -32771,10 +32771,10 @@
         <v>1.88</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU159" t="n">
         <v>1.47</v>
@@ -33177,10 +33177,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>1.91</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU162" t="n">
         <v>1.76</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT163" t="n">
         <v>0.91</v>
@@ -33786,7 +33786,7 @@
         <v>0.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT164" t="n">
         <v>0.5</v>
@@ -35410,10 +35410,10 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35613,10 +35613,10 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU173" t="n">
         <v>1.54</v>
@@ -35816,7 +35816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT174" t="n">
         <v>1.4</v>
@@ -36019,10 +36019,10 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU175" t="n">
         <v>1.5</v>
@@ -36222,10 +36222,10 @@
         <v>1.25</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36628,10 +36628,10 @@
         <v>0.63</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU178" t="n">
         <v>1.28</v>
@@ -36831,10 +36831,10 @@
         <v>1.13</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.3</v>
@@ -37037,7 +37037,7 @@
         <v>1.8</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37237,10 +37237,10 @@
         <v>1.13</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -37440,7 +37440,7 @@
         <v>0.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT182" t="n">
         <v>0.55</v>
@@ -38049,7 +38049,7 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT185" t="n">
         <v>0.73</v>
@@ -38458,7 +38458,7 @@
         <v>0.82</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU187" t="n">
         <v>1.42</v>
@@ -38661,7 +38661,7 @@
         <v>1.55</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU188" t="n">
         <v>1.37</v>
@@ -39470,10 +39470,10 @@
         <v>1.11</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU192" t="n">
         <v>1.68</v>
@@ -39673,10 +39673,10 @@
         <v>1.8</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39876,10 +39876,10 @@
         <v>1.67</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU194" t="n">
         <v>1.27</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT195" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.82</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU196" t="n">
         <v>1.3</v>
@@ -40688,10 +40688,10 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -40891,10 +40891,10 @@
         <v>0.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU199" t="n">
         <v>1.35</v>
@@ -41094,10 +41094,10 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41297,10 +41297,10 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU201" t="n">
         <v>1.19</v>
@@ -43382,6 +43382,1833 @@
       </c>
       <c r="BK211" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3168628</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['33', '67']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>5</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>8</v>
+      </c>
+      <c r="T212" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2468521</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['22', '68']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>4</v>
+      </c>
+      <c r="R213" t="n">
+        <v>4</v>
+      </c>
+      <c r="S213" t="n">
+        <v>8</v>
+      </c>
+      <c r="T213" t="n">
+        <v>3</v>
+      </c>
+      <c r="U213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2468523</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['11', '79']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>5</v>
+      </c>
+      <c r="R214" t="n">
+        <v>7</v>
+      </c>
+      <c r="S214" t="n">
+        <v>12</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2468526</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>6</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1</v>
+      </c>
+      <c r="S215" t="n">
+        <v>7</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U215" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V215" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2468527</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['12', '53']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>4</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>6</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2468528</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V217" t="n">
+        <v>5</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2468529</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['50', '69', '82']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>4</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1</v>
+      </c>
+      <c r="S218" t="n">
+        <v>5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2468524</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['12', '17', '90+3']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>4</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
+        <v>7</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2468522</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>3</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['18', '49', '83']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['17', '63']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>5</v>
+      </c>
+      <c r="R220" t="n">
+        <v>5</v>
+      </c>
+      <c r="S220" t="n">
+        <v>10</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK220"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>1.45</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -11459,7 +11459,7 @@
         <v>0.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
         <v>1.58</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>0.82</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -21203,7 +21203,7 @@
         <v>1.91</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT122" t="n">
         <v>0.82</v>
@@ -27090,7 +27090,7 @@
         <v>2.27</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -29932,7 +29932,7 @@
         <v>0.9</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT148" t="n">
         <v>1.09</v>
@@ -34398,7 +34398,7 @@
         <v>1.82</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -35819,7 +35819,7 @@
         <v>1.45</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -37034,7 +37034,7 @@
         <v>1.75</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
         <v>1.64</v>
@@ -40082,7 +40082,7 @@
         <v>1.91</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT197" t="n">
         <v>2</v>
@@ -45208,6 +45208,209 @@
         <v>17</v>
       </c>
       <c r="BK220" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2468525</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>44963.69791666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['55', '78']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3</v>
+      </c>
+      <c r="T221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK221" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,18 @@
     <t>['18', '49', '83']</t>
   </si>
   <si>
+    <t>['12', '39']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['41', '60', '90']</t>
+  </si>
+  <si>
+    <t>['28', '45+3', '90+4']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -737,9 +749,6 @@
   </si>
   <si>
     <t>['49', '71', '78']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -908,6 +917,9 @@
   </si>
   <si>
     <t>['55', '78']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1982,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2277,7 +2289,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2558,7 +2570,7 @@
         <v>1.91</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2659,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3041,7 +3053,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3128,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3319,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.58</v>
@@ -3510,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3614,7 +3626,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3701,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT13">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3895,7 +3907,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3996,7 +4008,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4083,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT15">
         <v>1.09</v>
@@ -4465,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT17">
         <v>1.45</v>
@@ -4659,7 +4671,7 @@
         <v>1.91</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4850,7 +4862,7 @@
         <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4951,7 +4963,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5038,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
         <v>1.64</v>
@@ -5420,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.58</v>
@@ -5614,7 +5626,7 @@
         <v>2.27</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU23">
         <v>1.12</v>
@@ -5996,7 +6008,7 @@
         <v>1.73</v>
       </c>
       <c r="AT25">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6184,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT26">
         <v>1.45</v>
@@ -6375,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1.36</v>
@@ -6479,7 +6491,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6670,7 +6682,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7052,7 +7064,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7243,7 +7255,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7330,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU32">
         <v>2.15</v>
@@ -7434,7 +7446,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7816,7 +7828,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7906,7 +7918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -8007,7 +8019,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8288,7 +8300,7 @@
         <v>1.91</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8389,7 +8401,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8476,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT38">
         <v>1.55</v>
@@ -8667,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
         <v>1.58</v>
@@ -8771,7 +8783,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8858,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -9049,10 +9061,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -9153,7 +9165,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9243,7 +9255,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU42">
         <v>1.46</v>
@@ -9726,7 +9738,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9813,7 +9825,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9917,7 +9929,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10108,7 +10120,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10386,7 +10398,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0.82</v>
@@ -10681,7 +10693,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10771,7 +10783,7 @@
         <v>1.73</v>
       </c>
       <c r="AT50">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -11153,7 +11165,7 @@
         <v>1.91</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11254,7 +11266,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11341,7 +11353,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT53">
         <v>1.45</v>
@@ -11445,7 +11457,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11532,7 +11544,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT54">
         <v>1.55</v>
@@ -11636,7 +11648,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11914,10 +11926,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>1.76</v>
@@ -12018,7 +12030,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12209,7 +12221,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12296,10 +12308,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU58">
         <v>1.35</v>
@@ -12400,7 +12412,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12487,10 +12499,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU59">
         <v>1.87</v>
@@ -12678,7 +12690,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT60">
         <v>1.09</v>
@@ -12782,7 +12794,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12872,7 +12884,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -13442,10 +13454,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13737,7 +13749,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13824,7 +13836,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -13928,7 +13940,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14018,7 +14030,7 @@
         <v>1.91</v>
       </c>
       <c r="AT67">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU67">
         <v>1.04</v>
@@ -14119,7 +14131,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14310,7 +14322,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14400,7 +14412,7 @@
         <v>0.9</v>
       </c>
       <c r="AT69">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>1.45</v>
@@ -14501,7 +14513,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14779,10 +14791,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.47</v>
@@ -14883,7 +14895,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15074,7 +15086,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15161,7 +15173,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT73">
         <v>1.58</v>
@@ -15543,10 +15555,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT75">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15734,10 +15746,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT76">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU76">
         <v>1.54</v>
@@ -15928,7 +15940,7 @@
         <v>1.55</v>
       </c>
       <c r="AT77">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.35</v>
@@ -16116,10 +16128,10 @@
         <v>2</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU78">
         <v>1.64</v>
@@ -16411,7 +16423,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16692,7 +16704,7 @@
         <v>1.91</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU81">
         <v>1.45</v>
@@ -16793,7 +16805,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16880,7 +16892,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>0.82</v>
@@ -16984,7 +16996,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17175,7 +17187,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17262,10 +17274,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU84">
         <v>1.87</v>
@@ -17366,7 +17378,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17644,7 +17656,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT86">
         <v>0.91</v>
@@ -18217,7 +18229,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT89">
         <v>1.55</v>
@@ -18411,7 +18423,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18512,7 +18524,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18599,7 +18611,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
         <v>1.45</v>
@@ -18703,7 +18715,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18793,7 +18805,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU92">
         <v>1.88</v>
@@ -19175,7 +19187,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19276,7 +19288,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19467,7 +19479,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19554,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT96">
         <v>1.36</v>
@@ -19939,7 +19951,7 @@
         <v>1.73</v>
       </c>
       <c r="AT98">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -20127,7 +20139,7 @@
         <v>2.25</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
         <v>1.64</v>
@@ -20231,7 +20243,7 @@
         <v>123</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20318,10 +20330,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT100">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20509,7 +20521,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT101">
         <v>1.18</v>
@@ -20804,7 +20816,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20891,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -21377,7 +21389,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21568,7 +21580,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21658,7 +21670,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21759,7 +21771,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21846,7 +21858,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22040,7 +22052,7 @@
         <v>0.9</v>
       </c>
       <c r="AT109">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.31</v>
@@ -22141,7 +22153,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22231,7 +22243,7 @@
         <v>1.73</v>
       </c>
       <c r="AT110">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU110">
         <v>1.45</v>
@@ -22419,7 +22431,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>0.82</v>
@@ -22523,7 +22535,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22610,7 +22622,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22714,7 +22726,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22801,7 +22813,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT113">
         <v>1.45</v>
@@ -23096,7 +23108,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23186,7 +23198,7 @@
         <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23374,7 +23386,7 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
         <v>0.91</v>
@@ -23565,10 +23577,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU117">
         <v>1.58</v>
@@ -23950,7 +23962,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU119">
         <v>1.26</v>
@@ -24242,7 +24254,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24329,10 +24341,10 @@
         <v>2</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT121">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24433,7 +24445,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24711,10 +24723,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25093,10 +25105,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU125">
         <v>1.3</v>
@@ -25388,7 +25400,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25475,10 +25487,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT127">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -25666,7 +25678,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT128">
         <v>1.09</v>
@@ -26051,7 +26063,7 @@
         <v>1.27</v>
       </c>
       <c r="AT130">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU130">
         <v>1.5</v>
@@ -26433,7 +26445,7 @@
         <v>1.45</v>
       </c>
       <c r="AT132">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU132">
         <v>1.4</v>
@@ -26534,7 +26546,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26725,7 +26737,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27006,7 +27018,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU135">
         <v>1.46</v>
@@ -27194,7 +27206,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT136">
         <v>1.45</v>
@@ -27576,7 +27588,7 @@
         <v>1.71</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT138">
         <v>1.58</v>
@@ -27958,7 +27970,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT140">
         <v>0.82</v>
@@ -28062,7 +28074,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28253,7 +28265,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28340,7 +28352,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT142">
         <v>1.18</v>
@@ -28531,10 +28543,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT143">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU143">
         <v>1.58</v>
@@ -28722,7 +28734,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT144">
         <v>1.09</v>
@@ -28826,7 +28838,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29104,10 +29116,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT146">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU146">
         <v>1.3</v>
@@ -29298,7 +29310,7 @@
         <v>1.91</v>
       </c>
       <c r="AT147">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU147">
         <v>1.56</v>
@@ -29399,7 +29411,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29489,7 +29501,7 @@
         <v>1.64</v>
       </c>
       <c r="AT148">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29590,7 +29602,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29677,10 +29689,10 @@
         <v>0.14</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT149">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU149">
         <v>1.29</v>
@@ -30059,10 +30071,10 @@
         <v>2</v>
       </c>
       <c r="AS151">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT151">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU151">
         <v>1.53</v>
@@ -30444,7 +30456,7 @@
         <v>2.27</v>
       </c>
       <c r="AT153">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -31205,7 +31217,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT157">
         <v>1.18</v>
@@ -31500,7 +31512,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31778,7 +31790,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT160">
         <v>0.91</v>
@@ -31882,7 +31894,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -32264,7 +32276,7 @@
         <v>179</v>
       </c>
       <c r="P163" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32351,7 +32363,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT163">
         <v>0.91</v>
@@ -32455,7 +32467,7 @@
         <v>182</v>
       </c>
       <c r="P164" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32542,10 +32554,10 @@
         <v>0.71</v>
       </c>
       <c r="AS164">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT164">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU164">
         <v>1.32</v>
@@ -32733,10 +32745,10 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT165">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -32924,10 +32936,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT166">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU166">
         <v>1.33</v>
@@ -33115,7 +33127,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT167">
         <v>1.55</v>
@@ -33309,7 +33321,7 @@
         <v>0.9</v>
       </c>
       <c r="AT168">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU168">
         <v>1.28</v>
@@ -33410,7 +33422,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -33497,7 +33509,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT169">
         <v>1.36</v>
@@ -33691,7 +33703,7 @@
         <v>1.55</v>
       </c>
       <c r="AT170">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -33792,7 +33804,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33879,10 +33891,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT171">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU171">
         <v>1.47</v>
@@ -33983,7 +33995,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34073,7 +34085,7 @@
         <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -34365,7 +34377,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34556,7 +34568,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34834,7 +34846,7 @@
         <v>1.25</v>
       </c>
       <c r="AS176">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -34938,7 +34950,7 @@
         <v>187</v>
       </c>
       <c r="P177" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35028,7 +35040,7 @@
         <v>0.9</v>
       </c>
       <c r="AT177">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU177">
         <v>1.23</v>
@@ -35216,7 +35228,7 @@
         <v>0.63</v>
       </c>
       <c r="AS178">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT178">
         <v>0.82</v>
@@ -35320,7 +35332,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35511,7 +35523,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35893,7 +35905,7 @@
         <v>190</v>
       </c>
       <c r="P182" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -35983,7 +35995,7 @@
         <v>2.27</v>
       </c>
       <c r="AT182">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU182">
         <v>1.53</v>
@@ -36171,10 +36183,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT183">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU183">
         <v>1.49</v>
@@ -36362,7 +36374,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
         <v>1.18</v>
@@ -36466,7 +36478,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36556,7 +36568,7 @@
         <v>1.33</v>
       </c>
       <c r="AT185">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
         <v>1.19</v>
@@ -36747,7 +36759,7 @@
         <v>1.73</v>
       </c>
       <c r="AT186">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU186">
         <v>1.52</v>
@@ -36848,7 +36860,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -36935,7 +36947,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT187">
         <v>1.45</v>
@@ -37230,7 +37242,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37508,7 +37520,7 @@
         <v>0.67</v>
       </c>
       <c r="AS190">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT190">
         <v>0.82</v>
@@ -37612,7 +37624,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37699,7 +37711,7 @@
         <v>0.78</v>
       </c>
       <c r="AS191">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT191">
         <v>0.91</v>
@@ -37803,7 +37815,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -37890,7 +37902,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT192">
         <v>1.45</v>
@@ -38185,7 +38197,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38272,7 +38284,7 @@
         <v>1.67</v>
       </c>
       <c r="AS194">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT194">
         <v>1.64</v>
@@ -38376,7 +38388,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38654,7 +38666,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT196">
         <v>1.09</v>
@@ -38758,7 +38770,7 @@
         <v>142</v>
       </c>
       <c r="P197" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38848,7 +38860,7 @@
         <v>1.64</v>
       </c>
       <c r="AT197">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU197">
         <v>1.75</v>
@@ -38949,7 +38961,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39140,7 +39152,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39522,7 +39534,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39612,7 +39624,7 @@
         <v>1.33</v>
       </c>
       <c r="AT201">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU201">
         <v>1.19</v>
@@ -39713,7 +39725,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39803,7 +39815,7 @@
         <v>1.91</v>
       </c>
       <c r="AT202">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU202">
         <v>1.67</v>
@@ -40182,10 +40194,10 @@
         <v>0.8</v>
       </c>
       <c r="AS204">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT204">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU204">
         <v>1.73</v>
@@ -40376,7 +40388,7 @@
         <v>0.9</v>
       </c>
       <c r="AT205">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU205">
         <v>1.28</v>
@@ -40564,10 +40576,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT206">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU206">
         <v>1.29</v>
@@ -40668,7 +40680,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40755,7 +40767,7 @@
         <v>1.2</v>
       </c>
       <c r="AS207">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT207">
         <v>1.36</v>
@@ -40946,7 +40958,7 @@
         <v>0.9</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT208">
         <v>0.82</v>
@@ -41050,7 +41062,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41137,10 +41149,10 @@
         <v>0.3</v>
       </c>
       <c r="AS209">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT209">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU209">
         <v>1.4</v>
@@ -41328,10 +41340,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT210">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU210">
         <v>1.51</v>
@@ -41623,7 +41635,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41713,7 +41725,7 @@
         <v>1.27</v>
       </c>
       <c r="AT212">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU212">
         <v>1.55</v>
@@ -42005,7 +42017,7 @@
         <v>172</v>
       </c>
       <c r="P214" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q214">
         <v>5</v>
@@ -42092,7 +42104,7 @@
         <v>1.3</v>
       </c>
       <c r="AS214">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT214">
         <v>1.45</v>
@@ -42387,7 +42399,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42769,7 +42781,7 @@
         <v>212</v>
       </c>
       <c r="P218" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43151,7 +43163,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43238,7 +43250,7 @@
         <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT220">
         <v>1</v>
@@ -43342,7 +43354,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43484,6 +43496,1534 @@
       </c>
       <c r="BK221">
         <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2468530</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>75</v>
+      </c>
+      <c r="H222" t="s">
+        <v>65</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>215</v>
+      </c>
+      <c r="P222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q222">
+        <v>6</v>
+      </c>
+      <c r="R222">
+        <v>7</v>
+      </c>
+      <c r="S222">
+        <v>13</v>
+      </c>
+      <c r="T222">
+        <v>2.55</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>4.2</v>
+      </c>
+      <c r="W222">
+        <v>1.44</v>
+      </c>
+      <c r="X222">
+        <v>2.6</v>
+      </c>
+      <c r="Y222">
+        <v>2.95</v>
+      </c>
+      <c r="Z222">
+        <v>1.34</v>
+      </c>
+      <c r="AA222">
+        <v>8</v>
+      </c>
+      <c r="AB222">
+        <v>1.07</v>
+      </c>
+      <c r="AC222">
+        <v>1.99</v>
+      </c>
+      <c r="AD222">
+        <v>3.3</v>
+      </c>
+      <c r="AE222">
+        <v>3.25</v>
+      </c>
+      <c r="AF222">
+        <v>1.07</v>
+      </c>
+      <c r="AG222">
+        <v>7.5</v>
+      </c>
+      <c r="AH222">
+        <v>1.36</v>
+      </c>
+      <c r="AI222">
+        <v>3</v>
+      </c>
+      <c r="AJ222">
+        <v>2.09</v>
+      </c>
+      <c r="AK222">
+        <v>1.74</v>
+      </c>
+      <c r="AL222">
+        <v>1.9</v>
+      </c>
+      <c r="AM222">
+        <v>1.78</v>
+      </c>
+      <c r="AN222">
+        <v>1.25</v>
+      </c>
+      <c r="AO222">
+        <v>1.31</v>
+      </c>
+      <c r="AP222">
+        <v>1.78</v>
+      </c>
+      <c r="AQ222">
+        <v>1.36</v>
+      </c>
+      <c r="AR222">
+        <v>0.5</v>
+      </c>
+      <c r="AS222">
+        <v>1.5</v>
+      </c>
+      <c r="AT222">
+        <v>0.45</v>
+      </c>
+      <c r="AU222">
+        <v>1.7</v>
+      </c>
+      <c r="AV222">
+        <v>1.19</v>
+      </c>
+      <c r="AW222">
+        <v>2.89</v>
+      </c>
+      <c r="AX222">
+        <v>1.5</v>
+      </c>
+      <c r="AY222">
+        <v>9</v>
+      </c>
+      <c r="AZ222">
+        <v>2.88</v>
+      </c>
+      <c r="BA222">
+        <v>1.29</v>
+      </c>
+      <c r="BB222">
+        <v>1.67</v>
+      </c>
+      <c r="BC222">
+        <v>2.1</v>
+      </c>
+      <c r="BD222">
+        <v>2.63</v>
+      </c>
+      <c r="BE222">
+        <v>3.4</v>
+      </c>
+      <c r="BF222">
+        <v>3</v>
+      </c>
+      <c r="BG222">
+        <v>4</v>
+      </c>
+      <c r="BH222">
+        <v>5</v>
+      </c>
+      <c r="BI222">
+        <v>5</v>
+      </c>
+      <c r="BJ222">
+        <v>8</v>
+      </c>
+      <c r="BK222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2468535</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>69</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>216</v>
+      </c>
+      <c r="P223" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>7</v>
+      </c>
+      <c r="S223">
+        <v>10</v>
+      </c>
+      <c r="T223">
+        <v>3.1</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
+        <v>3.7</v>
+      </c>
+      <c r="W223">
+        <v>1.53</v>
+      </c>
+      <c r="X223">
+        <v>2.3</v>
+      </c>
+      <c r="Y223">
+        <v>3.5</v>
+      </c>
+      <c r="Z223">
+        <v>1.26</v>
+      </c>
+      <c r="AA223">
+        <v>10</v>
+      </c>
+      <c r="AB223">
+        <v>1.05</v>
+      </c>
+      <c r="AC223">
+        <v>2.38</v>
+      </c>
+      <c r="AD223">
+        <v>2.85</v>
+      </c>
+      <c r="AE223">
+        <v>3.05</v>
+      </c>
+      <c r="AF223">
+        <v>1.11</v>
+      </c>
+      <c r="AG223">
+        <v>6</v>
+      </c>
+      <c r="AH223">
+        <v>1.45</v>
+      </c>
+      <c r="AI223">
+        <v>2.65</v>
+      </c>
+      <c r="AJ223">
+        <v>2.29</v>
+      </c>
+      <c r="AK223">
+        <v>1.55</v>
+      </c>
+      <c r="AL223">
+        <v>2.05</v>
+      </c>
+      <c r="AM223">
+        <v>1.66</v>
+      </c>
+      <c r="AN223">
+        <v>1.35</v>
+      </c>
+      <c r="AO223">
+        <v>1.35</v>
+      </c>
+      <c r="AP223">
+        <v>1.55</v>
+      </c>
+      <c r="AQ223">
+        <v>0.64</v>
+      </c>
+      <c r="AR223">
+        <v>0.55</v>
+      </c>
+      <c r="AS223">
+        <v>0.67</v>
+      </c>
+      <c r="AT223">
+        <v>0.58</v>
+      </c>
+      <c r="AU223">
+        <v>1.24</v>
+      </c>
+      <c r="AV223">
+        <v>1.36</v>
+      </c>
+      <c r="AW223">
+        <v>2.6</v>
+      </c>
+      <c r="AX223">
+        <v>1.44</v>
+      </c>
+      <c r="AY223">
+        <v>9</v>
+      </c>
+      <c r="AZ223">
+        <v>3.1</v>
+      </c>
+      <c r="BA223">
+        <v>1.44</v>
+      </c>
+      <c r="BB223">
+        <v>1.73</v>
+      </c>
+      <c r="BC223">
+        <v>2.2</v>
+      </c>
+      <c r="BD223">
+        <v>3.1</v>
+      </c>
+      <c r="BE223">
+        <v>4.3</v>
+      </c>
+      <c r="BF223">
+        <v>3</v>
+      </c>
+      <c r="BG223">
+        <v>3</v>
+      </c>
+      <c r="BH223">
+        <v>5</v>
+      </c>
+      <c r="BI223">
+        <v>4</v>
+      </c>
+      <c r="BJ223">
+        <v>8</v>
+      </c>
+      <c r="BK223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2468536</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>80</v>
+      </c>
+      <c r="H224" t="s">
+        <v>77</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>178</v>
+      </c>
+      <c r="P224" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q224">
+        <v>6</v>
+      </c>
+      <c r="R224">
+        <v>4</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>2.9</v>
+      </c>
+      <c r="U224">
+        <v>1.85</v>
+      </c>
+      <c r="V224">
+        <v>4.2</v>
+      </c>
+      <c r="W224">
+        <v>1.58</v>
+      </c>
+      <c r="X224">
+        <v>2.2</v>
+      </c>
+      <c r="Y224">
+        <v>3.8</v>
+      </c>
+      <c r="Z224">
+        <v>1.23</v>
+      </c>
+      <c r="AA224">
+        <v>11.5</v>
+      </c>
+      <c r="AB224">
+        <v>1.04</v>
+      </c>
+      <c r="AC224">
+        <v>2.2</v>
+      </c>
+      <c r="AD224">
+        <v>2.88</v>
+      </c>
+      <c r="AE224">
+        <v>3.35</v>
+      </c>
+      <c r="AF224">
+        <v>1.12</v>
+      </c>
+      <c r="AG224">
+        <v>6</v>
+      </c>
+      <c r="AH224">
+        <v>1.52</v>
+      </c>
+      <c r="AI224">
+        <v>2.36</v>
+      </c>
+      <c r="AJ224">
+        <v>2.62</v>
+      </c>
+      <c r="AK224">
+        <v>1.43</v>
+      </c>
+      <c r="AL224">
+        <v>2.25</v>
+      </c>
+      <c r="AM224">
+        <v>1.55</v>
+      </c>
+      <c r="AN224">
+        <v>1.27</v>
+      </c>
+      <c r="AO224">
+        <v>1.36</v>
+      </c>
+      <c r="AP224">
+        <v>1.65</v>
+      </c>
+      <c r="AQ224">
+        <v>1.82</v>
+      </c>
+      <c r="AR224">
+        <v>1.09</v>
+      </c>
+      <c r="AS224">
+        <v>1.75</v>
+      </c>
+      <c r="AT224">
+        <v>1.08</v>
+      </c>
+      <c r="AU224">
+        <v>1.3</v>
+      </c>
+      <c r="AV224">
+        <v>1.17</v>
+      </c>
+      <c r="AW224">
+        <v>2.47</v>
+      </c>
+      <c r="AX224">
+        <v>1.65</v>
+      </c>
+      <c r="AY224">
+        <v>8.5</v>
+      </c>
+      <c r="AZ224">
+        <v>2.5</v>
+      </c>
+      <c r="BA224">
+        <v>1.5</v>
+      </c>
+      <c r="BB224">
+        <v>1.93</v>
+      </c>
+      <c r="BC224">
+        <v>2.38</v>
+      </c>
+      <c r="BD224">
+        <v>3.4</v>
+      </c>
+      <c r="BE224">
+        <v>5</v>
+      </c>
+      <c r="BF224">
+        <v>11</v>
+      </c>
+      <c r="BG224">
+        <v>4</v>
+      </c>
+      <c r="BH224">
+        <v>7</v>
+      </c>
+      <c r="BI224">
+        <v>7</v>
+      </c>
+      <c r="BJ224">
+        <v>18</v>
+      </c>
+      <c r="BK224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2468537</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>86</v>
+      </c>
+      <c r="P225" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>3</v>
+      </c>
+      <c r="S225">
+        <v>6</v>
+      </c>
+      <c r="T225">
+        <v>2.8</v>
+      </c>
+      <c r="U225">
+        <v>1.87</v>
+      </c>
+      <c r="V225">
+        <v>4.33</v>
+      </c>
+      <c r="W225">
+        <v>1.55</v>
+      </c>
+      <c r="X225">
+        <v>2.25</v>
+      </c>
+      <c r="Y225">
+        <v>3.6</v>
+      </c>
+      <c r="Z225">
+        <v>1.25</v>
+      </c>
+      <c r="AA225">
+        <v>10.5</v>
+      </c>
+      <c r="AB225">
+        <v>1.04</v>
+      </c>
+      <c r="AC225">
+        <v>2.21</v>
+      </c>
+      <c r="AD225">
+        <v>2.97</v>
+      </c>
+      <c r="AE225">
+        <v>3.2</v>
+      </c>
+      <c r="AF225">
+        <v>1.1</v>
+      </c>
+      <c r="AG225">
+        <v>7</v>
+      </c>
+      <c r="AH225">
+        <v>1.49</v>
+      </c>
+      <c r="AI225">
+        <v>2.44</v>
+      </c>
+      <c r="AJ225">
+        <v>2.62</v>
+      </c>
+      <c r="AK225">
+        <v>1.43</v>
+      </c>
+      <c r="AL225">
+        <v>2.15</v>
+      </c>
+      <c r="AM225">
+        <v>1.6</v>
+      </c>
+      <c r="AN225">
+        <v>1.26</v>
+      </c>
+      <c r="AO225">
+        <v>1.36</v>
+      </c>
+      <c r="AP225">
+        <v>1.68</v>
+      </c>
+      <c r="AQ225">
+        <v>2</v>
+      </c>
+      <c r="AR225">
+        <v>1.09</v>
+      </c>
+      <c r="AS225">
+        <v>1.83</v>
+      </c>
+      <c r="AT225">
+        <v>1.25</v>
+      </c>
+      <c r="AU225">
+        <v>1.56</v>
+      </c>
+      <c r="AV225">
+        <v>1.06</v>
+      </c>
+      <c r="AW225">
+        <v>2.62</v>
+      </c>
+      <c r="AX225">
+        <v>1.4</v>
+      </c>
+      <c r="AY225">
+        <v>9</v>
+      </c>
+      <c r="AZ225">
+        <v>3.3</v>
+      </c>
+      <c r="BA225">
+        <v>1.57</v>
+      </c>
+      <c r="BB225">
+        <v>2</v>
+      </c>
+      <c r="BC225">
+        <v>2.4</v>
+      </c>
+      <c r="BD225">
+        <v>3.6</v>
+      </c>
+      <c r="BE225">
+        <v>5.2</v>
+      </c>
+      <c r="BF225">
+        <v>4</v>
+      </c>
+      <c r="BG225">
+        <v>5</v>
+      </c>
+      <c r="BH225">
+        <v>2</v>
+      </c>
+      <c r="BI225">
+        <v>1</v>
+      </c>
+      <c r="BJ225">
+        <v>6</v>
+      </c>
+      <c r="BK225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2468538</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>67</v>
+      </c>
+      <c r="H226" t="s">
+        <v>81</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>217</v>
+      </c>
+      <c r="P226" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q226">
+        <v>7</v>
+      </c>
+      <c r="R226">
+        <v>6</v>
+      </c>
+      <c r="S226">
+        <v>13</v>
+      </c>
+      <c r="T226">
+        <v>2.6</v>
+      </c>
+      <c r="U226">
+        <v>1.93</v>
+      </c>
+      <c r="V226">
+        <v>4.5</v>
+      </c>
+      <c r="W226">
+        <v>1.51</v>
+      </c>
+      <c r="X226">
+        <v>2.37</v>
+      </c>
+      <c r="Y226">
+        <v>3.3</v>
+      </c>
+      <c r="Z226">
+        <v>1.29</v>
+      </c>
+      <c r="AA226">
+        <v>9.25</v>
+      </c>
+      <c r="AB226">
+        <v>1.05</v>
+      </c>
+      <c r="AC226">
+        <v>1.85</v>
+      </c>
+      <c r="AD226">
+        <v>3.25</v>
+      </c>
+      <c r="AE226">
+        <v>4</v>
+      </c>
+      <c r="AF226">
+        <v>1.1</v>
+      </c>
+      <c r="AG226">
+        <v>6.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.4</v>
+      </c>
+      <c r="AI226">
+        <v>2.8</v>
+      </c>
+      <c r="AJ226">
+        <v>2.19</v>
+      </c>
+      <c r="AK226">
+        <v>1.6</v>
+      </c>
+      <c r="AL226">
+        <v>2.05</v>
+      </c>
+      <c r="AM226">
+        <v>1.68</v>
+      </c>
+      <c r="AN226">
+        <v>1.23</v>
+      </c>
+      <c r="AO226">
+        <v>1.33</v>
+      </c>
+      <c r="AP226">
+        <v>1.8</v>
+      </c>
+      <c r="AQ226">
+        <v>0.82</v>
+      </c>
+      <c r="AR226">
+        <v>0.73</v>
+      </c>
+      <c r="AS226">
+        <v>1</v>
+      </c>
+      <c r="AT226">
+        <v>0.67</v>
+      </c>
+      <c r="AU226">
+        <v>1.4</v>
+      </c>
+      <c r="AV226">
+        <v>1.27</v>
+      </c>
+      <c r="AW226">
+        <v>2.67</v>
+      </c>
+      <c r="AX226">
+        <v>1.44</v>
+      </c>
+      <c r="AY226">
+        <v>9</v>
+      </c>
+      <c r="AZ226">
+        <v>3</v>
+      </c>
+      <c r="BA226">
+        <v>1.5</v>
+      </c>
+      <c r="BB226">
+        <v>1.93</v>
+      </c>
+      <c r="BC226">
+        <v>2.38</v>
+      </c>
+      <c r="BD226">
+        <v>3.4</v>
+      </c>
+      <c r="BE226">
+        <v>5</v>
+      </c>
+      <c r="BF226">
+        <v>8</v>
+      </c>
+      <c r="BG226">
+        <v>4</v>
+      </c>
+      <c r="BH226">
+        <v>6</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>14</v>
+      </c>
+      <c r="BK226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>3168629</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>78</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>3</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>218</v>
+      </c>
+      <c r="P227" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q227">
+        <v>3</v>
+      </c>
+      <c r="R227">
+        <v>8</v>
+      </c>
+      <c r="S227">
+        <v>11</v>
+      </c>
+      <c r="T227">
+        <v>4.5</v>
+      </c>
+      <c r="U227">
+        <v>2</v>
+      </c>
+      <c r="V227">
+        <v>2.45</v>
+      </c>
+      <c r="W227">
+        <v>1.44</v>
+      </c>
+      <c r="X227">
+        <v>2.55</v>
+      </c>
+      <c r="Y227">
+        <v>3</v>
+      </c>
+      <c r="Z227">
+        <v>1.34</v>
+      </c>
+      <c r="AA227">
+        <v>8</v>
+      </c>
+      <c r="AB227">
+        <v>1.07</v>
+      </c>
+      <c r="AC227">
+        <v>3.95</v>
+      </c>
+      <c r="AD227">
+        <v>3.35</v>
+      </c>
+      <c r="AE227">
+        <v>1.82</v>
+      </c>
+      <c r="AF227">
+        <v>1.08</v>
+      </c>
+      <c r="AG227">
+        <v>7</v>
+      </c>
+      <c r="AH227">
+        <v>1.38</v>
+      </c>
+      <c r="AI227">
+        <v>2.9</v>
+      </c>
+      <c r="AJ227">
+        <v>2.03</v>
+      </c>
+      <c r="AK227">
+        <v>1.7</v>
+      </c>
+      <c r="AL227">
+        <v>1.95</v>
+      </c>
+      <c r="AM227">
+        <v>1.75</v>
+      </c>
+      <c r="AN227">
+        <v>1.88</v>
+      </c>
+      <c r="AO227">
+        <v>1.31</v>
+      </c>
+      <c r="AP227">
+        <v>1.21</v>
+      </c>
+      <c r="AQ227">
+        <v>1</v>
+      </c>
+      <c r="AR227">
+        <v>1.64</v>
+      </c>
+      <c r="AS227">
+        <v>1.17</v>
+      </c>
+      <c r="AT227">
+        <v>1.5</v>
+      </c>
+      <c r="AU227">
+        <v>1.34</v>
+      </c>
+      <c r="AV227">
+        <v>1.32</v>
+      </c>
+      <c r="AW227">
+        <v>2.66</v>
+      </c>
+      <c r="AX227">
+        <v>2.45</v>
+      </c>
+      <c r="AY227">
+        <v>8.5</v>
+      </c>
+      <c r="AZ227">
+        <v>1.67</v>
+      </c>
+      <c r="BA227">
+        <v>1.44</v>
+      </c>
+      <c r="BB227">
+        <v>1.73</v>
+      </c>
+      <c r="BC227">
+        <v>2.2</v>
+      </c>
+      <c r="BD227">
+        <v>3.15</v>
+      </c>
+      <c r="BE227">
+        <v>4.4</v>
+      </c>
+      <c r="BF227">
+        <v>4</v>
+      </c>
+      <c r="BG227">
+        <v>2</v>
+      </c>
+      <c r="BH227">
+        <v>2</v>
+      </c>
+      <c r="BI227">
+        <v>3</v>
+      </c>
+      <c r="BJ227">
+        <v>6</v>
+      </c>
+      <c r="BK227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2468533</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" t="s">
+        <v>68</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>112</v>
+      </c>
+      <c r="P228" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q228">
+        <v>3</v>
+      </c>
+      <c r="R228">
+        <v>4</v>
+      </c>
+      <c r="S228">
+        <v>7</v>
+      </c>
+      <c r="T228">
+        <v>3.2</v>
+      </c>
+      <c r="U228">
+        <v>1.88</v>
+      </c>
+      <c r="V228">
+        <v>3.5</v>
+      </c>
+      <c r="W228">
+        <v>1.53</v>
+      </c>
+      <c r="X228">
+        <v>2.3</v>
+      </c>
+      <c r="Y228">
+        <v>3.4</v>
+      </c>
+      <c r="Z228">
+        <v>1.27</v>
+      </c>
+      <c r="AA228">
+        <v>9.75</v>
+      </c>
+      <c r="AB228">
+        <v>1.05</v>
+      </c>
+      <c r="AC228">
+        <v>2.38</v>
+      </c>
+      <c r="AD228">
+        <v>2.9</v>
+      </c>
+      <c r="AE228">
+        <v>2.9</v>
+      </c>
+      <c r="AF228">
+        <v>1.1</v>
+      </c>
+      <c r="AG228">
+        <v>6.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.44</v>
+      </c>
+      <c r="AI228">
+        <v>2.7</v>
+      </c>
+      <c r="AJ228">
+        <v>2.41</v>
+      </c>
+      <c r="AK228">
+        <v>1.5</v>
+      </c>
+      <c r="AL228">
+        <v>2</v>
+      </c>
+      <c r="AM228">
+        <v>1.7</v>
+      </c>
+      <c r="AN228">
+        <v>1.39</v>
+      </c>
+      <c r="AO228">
+        <v>1.36</v>
+      </c>
+      <c r="AP228">
+        <v>1.49</v>
+      </c>
+      <c r="AQ228">
+        <v>2.09</v>
+      </c>
+      <c r="AR228">
+        <v>2</v>
+      </c>
+      <c r="AS228">
+        <v>2</v>
+      </c>
+      <c r="AT228">
+        <v>1.92</v>
+      </c>
+      <c r="AU228">
+        <v>1.73</v>
+      </c>
+      <c r="AV228">
+        <v>1.3</v>
+      </c>
+      <c r="AW228">
+        <v>3.03</v>
+      </c>
+      <c r="AX228">
+        <v>1.67</v>
+      </c>
+      <c r="AY228">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228">
+        <v>2.45</v>
+      </c>
+      <c r="BA228">
+        <v>1.5</v>
+      </c>
+      <c r="BB228">
+        <v>1.88</v>
+      </c>
+      <c r="BC228">
+        <v>2.38</v>
+      </c>
+      <c r="BD228">
+        <v>3.34</v>
+      </c>
+      <c r="BE228">
+        <v>4.5</v>
+      </c>
+      <c r="BF228">
+        <v>8</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>5</v>
+      </c>
+      <c r="BI228">
+        <v>4</v>
+      </c>
+      <c r="BJ228">
+        <v>13</v>
+      </c>
+      <c r="BK228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2468532</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>83</v>
+      </c>
+      <c r="H229" t="s">
+        <v>71</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>216</v>
+      </c>
+      <c r="P229" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>9</v>
+      </c>
+      <c r="S229">
+        <v>11</v>
+      </c>
+      <c r="T229">
+        <v>2.95</v>
+      </c>
+      <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>3.7</v>
+      </c>
+      <c r="W229">
+        <v>1.49</v>
+      </c>
+      <c r="X229">
+        <v>2.45</v>
+      </c>
+      <c r="Y229">
+        <v>3.25</v>
+      </c>
+      <c r="Z229">
+        <v>1.29</v>
+      </c>
+      <c r="AA229">
+        <v>9.25</v>
+      </c>
+      <c r="AB229">
+        <v>1.05</v>
+      </c>
+      <c r="AC229">
+        <v>2.14</v>
+      </c>
+      <c r="AD229">
+        <v>3.15</v>
+      </c>
+      <c r="AE229">
+        <v>3.15</v>
+      </c>
+      <c r="AF229">
+        <v>1.1</v>
+      </c>
+      <c r="AG229">
+        <v>6.5</v>
+      </c>
+      <c r="AH229">
+        <v>1.42</v>
+      </c>
+      <c r="AI229">
+        <v>2.75</v>
+      </c>
+      <c r="AJ229">
+        <v>2.17</v>
+      </c>
+      <c r="AK229">
+        <v>1.61</v>
+      </c>
+      <c r="AL229">
+        <v>1.98</v>
+      </c>
+      <c r="AM229">
+        <v>1.72</v>
+      </c>
+      <c r="AN229">
+        <v>1.34</v>
+      </c>
+      <c r="AO229">
+        <v>1.34</v>
+      </c>
+      <c r="AP229">
+        <v>1.58</v>
+      </c>
+      <c r="AQ229">
+        <v>1.45</v>
+      </c>
+      <c r="AR229">
+        <v>1</v>
+      </c>
+      <c r="AS229">
+        <v>1.42</v>
+      </c>
+      <c r="AT229">
+        <v>1</v>
+      </c>
+      <c r="AU229">
+        <v>1.52</v>
+      </c>
+      <c r="AV229">
+        <v>1.15</v>
+      </c>
+      <c r="AW229">
+        <v>2.67</v>
+      </c>
+      <c r="AX229">
+        <v>1.5</v>
+      </c>
+      <c r="AY229">
+        <v>8.5</v>
+      </c>
+      <c r="AZ229">
+        <v>2.88</v>
+      </c>
+      <c r="BA229">
+        <v>1.65</v>
+      </c>
+      <c r="BB229">
+        <v>2.1</v>
+      </c>
+      <c r="BC229">
+        <v>2.63</v>
+      </c>
+      <c r="BD229">
+        <v>3.7</v>
+      </c>
+      <c r="BE229">
+        <v>5.4</v>
+      </c>
+      <c r="BF229">
+        <v>4</v>
+      </c>
+      <c r="BG229">
+        <v>3</v>
+      </c>
+      <c r="BH229">
+        <v>2</v>
+      </c>
+      <c r="BI229">
+        <v>1</v>
+      </c>
+      <c r="BJ229">
+        <v>6</v>
+      </c>
+      <c r="BK229">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1281,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK229"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2379,7 +2379,7 @@
         <v>1.45</v>
       </c>
       <c r="AT6">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>1.36</v>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6772,7 +6772,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU29">
         <v>1.27</v>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>0.45</v>
@@ -10210,7 +10210,7 @@
         <v>0.9</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -13075,7 +13075,7 @@
         <v>2.27</v>
       </c>
       <c r="AT62">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13645,7 +13645,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -16510,7 +16510,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
         <v>1.64</v>
@@ -17659,7 +17659,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -19948,7 +19948,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT98">
         <v>1.08</v>
@@ -23004,7 +23004,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
         <v>1.45</v>
@@ -23389,7 +23389,7 @@
         <v>1.42</v>
       </c>
       <c r="AT116">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -27400,7 +27400,7 @@
         <v>1.91</v>
       </c>
       <c r="AT137">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU137">
         <v>1.26</v>
@@ -28161,7 +28161,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT141">
         <v>0.82</v>
@@ -31026,7 +31026,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT156">
         <v>0.82</v>
@@ -31793,7 +31793,7 @@
         <v>1.83</v>
       </c>
       <c r="AT160">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU160">
         <v>1.47</v>
@@ -32366,7 +32366,7 @@
         <v>1.5</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -36756,7 +36756,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT186">
         <v>1.25</v>
@@ -37714,7 +37714,7 @@
         <v>2</v>
       </c>
       <c r="AT191">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU191">
         <v>1.77</v>
@@ -40003,7 +40003,7 @@
         <v>1.2</v>
       </c>
       <c r="AS203">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT203">
         <v>1.18</v>
@@ -41534,7 +41534,7 @@
         <v>1.55</v>
       </c>
       <c r="AT211">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU211">
         <v>1.36</v>
@@ -45024,6 +45024,197 @@
       </c>
       <c r="BK229">
         <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2468531</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44970.69791666666</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" t="s">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230" t="s">
+        <v>86</v>
+      </c>
+      <c r="P230" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q230">
+        <v>8</v>
+      </c>
+      <c r="R230">
+        <v>4</v>
+      </c>
+      <c r="S230">
+        <v>12</v>
+      </c>
+      <c r="T230">
+        <v>2.87</v>
+      </c>
+      <c r="U230">
+        <v>1.93</v>
+      </c>
+      <c r="V230">
+        <v>3.9</v>
+      </c>
+      <c r="W230">
+        <v>1.51</v>
+      </c>
+      <c r="X230">
+        <v>2.37</v>
+      </c>
+      <c r="Y230">
+        <v>3.3</v>
+      </c>
+      <c r="Z230">
+        <v>1.28</v>
+      </c>
+      <c r="AA230">
+        <v>9.5</v>
+      </c>
+      <c r="AB230">
+        <v>1.05</v>
+      </c>
+      <c r="AC230">
+        <v>2.1</v>
+      </c>
+      <c r="AD230">
+        <v>3.18</v>
+      </c>
+      <c r="AE230">
+        <v>4.1</v>
+      </c>
+      <c r="AF230">
+        <v>1.1</v>
+      </c>
+      <c r="AG230">
+        <v>6.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.42</v>
+      </c>
+      <c r="AI230">
+        <v>2.75</v>
+      </c>
+      <c r="AJ230">
+        <v>2.22</v>
+      </c>
+      <c r="AK230">
+        <v>1.58</v>
+      </c>
+      <c r="AL230">
+        <v>2</v>
+      </c>
+      <c r="AM230">
+        <v>1.71</v>
+      </c>
+      <c r="AN230">
+        <v>1.31</v>
+      </c>
+      <c r="AO230">
+        <v>1.34</v>
+      </c>
+      <c r="AP230">
+        <v>1.63</v>
+      </c>
+      <c r="AQ230">
+        <v>1.73</v>
+      </c>
+      <c r="AR230">
+        <v>0.91</v>
+      </c>
+      <c r="AS230">
+        <v>1.67</v>
+      </c>
+      <c r="AT230">
+        <v>0.92</v>
+      </c>
+      <c r="AU230">
+        <v>1.56</v>
+      </c>
+      <c r="AV230">
+        <v>1.31</v>
+      </c>
+      <c r="AW230">
+        <v>2.87</v>
+      </c>
+      <c r="AX230">
+        <v>1.8</v>
+      </c>
+      <c r="AY230">
+        <v>7.3</v>
+      </c>
+      <c r="AZ230">
+        <v>2.52</v>
+      </c>
+      <c r="BA230">
+        <v>1.4</v>
+      </c>
+      <c r="BB230">
+        <v>1.67</v>
+      </c>
+      <c r="BC230">
+        <v>2.1</v>
+      </c>
+      <c r="BD230">
+        <v>2.63</v>
+      </c>
+      <c r="BE230">
+        <v>3.7</v>
+      </c>
+      <c r="BF230">
+        <v>4</v>
+      </c>
+      <c r="BG230">
+        <v>3</v>
+      </c>
+      <c r="BH230">
+        <v>9</v>
+      </c>
+      <c r="BI230">
+        <v>2</v>
+      </c>
+      <c r="BJ230">
+        <v>13</v>
+      </c>
+      <c r="BK230">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -907,10 +907,10 @@
     <t>['33', '67']</t>
   </si>
   <si>
-    <t>['11', '79']</t>
+    <t>['12', '53']</t>
   </si>
   <si>
-    <t>['12', '53']</t>
+    <t>['11', '79']</t>
   </si>
   <si>
     <t>['17', '63']</t>
@@ -41975,7 +41975,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>2468523</v>
+        <v>2468529</v>
       </c>
       <c r="C214" t="s">
         <v>63</v>
@@ -41990,142 +41990,142 @@
         <v>22</v>
       </c>
       <c r="G214" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O214" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q214">
+        <v>4</v>
+      </c>
+      <c r="R214">
+        <v>1</v>
+      </c>
+      <c r="S214">
         <v>5</v>
       </c>
-      <c r="R214">
-        <v>7</v>
-      </c>
-      <c r="S214">
-        <v>12</v>
-      </c>
       <c r="T214">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V214">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="W214">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X214">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z214">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA214">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB214">
         <v>1.06</v>
       </c>
       <c r="AC214">
+        <v>2</v>
+      </c>
+      <c r="AD214">
         <v>3.2</v>
       </c>
-      <c r="AD214">
-        <v>3</v>
-      </c>
       <c r="AE214">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="AF214">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG214">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AH214">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AI214">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="AJ214">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="AK214">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AL214">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="AM214">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AN214">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AO214">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AP214">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="AQ214">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR214">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AT214">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="AU214">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="AV214">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="AW214">
-        <v>2.79</v>
+        <v>3.07</v>
       </c>
       <c r="AX214">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AY214">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AZ214">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="BA214">
         <v>1.44</v>
@@ -42137,28 +42137,28 @@
         <v>2.2</v>
       </c>
       <c r="BD214">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BE214">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BF214">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG214">
         <v>3</v>
       </c>
       <c r="BH214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI214">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ214">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK214">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:63">
@@ -42399,7 +42399,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42739,7 +42739,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>2468529</v>
+        <v>2468524</v>
       </c>
       <c r="C218" t="s">
         <v>63</v>
@@ -42754,19 +42754,19 @@
         <v>22</v>
       </c>
       <c r="G218" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H218" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L218">
         <v>3</v>
@@ -42778,151 +42778,151 @@
         <v>4</v>
       </c>
       <c r="O218" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P218" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="Q218">
         <v>4</v>
       </c>
       <c r="R218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S218">
+        <v>7</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
+        <v>3.5</v>
+      </c>
+      <c r="W218">
+        <v>1.44</v>
+      </c>
+      <c r="X218">
+        <v>2.62</v>
+      </c>
+      <c r="Y218">
+        <v>3</v>
+      </c>
+      <c r="Z218">
+        <v>1.36</v>
+      </c>
+      <c r="AA218">
+        <v>7.5</v>
+      </c>
+      <c r="AB218">
+        <v>1.07</v>
+      </c>
+      <c r="AC218">
+        <v>2.45</v>
+      </c>
+      <c r="AD218">
+        <v>2.9</v>
+      </c>
+      <c r="AE218">
+        <v>3.05</v>
+      </c>
+      <c r="AF218">
+        <v>1.08</v>
+      </c>
+      <c r="AG218">
+        <v>7</v>
+      </c>
+      <c r="AH218">
+        <v>1.4</v>
+      </c>
+      <c r="AI218">
+        <v>2.75</v>
+      </c>
+      <c r="AJ218">
+        <v>2.25</v>
+      </c>
+      <c r="AK218">
+        <v>1.57</v>
+      </c>
+      <c r="AL218">
+        <v>1.91</v>
+      </c>
+      <c r="AM218">
+        <v>1.8</v>
+      </c>
+      <c r="AN218">
+        <v>1.36</v>
+      </c>
+      <c r="AO218">
+        <v>1.35</v>
+      </c>
+      <c r="AP218">
+        <v>1.53</v>
+      </c>
+      <c r="AQ218">
+        <v>1.8</v>
+      </c>
+      <c r="AR218">
+        <v>1.1</v>
+      </c>
+      <c r="AS218">
+        <v>1.91</v>
+      </c>
+      <c r="AT218">
+        <v>1</v>
+      </c>
+      <c r="AU218">
+        <v>1.28</v>
+      </c>
+      <c r="AV218">
+        <v>1.16</v>
+      </c>
+      <c r="AW218">
+        <v>2.44</v>
+      </c>
+      <c r="AX218">
+        <v>1.9</v>
+      </c>
+      <c r="AY218">
+        <v>5.25</v>
+      </c>
+      <c r="AZ218">
+        <v>2.25</v>
+      </c>
+      <c r="BA218">
+        <v>1.5</v>
+      </c>
+      <c r="BB218">
+        <v>1.88</v>
+      </c>
+      <c r="BC218">
+        <v>2.38</v>
+      </c>
+      <c r="BD218">
+        <v>3.4</v>
+      </c>
+      <c r="BE218">
+        <v>4.9</v>
+      </c>
+      <c r="BF218">
+        <v>9</v>
+      </c>
+      <c r="BG218">
         <v>5</v>
       </c>
-      <c r="T218">
-        <v>2.55</v>
-      </c>
-      <c r="U218">
-        <v>1.93</v>
-      </c>
-      <c r="V218">
-        <v>4.6</v>
-      </c>
-      <c r="W218">
-        <v>1.5</v>
-      </c>
-      <c r="X218">
-        <v>2.4</v>
-      </c>
-      <c r="Y218">
-        <v>3.25</v>
-      </c>
-      <c r="Z218">
-        <v>1.29</v>
-      </c>
-      <c r="AA218">
+      <c r="BH218">
+        <v>1</v>
+      </c>
+      <c r="BI218">
+        <v>4</v>
+      </c>
+      <c r="BJ218">
+        <v>10</v>
+      </c>
+      <c r="BK218">
         <v>9</v>
-      </c>
-      <c r="AB218">
-        <v>1.06</v>
-      </c>
-      <c r="AC218">
-        <v>2</v>
-      </c>
-      <c r="AD218">
-        <v>3.2</v>
-      </c>
-      <c r="AE218">
-        <v>3.8</v>
-      </c>
-      <c r="AF218">
-        <v>1.09</v>
-      </c>
-      <c r="AG218">
-        <v>6.75</v>
-      </c>
-      <c r="AH218">
-        <v>1.43</v>
-      </c>
-      <c r="AI218">
-        <v>2.6</v>
-      </c>
-      <c r="AJ218">
-        <v>2.75</v>
-      </c>
-      <c r="AK218">
-        <v>1.39</v>
-      </c>
-      <c r="AL218">
-        <v>2.05</v>
-      </c>
-      <c r="AM218">
-        <v>1.66</v>
-      </c>
-      <c r="AN218">
-        <v>1.21</v>
-      </c>
-      <c r="AO218">
-        <v>1.33</v>
-      </c>
-      <c r="AP218">
-        <v>1.83</v>
-      </c>
-      <c r="AQ218">
-        <v>1.9</v>
-      </c>
-      <c r="AR218">
-        <v>1.2</v>
-      </c>
-      <c r="AS218">
-        <v>2</v>
-      </c>
-      <c r="AT218">
-        <v>1.09</v>
-      </c>
-      <c r="AU218">
-        <v>1.78</v>
-      </c>
-      <c r="AV218">
-        <v>1.29</v>
-      </c>
-      <c r="AW218">
-        <v>3.07</v>
-      </c>
-      <c r="AX218">
-        <v>1.64</v>
-      </c>
-      <c r="AY218">
-        <v>5.75</v>
-      </c>
-      <c r="AZ218">
-        <v>2.65</v>
-      </c>
-      <c r="BA218">
-        <v>1.44</v>
-      </c>
-      <c r="BB218">
-        <v>1.73</v>
-      </c>
-      <c r="BC218">
-        <v>2.2</v>
-      </c>
-      <c r="BD218">
-        <v>3.1</v>
-      </c>
-      <c r="BE218">
-        <v>4.5</v>
-      </c>
-      <c r="BF218">
-        <v>6</v>
-      </c>
-      <c r="BG218">
-        <v>3</v>
-      </c>
-      <c r="BH218">
-        <v>5</v>
-      </c>
-      <c r="BI218">
-        <v>7</v>
-      </c>
-      <c r="BJ218">
-        <v>11</v>
-      </c>
-      <c r="BK218">
-        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:63">
@@ -42930,7 +42930,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2468524</v>
+        <v>2468523</v>
       </c>
       <c r="C219" t="s">
         <v>63</v>
@@ -42945,175 +42945,175 @@
         <v>22</v>
       </c>
       <c r="G219" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H219" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219">
         <v>2</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O219" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="P219" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="Q219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R219">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S219">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="U219">
         <v>1.95</v>
       </c>
       <c r="V219">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="W219">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X219">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
         <v>3</v>
       </c>
       <c r="Z219">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA219">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB219">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC219">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="AD219">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE219">
-        <v>3.05</v>
+        <v>2.25</v>
       </c>
       <c r="AF219">
         <v>1.08</v>
       </c>
       <c r="AG219">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="AH219">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AI219">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AJ219">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AK219">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AL219">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AM219">
         <v>1.8</v>
       </c>
       <c r="AN219">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AO219">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AP219">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AQ219">
+        <v>0.7</v>
+      </c>
+      <c r="AR219">
+        <v>1.3</v>
+      </c>
+      <c r="AS219">
+        <v>0.67</v>
+      </c>
+      <c r="AT219">
+        <v>1.45</v>
+      </c>
+      <c r="AU219">
+        <v>1.27</v>
+      </c>
+      <c r="AV219">
+        <v>1.52</v>
+      </c>
+      <c r="AW219">
+        <v>2.79</v>
+      </c>
+      <c r="AX219">
+        <v>2.4</v>
+      </c>
+      <c r="AY219">
+        <v>5.5</v>
+      </c>
+      <c r="AZ219">
         <v>1.8</v>
       </c>
-      <c r="AR219">
-        <v>1.1</v>
-      </c>
-      <c r="AS219">
-        <v>1.91</v>
-      </c>
-      <c r="AT219">
-        <v>1</v>
-      </c>
-      <c r="AU219">
-        <v>1.28</v>
-      </c>
-      <c r="AV219">
-        <v>1.16</v>
-      </c>
-      <c r="AW219">
-        <v>2.44</v>
-      </c>
-      <c r="AX219">
-        <v>1.9</v>
-      </c>
-      <c r="AY219">
-        <v>5.25</v>
-      </c>
-      <c r="AZ219">
-        <v>2.25</v>
-      </c>
       <c r="BA219">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BB219">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BC219">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BD219">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BE219">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="BF219">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI219">
+        <v>3</v>
+      </c>
+      <c r="BJ219">
         <v>4</v>
       </c>
-      <c r="BJ219">
-        <v>10</v>
-      </c>
       <c r="BK219">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:63">
@@ -43885,7 +43885,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2468536</v>
+        <v>2468533</v>
       </c>
       <c r="C224" t="s">
         <v>63</v>
@@ -43900,10 +43900,10 @@
         <v>23</v>
       </c>
       <c r="G224" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H224" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -43924,151 +43924,151 @@
         <v>2</v>
       </c>
       <c r="O224" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="Q224">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R224">
         <v>4</v>
       </c>
       <c r="S224">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T224">
+        <v>3.2</v>
+      </c>
+      <c r="U224">
+        <v>1.88</v>
+      </c>
+      <c r="V224">
+        <v>3.5</v>
+      </c>
+      <c r="W224">
+        <v>1.53</v>
+      </c>
+      <c r="X224">
+        <v>2.3</v>
+      </c>
+      <c r="Y224">
+        <v>3.4</v>
+      </c>
+      <c r="Z224">
+        <v>1.27</v>
+      </c>
+      <c r="AA224">
+        <v>9.75</v>
+      </c>
+      <c r="AB224">
+        <v>1.05</v>
+      </c>
+      <c r="AC224">
+        <v>2.38</v>
+      </c>
+      <c r="AD224">
         <v>2.9</v>
       </c>
-      <c r="U224">
-        <v>1.85</v>
-      </c>
-      <c r="V224">
-        <v>4.2</v>
-      </c>
-      <c r="W224">
-        <v>1.58</v>
-      </c>
-      <c r="X224">
-        <v>2.2</v>
-      </c>
-      <c r="Y224">
-        <v>3.8</v>
-      </c>
-      <c r="Z224">
-        <v>1.23</v>
-      </c>
-      <c r="AA224">
-        <v>11.5</v>
-      </c>
-      <c r="AB224">
-        <v>1.04</v>
-      </c>
-      <c r="AC224">
-        <v>2.2</v>
-      </c>
-      <c r="AD224">
-        <v>2.88</v>
-      </c>
       <c r="AE224">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="AF224">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AG224">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH224">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AI224">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="AJ224">
-        <v>2.62</v>
+        <v>2.41</v>
       </c>
       <c r="AK224">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AL224">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AM224">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AN224">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AO224">
         <v>1.36</v>
       </c>
       <c r="AP224">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AQ224">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AR224">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="AS224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT224">
-        <v>1.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU224">
+        <v>1.73</v>
+      </c>
+      <c r="AV224">
         <v>1.3</v>
       </c>
-      <c r="AV224">
-        <v>1.17</v>
-      </c>
       <c r="AW224">
-        <v>2.47</v>
+        <v>3.03</v>
       </c>
       <c r="AX224">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AY224">
         <v>8.5</v>
       </c>
       <c r="AZ224">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BA224">
         <v>1.5</v>
       </c>
       <c r="BB224">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BC224">
         <v>2.38</v>
       </c>
       <c r="BD224">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="BE224">
+        <v>4.5</v>
+      </c>
+      <c r="BF224">
+        <v>8</v>
+      </c>
+      <c r="BG224">
+        <v>3</v>
+      </c>
+      <c r="BH224">
         <v>5</v>
       </c>
-      <c r="BF224">
-        <v>11</v>
-      </c>
-      <c r="BG224">
+      <c r="BI224">
         <v>4</v>
       </c>
-      <c r="BH224">
+      <c r="BJ224">
+        <v>13</v>
+      </c>
+      <c r="BK224">
         <v>7</v>
-      </c>
-      <c r="BI224">
-        <v>7</v>
-      </c>
-      <c r="BJ224">
-        <v>18</v>
-      </c>
-      <c r="BK224">
-        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:63">
@@ -44649,7 +44649,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>2468533</v>
+        <v>2468536</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -44664,10 +44664,10 @@
         <v>23</v>
       </c>
       <c r="G228" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -44688,151 +44688,151 @@
         <v>2</v>
       </c>
       <c r="O228" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="P228" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="Q228">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R228">
         <v>4</v>
       </c>
       <c r="S228">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T228">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="U228">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="W228">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X228">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y228">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Z228">
+        <v>1.23</v>
+      </c>
+      <c r="AA228">
+        <v>11.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.04</v>
+      </c>
+      <c r="AC228">
+        <v>2.2</v>
+      </c>
+      <c r="AD228">
+        <v>2.88</v>
+      </c>
+      <c r="AE228">
+        <v>3.35</v>
+      </c>
+      <c r="AF228">
+        <v>1.12</v>
+      </c>
+      <c r="AG228">
+        <v>6</v>
+      </c>
+      <c r="AH228">
+        <v>1.52</v>
+      </c>
+      <c r="AI228">
+        <v>2.36</v>
+      </c>
+      <c r="AJ228">
+        <v>2.62</v>
+      </c>
+      <c r="AK228">
+        <v>1.43</v>
+      </c>
+      <c r="AL228">
+        <v>2.25</v>
+      </c>
+      <c r="AM228">
+        <v>1.55</v>
+      </c>
+      <c r="AN228">
         <v>1.27</v>
-      </c>
-      <c r="AA228">
-        <v>9.75</v>
-      </c>
-      <c r="AB228">
-        <v>1.05</v>
-      </c>
-      <c r="AC228">
-        <v>2.38</v>
-      </c>
-      <c r="AD228">
-        <v>2.9</v>
-      </c>
-      <c r="AE228">
-        <v>2.9</v>
-      </c>
-      <c r="AF228">
-        <v>1.1</v>
-      </c>
-      <c r="AG228">
-        <v>6.5</v>
-      </c>
-      <c r="AH228">
-        <v>1.44</v>
-      </c>
-      <c r="AI228">
-        <v>2.7</v>
-      </c>
-      <c r="AJ228">
-        <v>2.41</v>
-      </c>
-      <c r="AK228">
-        <v>1.5</v>
-      </c>
-      <c r="AL228">
-        <v>2</v>
-      </c>
-      <c r="AM228">
-        <v>1.7</v>
-      </c>
-      <c r="AN228">
-        <v>1.39</v>
       </c>
       <c r="AO228">
         <v>1.36</v>
       </c>
       <c r="AP228">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AQ228">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AR228">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="AS228">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT228">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU228">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AV228">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AW228">
-        <v>3.03</v>
+        <v>2.47</v>
       </c>
       <c r="AX228">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AY228">
         <v>8.5</v>
       </c>
       <c r="AZ228">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BA228">
         <v>1.5</v>
       </c>
       <c r="BB228">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="BC228">
         <v>2.38</v>
       </c>
       <c r="BD228">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="BE228">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BF228">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH228">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ228">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BK228">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,18 @@
     <t>['28', '45+3', '90+4']</t>
   </si>
   <si>
+    <t>['24', '32']</t>
+  </si>
+  <si>
+    <t>['5', '69']</t>
+  </si>
+  <si>
+    <t>['65', '90+4']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -793,9 +805,6 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['5', '69']</t>
-  </si>
-  <si>
     <t>['36', '82', '87', '90+1']</t>
   </si>
   <si>
@@ -842,9 +851,6 @@
   </si>
   <si>
     <t>['22', '90+2']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['23', '54', '83']</t>
@@ -920,6 +926,15 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['34', '51']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1803,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2185,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2289,7 +2304,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2376,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>0.92</v>
@@ -2567,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2671,7 +2686,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2758,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2952,7 +2967,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3053,7 +3068,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3140,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3334,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3626,7 +3641,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3904,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
         <v>0.45</v>
@@ -4008,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4480,7 +4495,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4668,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT18">
         <v>1.92</v>
@@ -4963,7 +4978,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5053,7 +5068,7 @@
         <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5241,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5435,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5623,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT23">
         <v>1.08</v>
@@ -5814,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU24">
         <v>1.08</v>
@@ -6196,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT26">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.73</v>
@@ -6390,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6491,7 +6506,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6578,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU28">
         <v>1.4</v>
@@ -6682,7 +6697,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6769,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT29">
         <v>0.92</v>
@@ -6960,10 +6975,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>1.26</v>
@@ -7064,7 +7079,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7151,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7255,7 +7270,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7446,7 +7461,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7533,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT33">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU33">
         <v>1.02</v>
@@ -7724,10 +7739,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT34">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU34">
         <v>1.49</v>
@@ -7828,7 +7843,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7915,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT35">
         <v>0.58</v>
@@ -8019,7 +8034,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8297,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT37">
         <v>1.25</v>
@@ -8401,7 +8416,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8491,7 +8506,7 @@
         <v>1.42</v>
       </c>
       <c r="AT38">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.48</v>
@@ -8682,7 +8697,7 @@
         <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU39">
         <v>2.51</v>
@@ -8783,7 +8798,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9165,7 +9180,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9443,10 +9458,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9634,10 +9649,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU44">
         <v>1.31</v>
@@ -9738,7 +9753,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9825,10 +9840,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT45">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>1.6</v>
@@ -9929,7 +9944,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10016,10 +10031,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT46">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>0.79</v>
@@ -10120,7 +10135,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10401,7 +10416,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.67</v>
@@ -10589,10 +10604,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.28</v>
@@ -10693,7 +10708,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10780,7 +10795,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>1.08</v>
@@ -10971,10 +10986,10 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -11162,7 +11177,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>1.25</v>
@@ -11266,7 +11281,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11356,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU53">
         <v>1.29</v>
@@ -11457,7 +11472,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11547,7 +11562,7 @@
         <v>0.67</v>
       </c>
       <c r="AT54">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.61</v>
@@ -11648,7 +11663,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11735,7 +11750,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -12030,7 +12045,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12120,7 +12135,7 @@
         <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU57">
         <v>1.27</v>
@@ -12221,7 +12236,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12412,7 +12427,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12881,7 +12896,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT61">
         <v>1.08</v>
@@ -13072,7 +13087,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT62">
         <v>0.92</v>
@@ -13266,7 +13281,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.32</v>
@@ -13454,7 +13469,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
         <v>0.45</v>
@@ -13749,7 +13764,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13839,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU66">
         <v>1.68</v>
@@ -13940,7 +13955,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14027,7 +14042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT67">
         <v>0.58</v>
@@ -14131,7 +14146,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14218,10 +14233,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.56</v>
@@ -14322,7 +14337,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14513,7 +14528,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14600,10 +14615,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.37</v>
@@ -14895,7 +14910,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14982,10 +14997,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15086,7 +15101,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15176,7 +15191,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU73">
         <v>1.4</v>
@@ -15364,10 +15379,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15937,7 +15952,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>1.25</v>
@@ -16319,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16423,7 +16438,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16513,7 +16528,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16701,7 +16716,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>0.45</v>
@@ -16805,7 +16820,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16895,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.45</v>
@@ -16996,7 +17011,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17083,10 +17098,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU83">
         <v>1.43</v>
@@ -17187,7 +17202,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17378,7 +17393,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17468,7 +17483,7 @@
         <v>0.9</v>
       </c>
       <c r="AT85">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17847,7 +17862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18041,7 +18056,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18229,10 +18244,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18420,7 +18435,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT90">
         <v>0.67</v>
@@ -18524,7 +18539,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18614,7 +18629,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>1.46</v>
@@ -18715,7 +18730,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18802,7 +18817,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT92">
         <v>1.25</v>
@@ -18993,10 +19008,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU93">
         <v>1.39</v>
@@ -19184,7 +19199,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
         <v>1.92</v>
@@ -19288,7 +19303,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19375,10 +19390,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT95">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -19479,7 +19494,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19569,7 +19584,7 @@
         <v>0.67</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19757,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>1.09</v>
@@ -20142,7 +20157,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.43</v>
@@ -20243,7 +20258,7 @@
         <v>123</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20524,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU101">
         <v>1.46</v>
@@ -20712,10 +20727,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20816,7 +20831,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21094,10 +21109,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU104">
         <v>1.86</v>
@@ -21285,7 +21300,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT105">
         <v>1.09</v>
@@ -21389,7 +21404,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21476,10 +21491,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT106">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21580,7 +21595,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21771,7 +21786,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21861,7 +21876,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU108">
         <v>1.33</v>
@@ -22153,7 +22168,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22240,7 +22255,7 @@
         <v>0.2</v>
       </c>
       <c r="AS110">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT110">
         <v>0.58</v>
@@ -22434,7 +22449,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.95</v>
@@ -22535,7 +22550,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22625,7 +22640,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22726,7 +22741,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22816,7 +22831,7 @@
         <v>1.17</v>
       </c>
       <c r="AT113">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -23007,7 +23022,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23108,7 +23123,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23195,7 +23210,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
         <v>1.08</v>
@@ -23768,10 +23783,10 @@
         <v>2</v>
       </c>
       <c r="AS118">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU118">
         <v>1.24</v>
@@ -23959,7 +23974,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT119">
         <v>1.25</v>
@@ -24150,10 +24165,10 @@
         <v>1.4</v>
       </c>
       <c r="AS120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24254,7 +24269,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24341,7 +24356,7 @@
         <v>2</v>
       </c>
       <c r="AS121">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT121">
         <v>1.5</v>
@@ -24445,7 +24460,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24535,7 +24550,7 @@
         <v>1.64</v>
       </c>
       <c r="AT122">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>1.68</v>
@@ -24917,7 +24932,7 @@
         <v>0.9</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU124">
         <v>1.46</v>
@@ -25296,7 +25311,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25400,7 +25415,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25869,10 +25884,10 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT129">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU129">
         <v>1.77</v>
@@ -26060,7 +26075,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT130">
         <v>0.58</v>
@@ -26251,10 +26266,10 @@
         <v>0.8</v>
       </c>
       <c r="AS131">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU131">
         <v>1.59</v>
@@ -26442,7 +26457,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>1.5</v>
@@ -26546,7 +26561,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26633,10 +26648,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU133">
         <v>1.19</v>
@@ -26824,10 +26839,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27015,7 +27030,7 @@
         <v>1.83</v>
       </c>
       <c r="AS135">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT135">
         <v>1.92</v>
@@ -27209,7 +27224,7 @@
         <v>0.67</v>
       </c>
       <c r="AT136">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU136">
         <v>1.42</v>
@@ -27397,7 +27412,7 @@
         <v>0.83</v>
       </c>
       <c r="AS137">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT137">
         <v>0.92</v>
@@ -27588,10 +27603,10 @@
         <v>1.71</v>
       </c>
       <c r="AS138">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT138">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU138">
         <v>1.55</v>
@@ -27779,10 +27794,10 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT139">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27973,7 +27988,7 @@
         <v>1.42</v>
       </c>
       <c r="AT140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU140">
         <v>1.59</v>
@@ -28074,7 +28089,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28164,7 +28179,7 @@
         <v>1.67</v>
       </c>
       <c r="AT141">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.51</v>
@@ -28265,7 +28280,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28355,7 +28370,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU142">
         <v>1.64</v>
@@ -28838,7 +28853,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -28928,7 +28943,7 @@
         <v>0.9</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -29307,7 +29322,7 @@
         <v>1.14</v>
       </c>
       <c r="AS147">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT147">
         <v>1.08</v>
@@ -29411,7 +29426,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29602,7 +29617,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29880,7 +29895,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30262,10 +30277,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT152">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>1.41</v>
@@ -30453,7 +30468,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT153">
         <v>1.5</v>
@@ -30644,10 +30659,10 @@
         <v>1.43</v>
       </c>
       <c r="AS154">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -30835,10 +30850,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU155">
         <v>1.45</v>
@@ -31029,7 +31044,7 @@
         <v>1.67</v>
       </c>
       <c r="AT156">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31220,7 +31235,7 @@
         <v>2</v>
       </c>
       <c r="AT157">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31408,10 +31423,10 @@
         <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT158">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU158">
         <v>1.21</v>
@@ -31512,7 +31527,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31599,10 +31614,10 @@
         <v>1.88</v>
       </c>
       <c r="AS159">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT159">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU159">
         <v>1.47</v>
@@ -31790,7 +31805,7 @@
         <v>0.86</v>
       </c>
       <c r="AS160">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT160">
         <v>0.92</v>
@@ -31894,7 +31909,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -31981,10 +31996,10 @@
         <v>1.57</v>
       </c>
       <c r="AS161">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32172,10 +32187,10 @@
         <v>1.43</v>
       </c>
       <c r="AS162">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT162">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU162">
         <v>1.76</v>
@@ -32276,7 +32291,7 @@
         <v>179</v>
       </c>
       <c r="P163" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32467,7 +32482,7 @@
         <v>182</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32745,7 +32760,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT165">
         <v>0.67</v>
@@ -33130,7 +33145,7 @@
         <v>1.75</v>
       </c>
       <c r="AT167">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU167">
         <v>1.28</v>
@@ -33422,7 +33437,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -33512,7 +33527,7 @@
         <v>1.42</v>
       </c>
       <c r="AT169">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU169">
         <v>1.58</v>
@@ -33700,7 +33715,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT170">
         <v>0.58</v>
@@ -33804,7 +33819,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33995,7 +34010,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34082,7 +34097,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT172">
         <v>1.5</v>
@@ -34273,10 +34288,10 @@
         <v>1.25</v>
       </c>
       <c r="AS173">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT173">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -34377,7 +34392,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34464,10 +34479,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU174">
         <v>1.34</v>
@@ -34568,7 +34583,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34655,7 +34670,7 @@
         <v>1</v>
       </c>
       <c r="AS175">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
         <v>1.09</v>
@@ -34849,7 +34864,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU176">
         <v>1.65</v>
@@ -34950,7 +34965,7 @@
         <v>187</v>
       </c>
       <c r="P177" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35231,7 +35246,7 @@
         <v>0.67</v>
       </c>
       <c r="AT178">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU178">
         <v>1.28</v>
@@ -35332,7 +35347,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35419,7 +35434,7 @@
         <v>1.13</v>
       </c>
       <c r="AS179">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT179">
         <v>1</v>
@@ -35523,7 +35538,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35613,7 +35628,7 @@
         <v>1.64</v>
       </c>
       <c r="AT180">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU180">
         <v>1.72</v>
@@ -35801,10 +35816,10 @@
         <v>1.13</v>
       </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT181">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU181">
         <v>1.51</v>
@@ -35905,7 +35920,7 @@
         <v>190</v>
       </c>
       <c r="P182" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -35992,7 +36007,7 @@
         <v>0.33</v>
       </c>
       <c r="AS182">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT182">
         <v>0.58</v>
@@ -36183,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT183">
         <v>1.08</v>
@@ -36377,7 +36392,7 @@
         <v>1.42</v>
       </c>
       <c r="AT184">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU184">
         <v>1.58</v>
@@ -36478,7 +36493,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36565,7 +36580,7 @@
         <v>0.89</v>
       </c>
       <c r="AS185">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT185">
         <v>0.67</v>
@@ -36860,7 +36875,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -36950,7 +36965,7 @@
         <v>1</v>
       </c>
       <c r="AT187">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37138,10 +37153,10 @@
         <v>2</v>
       </c>
       <c r="AS188">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT188">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU188">
         <v>1.37</v>
@@ -37242,7 +37257,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37329,10 +37344,10 @@
         <v>1.22</v>
       </c>
       <c r="AS189">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT189">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37523,7 +37538,7 @@
         <v>1.17</v>
       </c>
       <c r="AT190">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.37</v>
@@ -37624,7 +37639,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37815,7 +37830,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -37905,7 +37920,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU192">
         <v>1.68</v>
@@ -38093,10 +38108,10 @@
         <v>1.8</v>
       </c>
       <c r="AS193">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT193">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38197,7 +38212,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38287,7 +38302,7 @@
         <v>0.67</v>
       </c>
       <c r="AT194">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU194">
         <v>1.27</v>
@@ -38388,7 +38403,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38475,10 +38490,10 @@
         <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT195">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU195">
         <v>1.33</v>
@@ -38770,7 +38785,7 @@
         <v>142</v>
       </c>
       <c r="P197" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38961,7 +38976,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39048,7 +39063,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT198">
         <v>1</v>
@@ -39152,7 +39167,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39239,10 +39254,10 @@
         <v>0.67</v>
       </c>
       <c r="AS199">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT199">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39430,10 +39445,10 @@
         <v>1.11</v>
       </c>
       <c r="AS200">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT200">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU200">
         <v>1.77</v>
@@ -39534,7 +39549,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39621,7 +39636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT201">
         <v>1.5</v>
@@ -39725,7 +39740,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39812,7 +39827,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT202">
         <v>1.92</v>
@@ -40006,7 +40021,7 @@
         <v>1.67</v>
       </c>
       <c r="AT203">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU203">
         <v>1.55</v>
@@ -40680,7 +40695,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40770,7 +40785,7 @@
         <v>1.17</v>
       </c>
       <c r="AT207">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU207">
         <v>1.4</v>
@@ -40958,10 +40973,10 @@
         <v>0.9</v>
       </c>
       <c r="AS208">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT208">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU208">
         <v>1.53</v>
@@ -41062,7 +41077,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41531,7 +41546,7 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT211">
         <v>0.92</v>
@@ -41635,7 +41650,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41722,7 +41737,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT212">
         <v>1.5</v>
@@ -41913,10 +41928,10 @@
         <v>1.8</v>
       </c>
       <c r="AS213">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT213">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU213">
         <v>1.47</v>
@@ -42017,7 +42032,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42104,7 +42119,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT214">
         <v>1.09</v>
@@ -42295,10 +42310,10 @@
         <v>0.6</v>
       </c>
       <c r="AS215">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT215">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU215">
         <v>1.2</v>
@@ -42399,7 +42414,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42486,10 +42501,10 @@
         <v>1.3</v>
       </c>
       <c r="AS216">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT216">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU216">
         <v>1.36</v>
@@ -42677,10 +42692,10 @@
         <v>1.64</v>
       </c>
       <c r="AS217">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT217">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU217">
         <v>1.52</v>
@@ -42868,10 +42883,10 @@
         <v>1.1</v>
       </c>
       <c r="AS218">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU218">
         <v>1.28</v>
@@ -42972,7 +42987,7 @@
         <v>172</v>
       </c>
       <c r="P219" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q219">
         <v>5</v>
@@ -43062,7 +43077,7 @@
         <v>0.67</v>
       </c>
       <c r="AT219">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU219">
         <v>1.27</v>
@@ -43163,7 +43178,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43354,7 +43369,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43444,7 +43459,7 @@
         <v>1.64</v>
       </c>
       <c r="AT221">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU221">
         <v>1.77</v>
@@ -43736,7 +43751,7 @@
         <v>216</v>
       </c>
       <c r="P223" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -43927,7 +43942,7 @@
         <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44205,7 +44220,7 @@
         <v>1.09</v>
       </c>
       <c r="AS225">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT225">
         <v>1.25</v>
@@ -44691,7 +44706,7 @@
         <v>178</v>
       </c>
       <c r="P228" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q228">
         <v>6</v>
@@ -45215,6 +45230,1916 @@
       </c>
       <c r="BK230">
         <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>3168630</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>70</v>
+      </c>
+      <c r="H231" t="s">
+        <v>82</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>219</v>
+      </c>
+      <c r="P231" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>5</v>
+      </c>
+      <c r="T231">
+        <v>2.64</v>
+      </c>
+      <c r="U231">
+        <v>2.16</v>
+      </c>
+      <c r="V231">
+        <v>4.76</v>
+      </c>
+      <c r="W231">
+        <v>1.45</v>
+      </c>
+      <c r="X231">
+        <v>2.77</v>
+      </c>
+      <c r="Y231">
+        <v>3.28</v>
+      </c>
+      <c r="Z231">
+        <v>1.35</v>
+      </c>
+      <c r="AA231">
+        <v>8.1</v>
+      </c>
+      <c r="AB231">
+        <v>1.06</v>
+      </c>
+      <c r="AC231">
+        <v>1.94</v>
+      </c>
+      <c r="AD231">
+        <v>3.25</v>
+      </c>
+      <c r="AE231">
+        <v>3.85</v>
+      </c>
+      <c r="AF231">
+        <v>1.08</v>
+      </c>
+      <c r="AG231">
+        <v>9.15</v>
+      </c>
+      <c r="AH231">
+        <v>1.4</v>
+      </c>
+      <c r="AI231">
+        <v>3</v>
+      </c>
+      <c r="AJ231">
+        <v>2.25</v>
+      </c>
+      <c r="AK231">
+        <v>1.6</v>
+      </c>
+      <c r="AL231">
+        <v>1.93</v>
+      </c>
+      <c r="AM231">
+        <v>1.86</v>
+      </c>
+      <c r="AN231">
+        <v>1.24</v>
+      </c>
+      <c r="AO231">
+        <v>1.34</v>
+      </c>
+      <c r="AP231">
+        <v>1.86</v>
+      </c>
+      <c r="AQ231">
+        <v>1.91</v>
+      </c>
+      <c r="AR231">
+        <v>1.58</v>
+      </c>
+      <c r="AS231">
+        <v>2</v>
+      </c>
+      <c r="AT231">
+        <v>1.46</v>
+      </c>
+      <c r="AU231">
+        <v>1.67</v>
+      </c>
+      <c r="AV231">
+        <v>1.35</v>
+      </c>
+      <c r="AW231">
+        <v>3.02</v>
+      </c>
+      <c r="AX231">
+        <v>1.46</v>
+      </c>
+      <c r="AY231">
+        <v>6</v>
+      </c>
+      <c r="AZ231">
+        <v>3.1</v>
+      </c>
+      <c r="BA231">
+        <v>1.36</v>
+      </c>
+      <c r="BB231">
+        <v>1.8</v>
+      </c>
+      <c r="BC231">
+        <v>2.21</v>
+      </c>
+      <c r="BD231">
+        <v>2.95</v>
+      </c>
+      <c r="BE231">
+        <v>4.65</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>5</v>
+      </c>
+      <c r="BH231">
+        <v>6</v>
+      </c>
+      <c r="BI231">
+        <v>5</v>
+      </c>
+      <c r="BJ231">
+        <v>11</v>
+      </c>
+      <c r="BK231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2468544</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>77</v>
+      </c>
+      <c r="H232" t="s">
+        <v>83</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>86</v>
+      </c>
+      <c r="P232" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>5</v>
+      </c>
+      <c r="T232">
+        <v>3.2</v>
+      </c>
+      <c r="U232">
+        <v>1.95</v>
+      </c>
+      <c r="V232">
+        <v>3.5</v>
+      </c>
+      <c r="W232">
+        <v>1.51</v>
+      </c>
+      <c r="X232">
+        <v>2.37</v>
+      </c>
+      <c r="Y232">
+        <v>3.4</v>
+      </c>
+      <c r="Z232">
+        <v>1.28</v>
+      </c>
+      <c r="AA232">
+        <v>9.5</v>
+      </c>
+      <c r="AB232">
+        <v>1.05</v>
+      </c>
+      <c r="AC232">
+        <v>2.4</v>
+      </c>
+      <c r="AD232">
+        <v>3.16</v>
+      </c>
+      <c r="AE232">
+        <v>3.12</v>
+      </c>
+      <c r="AF232">
+        <v>1.08</v>
+      </c>
+      <c r="AG232">
+        <v>6.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.42</v>
+      </c>
+      <c r="AI232">
+        <v>2.62</v>
+      </c>
+      <c r="AJ232">
+        <v>2.28</v>
+      </c>
+      <c r="AK232">
+        <v>1.6</v>
+      </c>
+      <c r="AL232">
+        <v>1.91</v>
+      </c>
+      <c r="AM232">
+        <v>1.85</v>
+      </c>
+      <c r="AN232">
+        <v>1.36</v>
+      </c>
+      <c r="AO232">
+        <v>1.4</v>
+      </c>
+      <c r="AP232">
+        <v>1.52</v>
+      </c>
+      <c r="AQ232">
+        <v>1.27</v>
+      </c>
+      <c r="AR232">
+        <v>1</v>
+      </c>
+      <c r="AS232">
+        <v>1.17</v>
+      </c>
+      <c r="AT232">
+        <v>1.17</v>
+      </c>
+      <c r="AU232">
+        <v>1.53</v>
+      </c>
+      <c r="AV232">
+        <v>1.18</v>
+      </c>
+      <c r="AW232">
+        <v>2.71</v>
+      </c>
+      <c r="AX232">
+        <v>1.7</v>
+      </c>
+      <c r="AY232">
+        <v>8</v>
+      </c>
+      <c r="AZ232">
+        <v>2.45</v>
+      </c>
+      <c r="BA232">
+        <v>1.44</v>
+      </c>
+      <c r="BB232">
+        <v>1.73</v>
+      </c>
+      <c r="BC232">
+        <v>2.2</v>
+      </c>
+      <c r="BD232">
+        <v>3.15</v>
+      </c>
+      <c r="BE232">
+        <v>4.3</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>2</v>
+      </c>
+      <c r="BH232">
+        <v>6</v>
+      </c>
+      <c r="BI232">
+        <v>3</v>
+      </c>
+      <c r="BJ232">
+        <v>10</v>
+      </c>
+      <c r="BK232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2468539</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>66</v>
+      </c>
+      <c r="H233" t="s">
+        <v>74</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>86</v>
+      </c>
+      <c r="P233" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q233">
+        <v>4</v>
+      </c>
+      <c r="R233">
+        <v>4</v>
+      </c>
+      <c r="S233">
+        <v>8</v>
+      </c>
+      <c r="T233">
+        <v>3.4</v>
+      </c>
+      <c r="U233">
+        <v>1.93</v>
+      </c>
+      <c r="V233">
+        <v>3.25</v>
+      </c>
+      <c r="W233">
+        <v>1.5</v>
+      </c>
+      <c r="X233">
+        <v>2.4</v>
+      </c>
+      <c r="Y233">
+        <v>3.3</v>
+      </c>
+      <c r="Z233">
+        <v>1.29</v>
+      </c>
+      <c r="AA233">
+        <v>9.25</v>
+      </c>
+      <c r="AB233">
+        <v>1.05</v>
+      </c>
+      <c r="AC233">
+        <v>2.9</v>
+      </c>
+      <c r="AD233">
+        <v>3.18</v>
+      </c>
+      <c r="AE233">
+        <v>2.51</v>
+      </c>
+      <c r="AF233">
+        <v>1.09</v>
+      </c>
+      <c r="AG233">
+        <v>7</v>
+      </c>
+      <c r="AH233">
+        <v>1.42</v>
+      </c>
+      <c r="AI233">
+        <v>2.65</v>
+      </c>
+      <c r="AJ233">
+        <v>2.3</v>
+      </c>
+      <c r="AK233">
+        <v>1.58</v>
+      </c>
+      <c r="AL233">
+        <v>1.95</v>
+      </c>
+      <c r="AM233">
+        <v>1.73</v>
+      </c>
+      <c r="AN233">
+        <v>1.46</v>
+      </c>
+      <c r="AO233">
+        <v>1.35</v>
+      </c>
+      <c r="AP233">
+        <v>1.43</v>
+      </c>
+      <c r="AQ233">
+        <v>1.73</v>
+      </c>
+      <c r="AR233">
+        <v>1.45</v>
+      </c>
+      <c r="AS233">
+        <v>1.67</v>
+      </c>
+      <c r="AT233">
+        <v>1.42</v>
+      </c>
+      <c r="AU233">
+        <v>1.47</v>
+      </c>
+      <c r="AV233">
+        <v>1.47</v>
+      </c>
+      <c r="AW233">
+        <v>2.94</v>
+      </c>
+      <c r="AX233">
+        <v>1.95</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>2.05</v>
+      </c>
+      <c r="BA233">
+        <v>1.57</v>
+      </c>
+      <c r="BB233">
+        <v>2</v>
+      </c>
+      <c r="BC233">
+        <v>2.4</v>
+      </c>
+      <c r="BD233">
+        <v>3.7</v>
+      </c>
+      <c r="BE233">
+        <v>5.5</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>6</v>
+      </c>
+      <c r="BI233">
+        <v>6</v>
+      </c>
+      <c r="BJ233">
+        <v>12</v>
+      </c>
+      <c r="BK233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2468540</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s">
+        <v>79</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>220</v>
+      </c>
+      <c r="P234" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q234">
+        <v>10</v>
+      </c>
+      <c r="R234">
+        <v>8</v>
+      </c>
+      <c r="S234">
+        <v>18</v>
+      </c>
+      <c r="T234">
+        <v>3.9</v>
+      </c>
+      <c r="U234">
+        <v>1.93</v>
+      </c>
+      <c r="V234">
+        <v>3.22</v>
+      </c>
+      <c r="W234">
+        <v>1.49</v>
+      </c>
+      <c r="X234">
+        <v>2.4</v>
+      </c>
+      <c r="Y234">
+        <v>3.3</v>
+      </c>
+      <c r="Z234">
+        <v>1.28</v>
+      </c>
+      <c r="AA234">
+        <v>9.25</v>
+      </c>
+      <c r="AB234">
+        <v>1.05</v>
+      </c>
+      <c r="AC234">
+        <v>2.95</v>
+      </c>
+      <c r="AD234">
+        <v>3.24</v>
+      </c>
+      <c r="AE234">
+        <v>2.46</v>
+      </c>
+      <c r="AF234">
+        <v>1.08</v>
+      </c>
+      <c r="AG234">
+        <v>6.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.4</v>
+      </c>
+      <c r="AI234">
+        <v>2.7</v>
+      </c>
+      <c r="AJ234">
+        <v>2.2</v>
+      </c>
+      <c r="AK234">
+        <v>1.63</v>
+      </c>
+      <c r="AL234">
+        <v>1.98</v>
+      </c>
+      <c r="AM234">
+        <v>1.72</v>
+      </c>
+      <c r="AN234">
+        <v>1.5</v>
+      </c>
+      <c r="AO234">
+        <v>1.33</v>
+      </c>
+      <c r="AP234">
+        <v>1.41</v>
+      </c>
+      <c r="AQ234">
+        <v>1.55</v>
+      </c>
+      <c r="AR234">
+        <v>1.36</v>
+      </c>
+      <c r="AS234">
+        <v>1.67</v>
+      </c>
+      <c r="AT234">
+        <v>1.25</v>
+      </c>
+      <c r="AU234">
+        <v>1.35</v>
+      </c>
+      <c r="AV234">
+        <v>1.48</v>
+      </c>
+      <c r="AW234">
+        <v>2.83</v>
+      </c>
+      <c r="AX234">
+        <v>1.73</v>
+      </c>
+      <c r="AY234">
+        <v>8</v>
+      </c>
+      <c r="AZ234">
+        <v>2.38</v>
+      </c>
+      <c r="BA234">
+        <v>1.5</v>
+      </c>
+      <c r="BB234">
+        <v>1.9</v>
+      </c>
+      <c r="BC234">
+        <v>2.38</v>
+      </c>
+      <c r="BD234">
+        <v>3.3</v>
+      </c>
+      <c r="BE234">
+        <v>4.7</v>
+      </c>
+      <c r="BF234">
+        <v>8</v>
+      </c>
+      <c r="BG234">
+        <v>5</v>
+      </c>
+      <c r="BH234">
+        <v>8</v>
+      </c>
+      <c r="BI234">
+        <v>3</v>
+      </c>
+      <c r="BJ234">
+        <v>16</v>
+      </c>
+      <c r="BK234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2468543</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>65</v>
+      </c>
+      <c r="H235" t="s">
+        <v>72</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235" t="s">
+        <v>86</v>
+      </c>
+      <c r="P235" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q235">
+        <v>3</v>
+      </c>
+      <c r="R235">
+        <v>5</v>
+      </c>
+      <c r="S235">
+        <v>8</v>
+      </c>
+      <c r="T235">
+        <v>3.75</v>
+      </c>
+      <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
+        <v>2.9</v>
+      </c>
+      <c r="W235">
+        <v>1.49</v>
+      </c>
+      <c r="X235">
+        <v>2.45</v>
+      </c>
+      <c r="Y235">
+        <v>3.25</v>
+      </c>
+      <c r="Z235">
+        <v>1.3</v>
+      </c>
+      <c r="AA235">
+        <v>9</v>
+      </c>
+      <c r="AB235">
+        <v>1.06</v>
+      </c>
+      <c r="AC235">
+        <v>3.16</v>
+      </c>
+      <c r="AD235">
+        <v>3.24</v>
+      </c>
+      <c r="AE235">
+        <v>2.33</v>
+      </c>
+      <c r="AF235">
+        <v>1.08</v>
+      </c>
+      <c r="AG235">
+        <v>7.25</v>
+      </c>
+      <c r="AH235">
+        <v>1.4</v>
+      </c>
+      <c r="AI235">
+        <v>2.7</v>
+      </c>
+      <c r="AJ235">
+        <v>2.33</v>
+      </c>
+      <c r="AK235">
+        <v>1.56</v>
+      </c>
+      <c r="AL235">
+        <v>1.95</v>
+      </c>
+      <c r="AM235">
+        <v>1.75</v>
+      </c>
+      <c r="AN235">
+        <v>1.6</v>
+      </c>
+      <c r="AO235">
+        <v>1.33</v>
+      </c>
+      <c r="AP235">
+        <v>1.34</v>
+      </c>
+      <c r="AQ235">
+        <v>1.33</v>
+      </c>
+      <c r="AR235">
+        <v>1.55</v>
+      </c>
+      <c r="AS235">
+        <v>1.31</v>
+      </c>
+      <c r="AT235">
+        <v>1.5</v>
+      </c>
+      <c r="AU235">
+        <v>1.25</v>
+      </c>
+      <c r="AV235">
+        <v>1.57</v>
+      </c>
+      <c r="AW235">
+        <v>2.82</v>
+      </c>
+      <c r="AX235">
+        <v>1.95</v>
+      </c>
+      <c r="AY235">
+        <v>8</v>
+      </c>
+      <c r="AZ235">
+        <v>2.05</v>
+      </c>
+      <c r="BA235">
+        <v>1.29</v>
+      </c>
+      <c r="BB235">
+        <v>1.62</v>
+      </c>
+      <c r="BC235">
+        <v>2</v>
+      </c>
+      <c r="BD235">
+        <v>2.5</v>
+      </c>
+      <c r="BE235">
+        <v>2.95</v>
+      </c>
+      <c r="BF235">
+        <v>3</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>4</v>
+      </c>
+      <c r="BI235">
+        <v>5</v>
+      </c>
+      <c r="BJ235">
+        <v>7</v>
+      </c>
+      <c r="BK235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2468541</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>81</v>
+      </c>
+      <c r="H236" t="s">
+        <v>76</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>86</v>
+      </c>
+      <c r="P236" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>5</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>3.2</v>
+      </c>
+      <c r="U236">
+        <v>1.83</v>
+      </c>
+      <c r="V236">
+        <v>4.44</v>
+      </c>
+      <c r="W236">
+        <v>1.5</v>
+      </c>
+      <c r="X236">
+        <v>2.5</v>
+      </c>
+      <c r="Y236">
+        <v>3.4</v>
+      </c>
+      <c r="Z236">
+        <v>1.3</v>
+      </c>
+      <c r="AA236">
+        <v>9</v>
+      </c>
+      <c r="AB236">
+        <v>1.05</v>
+      </c>
+      <c r="AC236">
+        <v>2.51</v>
+      </c>
+      <c r="AD236">
+        <v>2.86</v>
+      </c>
+      <c r="AE236">
+        <v>3.26</v>
+      </c>
+      <c r="AF236">
+        <v>1.11</v>
+      </c>
+      <c r="AG236">
+        <v>6</v>
+      </c>
+      <c r="AH236">
+        <v>1.5</v>
+      </c>
+      <c r="AI236">
+        <v>2.5</v>
+      </c>
+      <c r="AJ236">
+        <v>2.48</v>
+      </c>
+      <c r="AK236">
+        <v>1.5</v>
+      </c>
+      <c r="AL236">
+        <v>2.04</v>
+      </c>
+      <c r="AM236">
+        <v>1.74</v>
+      </c>
+      <c r="AN236">
+        <v>1.3</v>
+      </c>
+      <c r="AO236">
+        <v>1.3</v>
+      </c>
+      <c r="AP236">
+        <v>1.55</v>
+      </c>
+      <c r="AQ236">
+        <v>1.91</v>
+      </c>
+      <c r="AR236">
+        <v>1.18</v>
+      </c>
+      <c r="AS236">
+        <v>1.83</v>
+      </c>
+      <c r="AT236">
+        <v>1.17</v>
+      </c>
+      <c r="AU236">
+        <v>1.31</v>
+      </c>
+      <c r="AV236">
+        <v>1.15</v>
+      </c>
+      <c r="AW236">
+        <v>2.46</v>
+      </c>
+      <c r="AX236">
+        <v>1.75</v>
+      </c>
+      <c r="AY236">
+        <v>8</v>
+      </c>
+      <c r="AZ236">
+        <v>2.3</v>
+      </c>
+      <c r="BA236">
+        <v>1.5</v>
+      </c>
+      <c r="BB236">
+        <v>1.8</v>
+      </c>
+      <c r="BC236">
+        <v>2.25</v>
+      </c>
+      <c r="BD236">
+        <v>3.15</v>
+      </c>
+      <c r="BE236">
+        <v>4.3</v>
+      </c>
+      <c r="BF236">
+        <v>3</v>
+      </c>
+      <c r="BG236">
+        <v>2</v>
+      </c>
+      <c r="BH236">
+        <v>6</v>
+      </c>
+      <c r="BI236">
+        <v>4</v>
+      </c>
+      <c r="BJ236">
+        <v>9</v>
+      </c>
+      <c r="BK236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2468542</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>73</v>
+      </c>
+      <c r="H237" t="s">
+        <v>67</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>92</v>
+      </c>
+      <c r="P237" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q237">
+        <v>7</v>
+      </c>
+      <c r="R237">
+        <v>1</v>
+      </c>
+      <c r="S237">
+        <v>8</v>
+      </c>
+      <c r="T237">
+        <v>2.9</v>
+      </c>
+      <c r="U237">
+        <v>1.95</v>
+      </c>
+      <c r="V237">
+        <v>4</v>
+      </c>
+      <c r="W237">
+        <v>1.5</v>
+      </c>
+      <c r="X237">
+        <v>2.37</v>
+      </c>
+      <c r="Y237">
+        <v>3.4</v>
+      </c>
+      <c r="Z237">
+        <v>1.27</v>
+      </c>
+      <c r="AA237">
+        <v>9.75</v>
+      </c>
+      <c r="AB237">
+        <v>1.05</v>
+      </c>
+      <c r="AC237">
+        <v>2.21</v>
+      </c>
+      <c r="AD237">
+        <v>3.04</v>
+      </c>
+      <c r="AE237">
+        <v>3.66</v>
+      </c>
+      <c r="AF237">
+        <v>1.09</v>
+      </c>
+      <c r="AG237">
+        <v>6.75</v>
+      </c>
+      <c r="AH237">
+        <v>1.49</v>
+      </c>
+      <c r="AI237">
+        <v>2.55</v>
+      </c>
+      <c r="AJ237">
+        <v>2.35</v>
+      </c>
+      <c r="AK237">
+        <v>1.51</v>
+      </c>
+      <c r="AL237">
+        <v>2.04</v>
+      </c>
+      <c r="AM237">
+        <v>1.74</v>
+      </c>
+      <c r="AN237">
+        <v>1.25</v>
+      </c>
+      <c r="AO237">
+        <v>1.3</v>
+      </c>
+      <c r="AP237">
+        <v>1.66</v>
+      </c>
+      <c r="AQ237">
+        <v>1.83</v>
+      </c>
+      <c r="AR237">
+        <v>1.64</v>
+      </c>
+      <c r="AS237">
+        <v>1.77</v>
+      </c>
+      <c r="AT237">
+        <v>1.58</v>
+      </c>
+      <c r="AU237">
+        <v>1.52</v>
+      </c>
+      <c r="AV237">
+        <v>1.36</v>
+      </c>
+      <c r="AW237">
+        <v>2.88</v>
+      </c>
+      <c r="AX237">
+        <v>1.55</v>
+      </c>
+      <c r="AY237">
+        <v>8</v>
+      </c>
+      <c r="AZ237">
+        <v>2.8</v>
+      </c>
+      <c r="BA237">
+        <v>1.5</v>
+      </c>
+      <c r="BB237">
+        <v>1.83</v>
+      </c>
+      <c r="BC237">
+        <v>2.25</v>
+      </c>
+      <c r="BD237">
+        <v>3.3</v>
+      </c>
+      <c r="BE237">
+        <v>4.5</v>
+      </c>
+      <c r="BF237">
+        <v>8</v>
+      </c>
+      <c r="BG237">
+        <v>4</v>
+      </c>
+      <c r="BH237">
+        <v>9</v>
+      </c>
+      <c r="BI237">
+        <v>2</v>
+      </c>
+      <c r="BJ237">
+        <v>17</v>
+      </c>
+      <c r="BK237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2468547</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>84</v>
+      </c>
+      <c r="H238" t="s">
+        <v>80</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="O238" t="s">
+        <v>221</v>
+      </c>
+      <c r="P238" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q238">
+        <v>9</v>
+      </c>
+      <c r="R238">
+        <v>1</v>
+      </c>
+      <c r="S238">
+        <v>10</v>
+      </c>
+      <c r="T238">
+        <v>2.6</v>
+      </c>
+      <c r="U238">
+        <v>1.88</v>
+      </c>
+      <c r="V238">
+        <v>5</v>
+      </c>
+      <c r="W238">
+        <v>1.57</v>
+      </c>
+      <c r="X238">
+        <v>2.2</v>
+      </c>
+      <c r="Y238">
+        <v>3.7</v>
+      </c>
+      <c r="Z238">
+        <v>1.24</v>
+      </c>
+      <c r="AA238">
+        <v>11</v>
+      </c>
+      <c r="AB238">
+        <v>1.04</v>
+      </c>
+      <c r="AC238">
+        <v>1.94</v>
+      </c>
+      <c r="AD238">
+        <v>3.22</v>
+      </c>
+      <c r="AE238">
+        <v>4.4</v>
+      </c>
+      <c r="AF238">
+        <v>1.11</v>
+      </c>
+      <c r="AG238">
+        <v>6</v>
+      </c>
+      <c r="AH238">
+        <v>1.52</v>
+      </c>
+      <c r="AI238">
+        <v>2.45</v>
+      </c>
+      <c r="AJ238">
+        <v>2.47</v>
+      </c>
+      <c r="AK238">
+        <v>1.42</v>
+      </c>
+      <c r="AL238">
+        <v>2.3</v>
+      </c>
+      <c r="AM238">
+        <v>1.53</v>
+      </c>
+      <c r="AN238">
+        <v>1.19</v>
+      </c>
+      <c r="AO238">
+        <v>1.34</v>
+      </c>
+      <c r="AP238">
+        <v>1.87</v>
+      </c>
+      <c r="AQ238">
+        <v>2</v>
+      </c>
+      <c r="AR238">
+        <v>1.45</v>
+      </c>
+      <c r="AS238">
+        <v>2.08</v>
+      </c>
+      <c r="AT238">
+        <v>1.33</v>
+      </c>
+      <c r="AU238">
+        <v>1.78</v>
+      </c>
+      <c r="AV238">
+        <v>1.07</v>
+      </c>
+      <c r="AW238">
+        <v>2.85</v>
+      </c>
+      <c r="AX238">
+        <v>1.44</v>
+      </c>
+      <c r="AY238">
+        <v>9</v>
+      </c>
+      <c r="AZ238">
+        <v>3.1</v>
+      </c>
+      <c r="BA238">
+        <v>1.5</v>
+      </c>
+      <c r="BB238">
+        <v>1.88</v>
+      </c>
+      <c r="BC238">
+        <v>2.38</v>
+      </c>
+      <c r="BD238">
+        <v>3.3</v>
+      </c>
+      <c r="BE238">
+        <v>4.5</v>
+      </c>
+      <c r="BF238">
+        <v>7</v>
+      </c>
+      <c r="BG238">
+        <v>3</v>
+      </c>
+      <c r="BH238">
+        <v>9</v>
+      </c>
+      <c r="BI238">
+        <v>3</v>
+      </c>
+      <c r="BJ238">
+        <v>16</v>
+      </c>
+      <c r="BK238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2468546</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>68</v>
+      </c>
+      <c r="H239" t="s">
+        <v>78</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>112</v>
+      </c>
+      <c r="P239" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q239">
+        <v>10</v>
+      </c>
+      <c r="R239">
+        <v>1</v>
+      </c>
+      <c r="S239">
+        <v>11</v>
+      </c>
+      <c r="T239">
+        <v>2.2</v>
+      </c>
+      <c r="U239">
+        <v>2.1</v>
+      </c>
+      <c r="V239">
+        <v>5.5</v>
+      </c>
+      <c r="W239">
+        <v>1.44</v>
+      </c>
+      <c r="X239">
+        <v>2.55</v>
+      </c>
+      <c r="Y239">
+        <v>3</v>
+      </c>
+      <c r="Z239">
+        <v>1.33</v>
+      </c>
+      <c r="AA239">
+        <v>8.25</v>
+      </c>
+      <c r="AB239">
+        <v>1.06</v>
+      </c>
+      <c r="AC239">
+        <v>1.57</v>
+      </c>
+      <c r="AD239">
+        <v>3.7</v>
+      </c>
+      <c r="AE239">
+        <v>6.25</v>
+      </c>
+      <c r="AF239">
+        <v>1.07</v>
+      </c>
+      <c r="AG239">
+        <v>7</v>
+      </c>
+      <c r="AH239">
+        <v>1.36</v>
+      </c>
+      <c r="AI239">
+        <v>2.87</v>
+      </c>
+      <c r="AJ239">
+        <v>2.16</v>
+      </c>
+      <c r="AK239">
+        <v>1.66</v>
+      </c>
+      <c r="AL239">
+        <v>2.15</v>
+      </c>
+      <c r="AM239">
+        <v>1.62</v>
+      </c>
+      <c r="AN239">
+        <v>1.14</v>
+      </c>
+      <c r="AO239">
+        <v>1.25</v>
+      </c>
+      <c r="AP239">
+        <v>2.25</v>
+      </c>
+      <c r="AQ239">
+        <v>2.27</v>
+      </c>
+      <c r="AR239">
+        <v>0.82</v>
+      </c>
+      <c r="AS239">
+        <v>2.33</v>
+      </c>
+      <c r="AT239">
+        <v>0.75</v>
+      </c>
+      <c r="AU239">
+        <v>1.52</v>
+      </c>
+      <c r="AV239">
+        <v>1.18</v>
+      </c>
+      <c r="AW239">
+        <v>2.7</v>
+      </c>
+      <c r="AX239">
+        <v>1.25</v>
+      </c>
+      <c r="AY239">
+        <v>11</v>
+      </c>
+      <c r="AZ239">
+        <v>4.33</v>
+      </c>
+      <c r="BA239">
+        <v>1.31</v>
+      </c>
+      <c r="BB239">
+        <v>1.55</v>
+      </c>
+      <c r="BC239">
+        <v>1.9</v>
+      </c>
+      <c r="BD239">
+        <v>2.3</v>
+      </c>
+      <c r="BE239">
+        <v>3.2</v>
+      </c>
+      <c r="BF239">
+        <v>7</v>
+      </c>
+      <c r="BG239">
+        <v>2</v>
+      </c>
+      <c r="BH239">
+        <v>4</v>
+      </c>
+      <c r="BI239">
+        <v>3</v>
+      </c>
+      <c r="BJ239">
+        <v>11</v>
+      </c>
+      <c r="BK239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2468545</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44977.69791666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>69</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>222</v>
+      </c>
+      <c r="P240" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q240">
+        <v>9</v>
+      </c>
+      <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240">
+        <v>15</v>
+      </c>
+      <c r="T240">
+        <v>4</v>
+      </c>
+      <c r="U240">
+        <v>2.1</v>
+      </c>
+      <c r="V240">
+        <v>2.75</v>
+      </c>
+      <c r="W240">
+        <v>1.44</v>
+      </c>
+      <c r="X240">
+        <v>2.63</v>
+      </c>
+      <c r="Y240">
+        <v>3</v>
+      </c>
+      <c r="Z240">
+        <v>1.36</v>
+      </c>
+      <c r="AA240">
+        <v>9</v>
+      </c>
+      <c r="AB240">
+        <v>1.07</v>
+      </c>
+      <c r="AC240">
+        <v>3.7</v>
+      </c>
+      <c r="AD240">
+        <v>3.25</v>
+      </c>
+      <c r="AE240">
+        <v>2.02</v>
+      </c>
+      <c r="AF240">
+        <v>1.07</v>
+      </c>
+      <c r="AG240">
+        <v>7.5</v>
+      </c>
+      <c r="AH240">
+        <v>1.33</v>
+      </c>
+      <c r="AI240">
+        <v>3.2</v>
+      </c>
+      <c r="AJ240">
+        <v>1.96</v>
+      </c>
+      <c r="AK240">
+        <v>1.8</v>
+      </c>
+      <c r="AL240">
+        <v>1.83</v>
+      </c>
+      <c r="AM240">
+        <v>1.83</v>
+      </c>
+      <c r="AN240">
+        <v>1.75</v>
+      </c>
+      <c r="AO240">
+        <v>1.25</v>
+      </c>
+      <c r="AP240">
+        <v>1.28</v>
+      </c>
+      <c r="AQ240">
+        <v>1.45</v>
+      </c>
+      <c r="AR240">
+        <v>0.82</v>
+      </c>
+      <c r="AS240">
+        <v>1.33</v>
+      </c>
+      <c r="AT240">
+        <v>1</v>
+      </c>
+      <c r="AU240">
+        <v>1.37</v>
+      </c>
+      <c r="AV240">
+        <v>1.57</v>
+      </c>
+      <c r="AW240">
+        <v>2.94</v>
+      </c>
+      <c r="AX240">
+        <v>2.4</v>
+      </c>
+      <c r="AY240">
+        <v>8.5</v>
+      </c>
+      <c r="AZ240">
+        <v>1.7</v>
+      </c>
+      <c r="BA240">
+        <v>1.44</v>
+      </c>
+      <c r="BB240">
+        <v>1.73</v>
+      </c>
+      <c r="BC240">
+        <v>2.2</v>
+      </c>
+      <c r="BD240">
+        <v>3.15</v>
+      </c>
+      <c r="BE240">
+        <v>4.4</v>
+      </c>
+      <c r="BF240">
+        <v>6</v>
+      </c>
+      <c r="BG240">
+        <v>6</v>
+      </c>
+      <c r="BH240">
+        <v>2</v>
+      </c>
+      <c r="BI240">
+        <v>1</v>
+      </c>
+      <c r="BJ240">
+        <v>8</v>
+      </c>
+      <c r="BK240">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,21 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['29', '77']</t>
+  </si>
+  <si>
+    <t>['29', '67']</t>
+  </si>
+  <si>
+    <t>['2', '17', '38', '58', '90+2']</t>
+  </si>
+  <si>
+    <t>['72', '86', '90+3']</t>
+  </si>
+  <si>
+    <t>['51', '55']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -935,6 +950,15 @@
   </si>
   <si>
     <t>['34', '51']</t>
+  </si>
+  <si>
+    <t>['19', '42']</t>
+  </si>
+  <si>
+    <t>['25', '60']</t>
+  </si>
+  <si>
+    <t>['49', '72']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2009,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2304,7 +2328,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2394,7 +2418,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2686,7 +2710,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2776,7 +2800,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2964,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT9">
         <v>1.25</v>
@@ -3068,7 +3092,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3346,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT11">
         <v>1.46</v>
@@ -3537,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT12">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3641,7 +3665,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3728,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -3922,7 +3946,7 @@
         <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4023,7 +4047,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4113,7 +4137,7 @@
         <v>1.17</v>
       </c>
       <c r="AT15">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4304,7 +4328,7 @@
         <v>1.64</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4492,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT17">
         <v>1.42</v>
@@ -4683,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT18">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4874,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4978,7 +5002,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5065,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT20">
         <v>1.58</v>
@@ -5447,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT22">
         <v>1.46</v>
@@ -5641,7 +5665,7 @@
         <v>2.33</v>
       </c>
       <c r="AT23">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.12</v>
@@ -6020,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6402,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6506,7 +6530,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6697,7 +6721,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6787,7 +6811,7 @@
         <v>1.31</v>
       </c>
       <c r="AT29">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU29">
         <v>1.27</v>
@@ -6978,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU30">
         <v>1.26</v>
@@ -7079,7 +7103,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7270,7 +7294,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7357,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU32">
         <v>2.15</v>
@@ -7461,7 +7485,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7843,7 +7867,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7933,7 +7957,7 @@
         <v>1.31</v>
       </c>
       <c r="AT35">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -8034,7 +8058,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8124,7 +8148,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU36">
         <v>0.9</v>
@@ -8312,10 +8336,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT37">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8416,7 +8440,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8503,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT38">
         <v>1.5</v>
@@ -8798,7 +8822,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8885,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU40">
         <v>1</v>
@@ -9076,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -9180,7 +9204,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9267,10 +9291,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU42">
         <v>1.46</v>
@@ -9753,7 +9777,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9944,7 +9968,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10031,7 +10055,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10135,7 +10159,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10222,10 +10246,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT47">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10413,10 +10437,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48">
         <v>1.67</v>
@@ -10708,7 +10732,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10798,7 +10822,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -11180,7 +11204,7 @@
         <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11281,7 +11305,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11368,7 +11392,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT53">
         <v>1.42</v>
@@ -11472,7 +11496,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11559,7 +11583,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -11663,7 +11687,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11753,7 +11777,7 @@
         <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>1.65</v>
@@ -12045,7 +12069,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12236,7 +12260,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12323,10 +12347,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU58">
         <v>1.35</v>
@@ -12427,7 +12451,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12514,10 +12538,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT59">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU59">
         <v>1.87</v>
@@ -12705,10 +12729,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU60">
         <v>1.45</v>
@@ -12899,7 +12923,7 @@
         <v>2.08</v>
       </c>
       <c r="AT61">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.96</v>
@@ -13090,7 +13114,7 @@
         <v>2.33</v>
       </c>
       <c r="AT62">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13472,7 +13496,7 @@
         <v>1.77</v>
       </c>
       <c r="AT64">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13660,10 +13684,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65">
         <v>1.66</v>
@@ -13764,7 +13788,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13851,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT66">
         <v>1.17</v>
@@ -13955,7 +13979,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14042,10 +14066,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT67">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU67">
         <v>1.04</v>
@@ -14146,7 +14170,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14236,7 +14260,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU68">
         <v>1.56</v>
@@ -14337,7 +14361,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14424,7 +14448,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14528,7 +14552,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14806,7 +14830,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT71">
         <v>1.5</v>
@@ -14910,7 +14934,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15101,7 +15125,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15188,7 +15212,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT73">
         <v>1.46</v>
@@ -15570,7 +15594,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT75">
         <v>0.67</v>
@@ -15761,10 +15785,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT76">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.54</v>
@@ -15955,7 +15979,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>1.35</v>
@@ -16146,7 +16170,7 @@
         <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU78">
         <v>1.64</v>
@@ -16337,7 +16361,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -16438,7 +16462,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16525,7 +16549,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT80">
         <v>1.58</v>
@@ -16719,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.45</v>
@@ -16820,7 +16844,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16907,7 +16931,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -17011,7 +17035,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17202,7 +17226,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17289,10 +17313,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT84">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU84">
         <v>1.87</v>
@@ -17393,7 +17417,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17480,7 +17504,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT85">
         <v>1.17</v>
@@ -17671,10 +17695,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT86">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17865,7 +17889,7 @@
         <v>2.33</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU87">
         <v>1.52</v>
@@ -18056,7 +18080,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18539,7 +18563,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18626,7 +18650,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT91">
         <v>1.33</v>
@@ -18730,7 +18754,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18820,7 +18844,7 @@
         <v>2.08</v>
       </c>
       <c r="AT92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU92">
         <v>1.88</v>
@@ -19202,7 +19226,7 @@
         <v>1.31</v>
       </c>
       <c r="AT94">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19303,7 +19327,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19390,7 +19414,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
         <v>1.42</v>
@@ -19494,7 +19518,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19581,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT96">
         <v>1.25</v>
@@ -19775,7 +19799,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19963,10 +19987,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -20345,7 +20369,7 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
         <v>1.5</v>
@@ -20536,7 +20560,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT101">
         <v>1.17</v>
@@ -20831,7 +20855,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20918,10 +20942,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103">
         <v>1.5</v>
@@ -21112,7 +21136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU104">
         <v>1.86</v>
@@ -21303,7 +21327,7 @@
         <v>2.33</v>
       </c>
       <c r="AT105">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU105">
         <v>1.54</v>
@@ -21404,7 +21428,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21595,7 +21619,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21685,7 +21709,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21786,7 +21810,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21873,7 +21897,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT108">
         <v>1.17</v>
@@ -22064,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT109">
         <v>0.67</v>
@@ -22168,7 +22192,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22258,7 +22282,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU110">
         <v>1.45</v>
@@ -22446,7 +22470,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22550,7 +22574,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22637,7 +22661,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT112">
         <v>1.46</v>
@@ -22741,7 +22765,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23019,7 +23043,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT114">
         <v>1.42</v>
@@ -23123,7 +23147,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23213,7 +23237,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23401,10 +23425,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT116">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23592,10 +23616,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT117">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU117">
         <v>1.58</v>
@@ -23783,7 +23807,7 @@
         <v>2</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT118">
         <v>1.58</v>
@@ -23977,7 +24001,7 @@
         <v>1.31</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU119">
         <v>1.26</v>
@@ -24269,7 +24293,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24460,7 +24484,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24741,7 +24765,7 @@
         <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -24929,7 +24953,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT124">
         <v>1.17</v>
@@ -25120,7 +25144,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT125">
         <v>0.67</v>
@@ -25314,7 +25338,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU126">
         <v>1.53</v>
@@ -25415,7 +25439,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25502,10 +25526,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -25693,10 +25717,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT128">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU128">
         <v>1.53</v>
@@ -26078,7 +26102,7 @@
         <v>1.17</v>
       </c>
       <c r="AT130">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU130">
         <v>1.5</v>
@@ -26561,7 +26585,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -27033,7 +27057,7 @@
         <v>1.67</v>
       </c>
       <c r="AT135">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU135">
         <v>1.46</v>
@@ -27221,7 +27245,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT136">
         <v>1.33</v>
@@ -27412,10 +27436,10 @@
         <v>0.83</v>
       </c>
       <c r="AS137">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT137">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU137">
         <v>1.26</v>
@@ -27985,10 +28009,10 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT140">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU140">
         <v>1.59</v>
@@ -28089,7 +28113,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28176,7 +28200,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28280,7 +28304,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28367,7 +28391,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT142">
         <v>1.17</v>
@@ -28558,7 +28582,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT143">
         <v>0.67</v>
@@ -28749,10 +28773,10 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT144">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU144">
         <v>1.77</v>
@@ -28853,7 +28877,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -28940,7 +28964,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT145">
         <v>1.5</v>
@@ -29131,10 +29155,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT146">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU146">
         <v>1.3</v>
@@ -29325,7 +29349,7 @@
         <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>1.56</v>
@@ -29426,7 +29450,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29516,7 +29540,7 @@
         <v>1.64</v>
       </c>
       <c r="AT148">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29617,7 +29641,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29707,7 +29731,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU149">
         <v>1.29</v>
@@ -29898,7 +29922,7 @@
         <v>2.08</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150">
         <v>1.76</v>
@@ -30086,10 +30110,10 @@
         <v>2</v>
       </c>
       <c r="AS151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT151">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU151">
         <v>1.53</v>
@@ -31041,10 +31065,10 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT156">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31232,7 +31256,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT157">
         <v>1.17</v>
@@ -31423,7 +31447,7 @@
         <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT158">
         <v>1.25</v>
@@ -31527,7 +31551,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31808,7 +31832,7 @@
         <v>1.77</v>
       </c>
       <c r="AT160">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU160">
         <v>1.47</v>
@@ -31909,7 +31933,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -32291,7 +32315,7 @@
         <v>179</v>
       </c>
       <c r="P163" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32378,10 +32402,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT163">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32569,10 +32593,10 @@
         <v>0.71</v>
       </c>
       <c r="AS164">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT164">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU164">
         <v>1.32</v>
@@ -32954,7 +32978,7 @@
         <v>1.17</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.33</v>
@@ -33142,7 +33166,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT167">
         <v>1.5</v>
@@ -33333,10 +33357,10 @@
         <v>2.13</v>
       </c>
       <c r="AS168">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT168">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU168">
         <v>1.28</v>
@@ -33437,7 +33461,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -33524,7 +33548,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
         <v>1.25</v>
@@ -33718,7 +33742,7 @@
         <v>1.67</v>
       </c>
       <c r="AT170">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU170">
         <v>1.41</v>
@@ -33819,7 +33843,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33906,10 +33930,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT171">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU171">
         <v>1.47</v>
@@ -34010,7 +34034,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34392,7 +34416,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34583,7 +34607,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34673,7 +34697,7 @@
         <v>1.67</v>
       </c>
       <c r="AT175">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU175">
         <v>1.5</v>
@@ -34861,7 +34885,7 @@
         <v>1.25</v>
       </c>
       <c r="AS176">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT176">
         <v>1.17</v>
@@ -34965,7 +34989,7 @@
         <v>187</v>
       </c>
       <c r="P177" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35052,10 +35076,10 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT177">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU177">
         <v>1.23</v>
@@ -35243,10 +35267,10 @@
         <v>0.63</v>
       </c>
       <c r="AS178">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT178">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU178">
         <v>1.28</v>
@@ -35347,7 +35371,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35434,10 +35458,10 @@
         <v>1.13</v>
       </c>
       <c r="AS179">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU179">
         <v>1.3</v>
@@ -35538,7 +35562,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35920,7 +35944,7 @@
         <v>190</v>
       </c>
       <c r="P182" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36010,7 +36034,7 @@
         <v>2.33</v>
       </c>
       <c r="AT182">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU182">
         <v>1.53</v>
@@ -36201,7 +36225,7 @@
         <v>1.77</v>
       </c>
       <c r="AT183">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU183">
         <v>1.49</v>
@@ -36389,7 +36413,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT184">
         <v>1.17</v>
@@ -36493,7 +36517,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36771,10 +36795,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT186">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU186">
         <v>1.52</v>
@@ -36875,7 +36899,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -36962,7 +36986,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT187">
         <v>1.33</v>
@@ -37257,7 +37281,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37639,7 +37663,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37726,10 +37750,10 @@
         <v>0.78</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT191">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>1.77</v>
@@ -37830,7 +37854,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -37917,7 +37941,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT192">
         <v>1.42</v>
@@ -38212,7 +38236,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38299,7 +38323,7 @@
         <v>1.67</v>
       </c>
       <c r="AS194">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT194">
         <v>1.58</v>
@@ -38403,7 +38427,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38490,7 +38514,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT195">
         <v>1.5</v>
@@ -38681,10 +38705,10 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT196">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU196">
         <v>1.3</v>
@@ -38785,7 +38809,7 @@
         <v>142</v>
       </c>
       <c r="P197" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38875,7 +38899,7 @@
         <v>1.64</v>
       </c>
       <c r="AT197">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU197">
         <v>1.75</v>
@@ -38976,7 +39000,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39066,7 +39090,7 @@
         <v>1.17</v>
       </c>
       <c r="AT198">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39167,7 +39191,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39257,7 +39281,7 @@
         <v>1.33</v>
       </c>
       <c r="AT199">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39549,7 +39573,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39740,7 +39764,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39830,7 +39854,7 @@
         <v>2</v>
       </c>
       <c r="AT202">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU202">
         <v>1.67</v>
@@ -40018,7 +40042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS203">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT203">
         <v>1.17</v>
@@ -40209,7 +40233,7 @@
         <v>0.8</v>
       </c>
       <c r="AS204">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT204">
         <v>0.67</v>
@@ -40400,10 +40424,10 @@
         <v>0.9</v>
       </c>
       <c r="AS205">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT205">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU205">
         <v>1.28</v>
@@ -40591,10 +40615,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT206">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU206">
         <v>1.29</v>
@@ -40695,7 +40719,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -41077,7 +41101,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41164,10 +41188,10 @@
         <v>0.3</v>
       </c>
       <c r="AS209">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT209">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU209">
         <v>1.4</v>
@@ -41355,10 +41379,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU210">
         <v>1.51</v>
@@ -41549,7 +41573,7 @@
         <v>1.67</v>
       </c>
       <c r="AT211">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU211">
         <v>1.36</v>
@@ -41650,7 +41674,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42032,7 +42056,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42122,7 +42146,7 @@
         <v>2.08</v>
       </c>
       <c r="AT214">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU214">
         <v>1.78</v>
@@ -42313,7 +42337,7 @@
         <v>1.31</v>
       </c>
       <c r="AT215">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU215">
         <v>1.2</v>
@@ -42414,7 +42438,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42883,7 +42907,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT218">
         <v>1.17</v>
@@ -42987,7 +43011,7 @@
         <v>172</v>
       </c>
       <c r="P219" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q219">
         <v>5</v>
@@ -43074,7 +43098,7 @@
         <v>1.3</v>
       </c>
       <c r="AS219">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT219">
         <v>1.42</v>
@@ -43178,7 +43202,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43265,10 +43289,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT220">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU220">
         <v>1.68</v>
@@ -43369,7 +43393,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43647,10 +43671,10 @@
         <v>0.5</v>
       </c>
       <c r="AS222">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT222">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -43751,7 +43775,7 @@
         <v>216</v>
       </c>
       <c r="P223" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -43838,10 +43862,10 @@
         <v>0.55</v>
       </c>
       <c r="AS223">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT223">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU223">
         <v>1.24</v>
@@ -43942,7 +43966,7 @@
         <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44029,10 +44053,10 @@
         <v>2</v>
       </c>
       <c r="AS224">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT224">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU224">
         <v>1.73</v>
@@ -44223,7 +44247,7 @@
         <v>1.77</v>
       </c>
       <c r="AT225">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44411,7 +44435,7 @@
         <v>0.73</v>
       </c>
       <c r="AS226">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT226">
         <v>0.67</v>
@@ -44706,7 +44730,7 @@
         <v>178</v>
       </c>
       <c r="P228" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q228">
         <v>6</v>
@@ -44793,10 +44817,10 @@
         <v>1.09</v>
       </c>
       <c r="AS228">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT228">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU228">
         <v>1.3</v>
@@ -44984,10 +45008,10 @@
         <v>1</v>
       </c>
       <c r="AS229">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU229">
         <v>1.52</v>
@@ -45175,10 +45199,10 @@
         <v>0.91</v>
       </c>
       <c r="AS230">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT230">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU230">
         <v>1.56</v>
@@ -45470,7 +45494,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -46321,7 +46345,7 @@
         <v>1.18</v>
       </c>
       <c r="AS236">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT236">
         <v>1.17</v>
@@ -46425,7 +46449,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -46897,7 +46921,7 @@
         <v>2.33</v>
       </c>
       <c r="AT239">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU239">
         <v>1.52</v>
@@ -46998,7 +47022,7 @@
         <v>222</v>
       </c>
       <c r="P240" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q240">
         <v>9</v>
@@ -47140,6 +47164,1725 @@
       </c>
       <c r="BK240">
         <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2468555</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F241">
+        <v>25</v>
+      </c>
+      <c r="G241" t="s">
+        <v>80</v>
+      </c>
+      <c r="H241" t="s">
+        <v>68</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" t="s">
+        <v>86</v>
+      </c>
+      <c r="P241" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>4</v>
+      </c>
+      <c r="U241">
+        <v>1.85</v>
+      </c>
+      <c r="V241">
+        <v>3.1</v>
+      </c>
+      <c r="W241">
+        <v>1.62</v>
+      </c>
+      <c r="X241">
+        <v>2.15</v>
+      </c>
+      <c r="Y241">
+        <v>3.8</v>
+      </c>
+      <c r="Z241">
+        <v>1.23</v>
+      </c>
+      <c r="AA241">
+        <v>13</v>
+      </c>
+      <c r="AB241">
+        <v>1.03</v>
+      </c>
+      <c r="AC241">
+        <v>3</v>
+      </c>
+      <c r="AD241">
+        <v>2.75</v>
+      </c>
+      <c r="AE241">
+        <v>2.35</v>
+      </c>
+      <c r="AF241">
+        <v>1.12</v>
+      </c>
+      <c r="AG241">
+        <v>6</v>
+      </c>
+      <c r="AH241">
+        <v>1.53</v>
+      </c>
+      <c r="AI241">
+        <v>2.25</v>
+      </c>
+      <c r="AJ241">
+        <v>2.85</v>
+      </c>
+      <c r="AK241">
+        <v>1.37</v>
+      </c>
+      <c r="AL241">
+        <v>2.3</v>
+      </c>
+      <c r="AM241">
+        <v>1.57</v>
+      </c>
+      <c r="AN241">
+        <v>1.58</v>
+      </c>
+      <c r="AO241">
+        <v>1.4</v>
+      </c>
+      <c r="AP241">
+        <v>1.35</v>
+      </c>
+      <c r="AQ241">
+        <v>1.75</v>
+      </c>
+      <c r="AR241">
+        <v>1.92</v>
+      </c>
+      <c r="AS241">
+        <v>1.69</v>
+      </c>
+      <c r="AT241">
+        <v>1.85</v>
+      </c>
+      <c r="AU241">
+        <v>1.39</v>
+      </c>
+      <c r="AV241">
+        <v>1.27</v>
+      </c>
+      <c r="AW241">
+        <v>2.66</v>
+      </c>
+      <c r="AX241">
+        <v>2.2</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>1.83</v>
+      </c>
+      <c r="BA241">
+        <v>1.48</v>
+      </c>
+      <c r="BB241">
+        <v>1.95</v>
+      </c>
+      <c r="BC241">
+        <v>2.5</v>
+      </c>
+      <c r="BD241">
+        <v>3.5</v>
+      </c>
+      <c r="BE241">
+        <v>5.1</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>2</v>
+      </c>
+      <c r="BH241">
+        <v>4</v>
+      </c>
+      <c r="BI241">
+        <v>4</v>
+      </c>
+      <c r="BJ241">
+        <v>4</v>
+      </c>
+      <c r="BK241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2468556</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>67</v>
+      </c>
+      <c r="H242" t="s">
+        <v>84</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>115</v>
+      </c>
+      <c r="P242" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q242">
+        <v>2</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>4</v>
+      </c>
+      <c r="T242">
+        <v>3.54</v>
+      </c>
+      <c r="U242">
+        <v>1.94</v>
+      </c>
+      <c r="V242">
+        <v>3.38</v>
+      </c>
+      <c r="W242">
+        <v>1.52</v>
+      </c>
+      <c r="X242">
+        <v>2.39</v>
+      </c>
+      <c r="Y242">
+        <v>3.4</v>
+      </c>
+      <c r="Z242">
+        <v>1.28</v>
+      </c>
+      <c r="AA242">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB242">
+        <v>1.04</v>
+      </c>
+      <c r="AC242">
+        <v>2.6</v>
+      </c>
+      <c r="AD242">
+        <v>2.85</v>
+      </c>
+      <c r="AE242">
+        <v>2.55</v>
+      </c>
+      <c r="AF242">
+        <v>1.06</v>
+      </c>
+      <c r="AG242">
+        <v>7</v>
+      </c>
+      <c r="AH242">
+        <v>1.44</v>
+      </c>
+      <c r="AI242">
+        <v>2.7</v>
+      </c>
+      <c r="AJ242">
+        <v>2.35</v>
+      </c>
+      <c r="AK242">
+        <v>1.5</v>
+      </c>
+      <c r="AL242">
+        <v>1.95</v>
+      </c>
+      <c r="AM242">
+        <v>1.8</v>
+      </c>
+      <c r="AN242">
+        <v>1.47</v>
+      </c>
+      <c r="AO242">
+        <v>1.3</v>
+      </c>
+      <c r="AP242">
+        <v>1.42</v>
+      </c>
+      <c r="AQ242">
+        <v>1</v>
+      </c>
+      <c r="AR242">
+        <v>0.92</v>
+      </c>
+      <c r="AS242">
+        <v>0.92</v>
+      </c>
+      <c r="AT242">
+        <v>1.08</v>
+      </c>
+      <c r="AU242">
+        <v>1.44</v>
+      </c>
+      <c r="AV242">
+        <v>1.28</v>
+      </c>
+      <c r="AW242">
+        <v>2.72</v>
+      </c>
+      <c r="AX242">
+        <v>1.91</v>
+      </c>
+      <c r="AY242">
+        <v>8</v>
+      </c>
+      <c r="AZ242">
+        <v>2.1</v>
+      </c>
+      <c r="BA242">
+        <v>1.48</v>
+      </c>
+      <c r="BB242">
+        <v>1.85</v>
+      </c>
+      <c r="BC242">
+        <v>2.5</v>
+      </c>
+      <c r="BD242">
+        <v>3.5</v>
+      </c>
+      <c r="BE242">
+        <v>5.1</v>
+      </c>
+      <c r="BF242">
+        <v>3</v>
+      </c>
+      <c r="BG242">
+        <v>3</v>
+      </c>
+      <c r="BH242">
+        <v>7</v>
+      </c>
+      <c r="BI242">
+        <v>1</v>
+      </c>
+      <c r="BJ242">
+        <v>10</v>
+      </c>
+      <c r="BK242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2468548</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>75</v>
+      </c>
+      <c r="H243" t="s">
+        <v>77</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>223</v>
+      </c>
+      <c r="P243" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q243">
+        <v>5</v>
+      </c>
+      <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>6</v>
+      </c>
+      <c r="T243">
+        <v>2.2</v>
+      </c>
+      <c r="U243">
+        <v>2.2</v>
+      </c>
+      <c r="V243">
+        <v>5.65</v>
+      </c>
+      <c r="W243">
+        <v>1.4</v>
+      </c>
+      <c r="X243">
+        <v>2.83</v>
+      </c>
+      <c r="Y243">
+        <v>2.88</v>
+      </c>
+      <c r="Z243">
+        <v>1.39</v>
+      </c>
+      <c r="AA243">
+        <v>7.3</v>
+      </c>
+      <c r="AB243">
+        <v>1.08</v>
+      </c>
+      <c r="AC243">
+        <v>1.57</v>
+      </c>
+      <c r="AD243">
+        <v>3.45</v>
+      </c>
+      <c r="AE243">
+        <v>5.25</v>
+      </c>
+      <c r="AF243">
+        <v>1.02</v>
+      </c>
+      <c r="AG243">
+        <v>9.5</v>
+      </c>
+      <c r="AH243">
+        <v>1.3</v>
+      </c>
+      <c r="AI243">
+        <v>3.3</v>
+      </c>
+      <c r="AJ243">
+        <v>1.9</v>
+      </c>
+      <c r="AK243">
+        <v>1.75</v>
+      </c>
+      <c r="AL243">
+        <v>1.95</v>
+      </c>
+      <c r="AM243">
+        <v>1.75</v>
+      </c>
+      <c r="AN243">
+        <v>1.13</v>
+      </c>
+      <c r="AO243">
+        <v>1.28</v>
+      </c>
+      <c r="AP243">
+        <v>2.2</v>
+      </c>
+      <c r="AQ243">
+        <v>1.5</v>
+      </c>
+      <c r="AR243">
+        <v>1.08</v>
+      </c>
+      <c r="AS243">
+        <v>1.62</v>
+      </c>
+      <c r="AT243">
+        <v>1</v>
+      </c>
+      <c r="AU243">
+        <v>1.65</v>
+      </c>
+      <c r="AV243">
+        <v>1.19</v>
+      </c>
+      <c r="AW243">
+        <v>2.84</v>
+      </c>
+      <c r="AX243">
+        <v>1.44</v>
+      </c>
+      <c r="AY243">
+        <v>9</v>
+      </c>
+      <c r="AZ243">
+        <v>3.1</v>
+      </c>
+      <c r="BA243">
+        <v>1.36</v>
+      </c>
+      <c r="BB243">
+        <v>1.67</v>
+      </c>
+      <c r="BC243">
+        <v>2.15</v>
+      </c>
+      <c r="BD243">
+        <v>2.95</v>
+      </c>
+      <c r="BE243">
+        <v>4.1</v>
+      </c>
+      <c r="BF243">
+        <v>9</v>
+      </c>
+      <c r="BG243">
+        <v>2</v>
+      </c>
+      <c r="BH243">
+        <v>9</v>
+      </c>
+      <c r="BI243">
+        <v>5</v>
+      </c>
+      <c r="BJ243">
+        <v>18</v>
+      </c>
+      <c r="BK243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2468549</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>72</v>
+      </c>
+      <c r="H244" t="s">
+        <v>69</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>224</v>
+      </c>
+      <c r="P244" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q244">
+        <v>6</v>
+      </c>
+      <c r="R244">
+        <v>1</v>
+      </c>
+      <c r="S244">
+        <v>7</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
+        <v>2.05</v>
+      </c>
+      <c r="V244">
+        <v>5.25</v>
+      </c>
+      <c r="W244">
+        <v>1.45</v>
+      </c>
+      <c r="X244">
+        <v>2.66</v>
+      </c>
+      <c r="Y244">
+        <v>3.1</v>
+      </c>
+      <c r="Z244">
+        <v>1.34</v>
+      </c>
+      <c r="AA244">
+        <v>8.1</v>
+      </c>
+      <c r="AB244">
+        <v>1.06</v>
+      </c>
+      <c r="AC244">
+        <v>1.62</v>
+      </c>
+      <c r="AD244">
+        <v>3.35</v>
+      </c>
+      <c r="AE244">
+        <v>4.85</v>
+      </c>
+      <c r="AF244">
+        <v>1.03</v>
+      </c>
+      <c r="AG244">
+        <v>8.5</v>
+      </c>
+      <c r="AH244">
+        <v>1.36</v>
+      </c>
+      <c r="AI244">
+        <v>3</v>
+      </c>
+      <c r="AJ244">
+        <v>2.05</v>
+      </c>
+      <c r="AK244">
+        <v>1.61</v>
+      </c>
+      <c r="AL244">
+        <v>2.05</v>
+      </c>
+      <c r="AM244">
+        <v>1.66</v>
+      </c>
+      <c r="AN244">
+        <v>1.12</v>
+      </c>
+      <c r="AO244">
+        <v>1.29</v>
+      </c>
+      <c r="AP244">
+        <v>2.15</v>
+      </c>
+      <c r="AQ244">
+        <v>1.67</v>
+      </c>
+      <c r="AR244">
+        <v>0.58</v>
+      </c>
+      <c r="AS244">
+        <v>1.77</v>
+      </c>
+      <c r="AT244">
+        <v>0.54</v>
+      </c>
+      <c r="AU244">
+        <v>1.57</v>
+      </c>
+      <c r="AV244">
+        <v>1.33</v>
+      </c>
+      <c r="AW244">
+        <v>2.9</v>
+      </c>
+      <c r="AX244">
+        <v>1.44</v>
+      </c>
+      <c r="AY244">
+        <v>9</v>
+      </c>
+      <c r="AZ244">
+        <v>3.1</v>
+      </c>
+      <c r="BA244">
+        <v>1.36</v>
+      </c>
+      <c r="BB244">
+        <v>1.67</v>
+      </c>
+      <c r="BC244">
+        <v>2.15</v>
+      </c>
+      <c r="BD244">
+        <v>2.95</v>
+      </c>
+      <c r="BE244">
+        <v>4.1</v>
+      </c>
+      <c r="BF244">
+        <v>5</v>
+      </c>
+      <c r="BG244">
+        <v>3</v>
+      </c>
+      <c r="BH244">
+        <v>8</v>
+      </c>
+      <c r="BI244">
+        <v>2</v>
+      </c>
+      <c r="BJ244">
+        <v>13</v>
+      </c>
+      <c r="BK244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2468550</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s">
+        <v>66</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>86</v>
+      </c>
+      <c r="P245" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q245">
+        <v>3</v>
+      </c>
+      <c r="R245">
+        <v>3</v>
+      </c>
+      <c r="S245">
+        <v>6</v>
+      </c>
+      <c r="T245">
+        <v>3.72</v>
+      </c>
+      <c r="U245">
+        <v>1.86</v>
+      </c>
+      <c r="V245">
+        <v>3.5</v>
+      </c>
+      <c r="W245">
+        <v>1.52</v>
+      </c>
+      <c r="X245">
+        <v>2.39</v>
+      </c>
+      <c r="Y245">
+        <v>3.45</v>
+      </c>
+      <c r="Z245">
+        <v>1.27</v>
+      </c>
+      <c r="AA245">
+        <v>9.4</v>
+      </c>
+      <c r="AB245">
+        <v>1.03</v>
+      </c>
+      <c r="AC245">
+        <v>2.5</v>
+      </c>
+      <c r="AD245">
+        <v>2.85</v>
+      </c>
+      <c r="AE245">
+        <v>2.7</v>
+      </c>
+      <c r="AF245">
+        <v>1.08</v>
+      </c>
+      <c r="AG245">
+        <v>6.2</v>
+      </c>
+      <c r="AH245">
+        <v>1.45</v>
+      </c>
+      <c r="AI245">
+        <v>2.65</v>
+      </c>
+      <c r="AJ245">
+        <v>2.35</v>
+      </c>
+      <c r="AK245">
+        <v>1.5</v>
+      </c>
+      <c r="AL245">
+        <v>2.05</v>
+      </c>
+      <c r="AM245">
+        <v>1.68</v>
+      </c>
+      <c r="AN245">
+        <v>1.44</v>
+      </c>
+      <c r="AO245">
+        <v>1.36</v>
+      </c>
+      <c r="AP245">
+        <v>1.43</v>
+      </c>
+      <c r="AQ245">
+        <v>1.42</v>
+      </c>
+      <c r="AR245">
+        <v>1.25</v>
+      </c>
+      <c r="AS245">
+        <v>1.31</v>
+      </c>
+      <c r="AT245">
+        <v>1.38</v>
+      </c>
+      <c r="AU245">
+        <v>1.5</v>
+      </c>
+      <c r="AV245">
+        <v>1.06</v>
+      </c>
+      <c r="AW245">
+        <v>2.56</v>
+      </c>
+      <c r="AX245">
+        <v>1.95</v>
+      </c>
+      <c r="AY245">
+        <v>8</v>
+      </c>
+      <c r="AZ245">
+        <v>2.05</v>
+      </c>
+      <c r="BA245">
+        <v>1.5</v>
+      </c>
+      <c r="BB245">
+        <v>2</v>
+      </c>
+      <c r="BC245">
+        <v>2.6</v>
+      </c>
+      <c r="BD245">
+        <v>3.65</v>
+      </c>
+      <c r="BE245">
+        <v>5.3</v>
+      </c>
+      <c r="BF245">
+        <v>2</v>
+      </c>
+      <c r="BG245">
+        <v>6</v>
+      </c>
+      <c r="BH245">
+        <v>6</v>
+      </c>
+      <c r="BI245">
+        <v>6</v>
+      </c>
+      <c r="BJ245">
+        <v>8</v>
+      </c>
+      <c r="BK245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2468551</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>74</v>
+      </c>
+      <c r="H246" t="s">
+        <v>71</v>
+      </c>
+      <c r="I246">
+        <v>3</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>5</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>6</v>
+      </c>
+      <c r="O246" t="s">
+        <v>225</v>
+      </c>
+      <c r="P246" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>2</v>
+      </c>
+      <c r="S246">
+        <v>4</v>
+      </c>
+      <c r="T246">
+        <v>2.15</v>
+      </c>
+      <c r="U246">
+        <v>2.15</v>
+      </c>
+      <c r="V246">
+        <v>5.25</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>2.83</v>
+      </c>
+      <c r="Y246">
+        <v>2.88</v>
+      </c>
+      <c r="Z246">
+        <v>1.39</v>
+      </c>
+      <c r="AA246">
+        <v>7.3</v>
+      </c>
+      <c r="AB246">
+        <v>1.08</v>
+      </c>
+      <c r="AC246">
+        <v>1.57</v>
+      </c>
+      <c r="AD246">
+        <v>3.5</v>
+      </c>
+      <c r="AE246">
+        <v>4.95</v>
+      </c>
+      <c r="AF246">
+        <v>1.06</v>
+      </c>
+      <c r="AG246">
+        <v>8</v>
+      </c>
+      <c r="AH246">
+        <v>1.3</v>
+      </c>
+      <c r="AI246">
+        <v>3.4</v>
+      </c>
+      <c r="AJ246">
+        <v>1.83</v>
+      </c>
+      <c r="AK246">
+        <v>1.83</v>
+      </c>
+      <c r="AL246">
+        <v>1.93</v>
+      </c>
+      <c r="AM246">
+        <v>1.75</v>
+      </c>
+      <c r="AN246">
+        <v>1.12</v>
+      </c>
+      <c r="AO246">
+        <v>1.25</v>
+      </c>
+      <c r="AP246">
+        <v>2.25</v>
+      </c>
+      <c r="AQ246">
+        <v>2</v>
+      </c>
+      <c r="AR246">
+        <v>1</v>
+      </c>
+      <c r="AS246">
+        <v>2.08</v>
+      </c>
+      <c r="AT246">
+        <v>0.92</v>
+      </c>
+      <c r="AU246">
+        <v>1.75</v>
+      </c>
+      <c r="AV246">
+        <v>1.14</v>
+      </c>
+      <c r="AW246">
+        <v>2.89</v>
+      </c>
+      <c r="AX246">
+        <v>1.5</v>
+      </c>
+      <c r="AY246">
+        <v>8.5</v>
+      </c>
+      <c r="AZ246">
+        <v>3</v>
+      </c>
+      <c r="BA246">
+        <v>1.5</v>
+      </c>
+      <c r="BB246">
+        <v>2</v>
+      </c>
+      <c r="BC246">
+        <v>2.6</v>
+      </c>
+      <c r="BD246">
+        <v>3.65</v>
+      </c>
+      <c r="BE246">
+        <v>5.3</v>
+      </c>
+      <c r="BF246">
+        <v>8</v>
+      </c>
+      <c r="BG246">
+        <v>3</v>
+      </c>
+      <c r="BH246">
+        <v>3</v>
+      </c>
+      <c r="BI246">
+        <v>5</v>
+      </c>
+      <c r="BJ246">
+        <v>11</v>
+      </c>
+      <c r="BK246">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2468552</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>82</v>
+      </c>
+      <c r="H247" t="s">
+        <v>78</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247" t="s">
+        <v>226</v>
+      </c>
+      <c r="P247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q247">
+        <v>5</v>
+      </c>
+      <c r="R247">
+        <v>4</v>
+      </c>
+      <c r="S247">
+        <v>9</v>
+      </c>
+      <c r="T247">
+        <v>2.45</v>
+      </c>
+      <c r="U247">
+        <v>1.98</v>
+      </c>
+      <c r="V247">
+        <v>4.75</v>
+      </c>
+      <c r="W247">
+        <v>1.47</v>
+      </c>
+      <c r="X247">
+        <v>2.5</v>
+      </c>
+      <c r="Y247">
+        <v>3.25</v>
+      </c>
+      <c r="Z247">
+        <v>1.3</v>
+      </c>
+      <c r="AA247">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB247">
+        <v>1.04</v>
+      </c>
+      <c r="AC247">
+        <v>1.8</v>
+      </c>
+      <c r="AD247">
+        <v>3.15</v>
+      </c>
+      <c r="AE247">
+        <v>4.05</v>
+      </c>
+      <c r="AF247">
+        <v>1.05</v>
+      </c>
+      <c r="AG247">
+        <v>7.5</v>
+      </c>
+      <c r="AH247">
+        <v>1.4</v>
+      </c>
+      <c r="AI247">
+        <v>2.85</v>
+      </c>
+      <c r="AJ247">
+        <v>2.2</v>
+      </c>
+      <c r="AK247">
+        <v>1.57</v>
+      </c>
+      <c r="AL247">
+        <v>2.05</v>
+      </c>
+      <c r="AM247">
+        <v>1.68</v>
+      </c>
+      <c r="AN247">
+        <v>1.2</v>
+      </c>
+      <c r="AO247">
+        <v>1.31</v>
+      </c>
+      <c r="AP247">
+        <v>1.9</v>
+      </c>
+      <c r="AQ247">
+        <v>0.9</v>
+      </c>
+      <c r="AR247">
+        <v>0.75</v>
+      </c>
+      <c r="AS247">
+        <v>1.09</v>
+      </c>
+      <c r="AT247">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU247">
+        <v>1.37</v>
+      </c>
+      <c r="AV247">
+        <v>1.14</v>
+      </c>
+      <c r="AW247">
+        <v>2.51</v>
+      </c>
+      <c r="AX247">
+        <v>1.5</v>
+      </c>
+      <c r="AY247">
+        <v>9</v>
+      </c>
+      <c r="AZ247">
+        <v>2.9</v>
+      </c>
+      <c r="BA247">
+        <v>1.4</v>
+      </c>
+      <c r="BB247">
+        <v>1.74</v>
+      </c>
+      <c r="BC247">
+        <v>2.28</v>
+      </c>
+      <c r="BD247">
+        <v>3.1</v>
+      </c>
+      <c r="BE247">
+        <v>4.4</v>
+      </c>
+      <c r="BF247">
+        <v>9</v>
+      </c>
+      <c r="BG247">
+        <v>3</v>
+      </c>
+      <c r="BH247">
+        <v>5</v>
+      </c>
+      <c r="BI247">
+        <v>4</v>
+      </c>
+      <c r="BJ247">
+        <v>14</v>
+      </c>
+      <c r="BK247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2468553</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>76</v>
+      </c>
+      <c r="H248" t="s">
+        <v>73</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>86</v>
+      </c>
+      <c r="P248" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q248">
+        <v>3</v>
+      </c>
+      <c r="R248">
+        <v>4</v>
+      </c>
+      <c r="S248">
+        <v>7</v>
+      </c>
+      <c r="T248">
+        <v>3.5</v>
+      </c>
+      <c r="U248">
+        <v>1.85</v>
+      </c>
+      <c r="V248">
+        <v>3.3</v>
+      </c>
+      <c r="W248">
+        <v>1.55</v>
+      </c>
+      <c r="X248">
+        <v>2.32</v>
+      </c>
+      <c r="Y248">
+        <v>3.7</v>
+      </c>
+      <c r="Z248">
+        <v>1.24</v>
+      </c>
+      <c r="AA248">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB248">
+        <v>1.03</v>
+      </c>
+      <c r="AC248">
+        <v>2.65</v>
+      </c>
+      <c r="AD248">
+        <v>2.8</v>
+      </c>
+      <c r="AE248">
+        <v>2.55</v>
+      </c>
+      <c r="AF248">
+        <v>1.09</v>
+      </c>
+      <c r="AG248">
+        <v>7</v>
+      </c>
+      <c r="AH248">
+        <v>1.5</v>
+      </c>
+      <c r="AI248">
+        <v>2.35</v>
+      </c>
+      <c r="AJ248">
+        <v>2.52</v>
+      </c>
+      <c r="AK248">
+        <v>1.46</v>
+      </c>
+      <c r="AL248">
+        <v>2.15</v>
+      </c>
+      <c r="AM248">
+        <v>1.62</v>
+      </c>
+      <c r="AN248">
+        <v>1.46</v>
+      </c>
+      <c r="AO248">
+        <v>1.36</v>
+      </c>
+      <c r="AP248">
+        <v>1.41</v>
+      </c>
+      <c r="AQ248">
+        <v>0.67</v>
+      </c>
+      <c r="AR248">
+        <v>1.09</v>
+      </c>
+      <c r="AS248">
+        <v>0.62</v>
+      </c>
+      <c r="AT248">
+        <v>1.25</v>
+      </c>
+      <c r="AU248">
+        <v>1.22</v>
+      </c>
+      <c r="AV248">
+        <v>1.3</v>
+      </c>
+      <c r="AW248">
+        <v>2.52</v>
+      </c>
+      <c r="AX248">
+        <v>1.85</v>
+      </c>
+      <c r="AY248">
+        <v>8</v>
+      </c>
+      <c r="AZ248">
+        <v>2.15</v>
+      </c>
+      <c r="BA248">
+        <v>1.36</v>
+      </c>
+      <c r="BB248">
+        <v>1.67</v>
+      </c>
+      <c r="BC248">
+        <v>2.15</v>
+      </c>
+      <c r="BD248">
+        <v>2.95</v>
+      </c>
+      <c r="BE248">
+        <v>4.1</v>
+      </c>
+      <c r="BF248">
+        <v>6</v>
+      </c>
+      <c r="BG248">
+        <v>5</v>
+      </c>
+      <c r="BH248">
+        <v>3</v>
+      </c>
+      <c r="BI248">
+        <v>7</v>
+      </c>
+      <c r="BJ248">
+        <v>9</v>
+      </c>
+      <c r="BK248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2468554</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" t="s">
+        <v>65</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249" t="s">
+        <v>227</v>
+      </c>
+      <c r="P249" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q249">
+        <v>3</v>
+      </c>
+      <c r="R249">
+        <v>5</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>3.4</v>
+      </c>
+      <c r="U249">
+        <v>1.85</v>
+      </c>
+      <c r="V249">
+        <v>3.75</v>
+      </c>
+      <c r="W249">
+        <v>1.54</v>
+      </c>
+      <c r="X249">
+        <v>2.34</v>
+      </c>
+      <c r="Y249">
+        <v>3.45</v>
+      </c>
+      <c r="Z249">
+        <v>1.27</v>
+      </c>
+      <c r="AA249">
+        <v>9.4</v>
+      </c>
+      <c r="AB249">
+        <v>1.03</v>
+      </c>
+      <c r="AC249">
+        <v>2.6</v>
+      </c>
+      <c r="AD249">
+        <v>2.75</v>
+      </c>
+      <c r="AE249">
+        <v>2.65</v>
+      </c>
+      <c r="AF249">
+        <v>1.1</v>
+      </c>
+      <c r="AG249">
+        <v>7</v>
+      </c>
+      <c r="AH249">
+        <v>1.44</v>
+      </c>
+      <c r="AI249">
+        <v>2.4</v>
+      </c>
+      <c r="AJ249">
+        <v>2.47</v>
+      </c>
+      <c r="AK249">
+        <v>1.48</v>
+      </c>
+      <c r="AL249">
+        <v>2.05</v>
+      </c>
+      <c r="AM249">
+        <v>1.66</v>
+      </c>
+      <c r="AN249">
+        <v>1.43</v>
+      </c>
+      <c r="AO249">
+        <v>1.35</v>
+      </c>
+      <c r="AP249">
+        <v>1.46</v>
+      </c>
+      <c r="AQ249">
+        <v>1.83</v>
+      </c>
+      <c r="AR249">
+        <v>0.45</v>
+      </c>
+      <c r="AS249">
+        <v>1.77</v>
+      </c>
+      <c r="AT249">
+        <v>0.5</v>
+      </c>
+      <c r="AU249">
+        <v>1.3</v>
+      </c>
+      <c r="AV249">
+        <v>1.21</v>
+      </c>
+      <c r="AW249">
+        <v>2.51</v>
+      </c>
+      <c r="AX249">
+        <v>1.8</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>2.25</v>
+      </c>
+      <c r="BA249">
+        <v>1.4</v>
+      </c>
+      <c r="BB249">
+        <v>1.74</v>
+      </c>
+      <c r="BC249">
+        <v>2.28</v>
+      </c>
+      <c r="BD249">
+        <v>3.1</v>
+      </c>
+      <c r="BE249">
+        <v>4.5</v>
+      </c>
+      <c r="BF249">
+        <v>6</v>
+      </c>
+      <c r="BG249">
+        <v>5</v>
+      </c>
+      <c r="BH249">
+        <v>7</v>
+      </c>
+      <c r="BI249">
+        <v>5</v>
+      </c>
+      <c r="BJ249">
+        <v>13</v>
+      </c>
+      <c r="BK249">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['51', '55']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -734,9 +737,6 @@
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['21', '24', '35']</t>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>['49', '72']</t>
+  </si>
+  <si>
+    <t>['79', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,7 +2331,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2710,7 +2713,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3092,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3665,7 +3668,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3755,7 +3758,7 @@
         <v>0.62</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4047,7 +4050,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4325,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>0.92</v>
@@ -5002,7 +5005,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -6530,7 +6533,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6721,7 +6724,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7103,7 +7106,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7294,7 +7297,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7485,7 +7488,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7867,7 +7870,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8058,7 +8061,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8145,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
         <v>1.25</v>
@@ -9103,7 +9106,7 @@
         <v>1.69</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -12156,7 +12159,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
         <v>1.46</v>
@@ -13302,7 +13305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>1.33</v>
@@ -14451,7 +14454,7 @@
         <v>1.09</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU69">
         <v>1.45</v>
@@ -14833,7 +14836,7 @@
         <v>1.62</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU71">
         <v>1.47</v>
@@ -18077,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
         <v>0.6899999999999999</v>
@@ -20372,7 +20375,7 @@
         <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -21706,7 +21709,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
         <v>0.5</v>
@@ -24293,7 +24296,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24383,7 +24386,7 @@
         <v>1.77</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24571,7 +24574,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -26484,7 +26487,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU132">
         <v>1.4</v>
@@ -29537,7 +29540,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT148">
         <v>1.38</v>
@@ -30495,7 +30498,7 @@
         <v>2.33</v>
       </c>
       <c r="AT153">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -32315,7 +32318,7 @@
         <v>179</v>
       </c>
       <c r="P163" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34124,7 +34127,7 @@
         <v>2.08</v>
       </c>
       <c r="AT172">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -35649,7 +35652,7 @@
         <v>1.75</v>
       </c>
       <c r="AS180">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
         <v>1.58</v>
@@ -38896,7 +38899,7 @@
         <v>2</v>
       </c>
       <c r="AS197">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT197">
         <v>1.85</v>
@@ -39663,7 +39666,7 @@
         <v>1.31</v>
       </c>
       <c r="AT201">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU201">
         <v>1.19</v>
@@ -41764,7 +41767,7 @@
         <v>1.17</v>
       </c>
       <c r="AT212">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU212">
         <v>1.55</v>
@@ -43480,7 +43483,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
         <v>1.5</v>
@@ -44629,7 +44632,7 @@
         <v>1.17</v>
       </c>
       <c r="AT227">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU227">
         <v>1.34</v>
@@ -48883,6 +48886,197 @@
       </c>
       <c r="BK249">
         <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>3168631</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44984.69791666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>79</v>
+      </c>
+      <c r="H250" t="s">
+        <v>70</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>228</v>
+      </c>
+      <c r="P250" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>6</v>
+      </c>
+      <c r="T250">
+        <v>3.4</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>3.2</v>
+      </c>
+      <c r="W250">
+        <v>1.49</v>
+      </c>
+      <c r="X250">
+        <v>2.52</v>
+      </c>
+      <c r="Y250">
+        <v>3.16</v>
+      </c>
+      <c r="Z250">
+        <v>1.33</v>
+      </c>
+      <c r="AA250">
+        <v>8.4</v>
+      </c>
+      <c r="AB250">
+        <v>1.05</v>
+      </c>
+      <c r="AC250">
+        <v>2.55</v>
+      </c>
+      <c r="AD250">
+        <v>3.4</v>
+      </c>
+      <c r="AE250">
+        <v>2.6</v>
+      </c>
+      <c r="AF250">
+        <v>1.05</v>
+      </c>
+      <c r="AG250">
+        <v>7.3</v>
+      </c>
+      <c r="AH250">
+        <v>1.36</v>
+      </c>
+      <c r="AI250">
+        <v>2.82</v>
+      </c>
+      <c r="AJ250">
+        <v>2.3</v>
+      </c>
+      <c r="AK250">
+        <v>1.55</v>
+      </c>
+      <c r="AL250">
+        <v>1.88</v>
+      </c>
+      <c r="AM250">
+        <v>1.8</v>
+      </c>
+      <c r="AN250">
+        <v>1.49</v>
+      </c>
+      <c r="AO250">
+        <v>1.33</v>
+      </c>
+      <c r="AP250">
+        <v>1.42</v>
+      </c>
+      <c r="AQ250">
+        <v>1.64</v>
+      </c>
+      <c r="AR250">
+        <v>1.5</v>
+      </c>
+      <c r="AS250">
+        <v>1.5</v>
+      </c>
+      <c r="AT250">
+        <v>1.62</v>
+      </c>
+      <c r="AU250">
+        <v>1.72</v>
+      </c>
+      <c r="AV250">
+        <v>1.29</v>
+      </c>
+      <c r="AW250">
+        <v>3.01</v>
+      </c>
+      <c r="AX250">
+        <v>1.85</v>
+      </c>
+      <c r="AY250">
+        <v>7</v>
+      </c>
+      <c r="AZ250">
+        <v>2.41</v>
+      </c>
+      <c r="BA250">
+        <v>1.45</v>
+      </c>
+      <c r="BB250">
+        <v>1.82</v>
+      </c>
+      <c r="BC250">
+        <v>2.4</v>
+      </c>
+      <c r="BD250">
+        <v>3.35</v>
+      </c>
+      <c r="BE250">
+        <v>4.8</v>
+      </c>
+      <c r="BF250">
+        <v>2</v>
+      </c>
+      <c r="BG250">
+        <v>6</v>
+      </c>
+      <c r="BH250">
+        <v>5</v>
+      </c>
+      <c r="BI250">
+        <v>7</v>
+      </c>
+      <c r="BJ250">
+        <v>7</v>
+      </c>
+      <c r="BK250">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1347,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK259"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4546,7 +4546,7 @@
         <v>1.69</v>
       </c>
       <c r="AT17">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.62</v>
@@ -7602,7 +7602,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
         <v>1.02</v>
@@ -7790,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>1.69</v>
@@ -11422,7 +11422,7 @@
         <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU53">
         <v>1.29</v>
@@ -12947,7 +12947,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>0.93</v>
@@ -15051,7 +15051,7 @@
         <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15430,7 +15430,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.25</v>
@@ -18868,7 +18868,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>1.38</v>
@@ -19444,7 +19444,7 @@
         <v>1.77</v>
       </c>
       <c r="AT95">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU95">
         <v>1.15</v>
@@ -21160,7 +21160,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>0.6899999999999999</v>
@@ -23073,7 +23073,7 @@
         <v>1.77</v>
       </c>
       <c r="AT114">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -25935,7 +25935,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT129">
         <v>1.31</v>
@@ -26893,7 +26893,7 @@
         <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -29946,7 +29946,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>0.92</v>
@@ -32241,7 +32241,7 @@
         <v>1.92</v>
       </c>
       <c r="AT162">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU162">
         <v>1.76</v>
@@ -34148,7 +34148,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT172">
         <v>1.62</v>
@@ -34342,7 +34342,7 @@
         <v>2.38</v>
       </c>
       <c r="AT173">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU173">
         <v>1.54</v>
@@ -37971,7 +37971,7 @@
         <v>1.62</v>
       </c>
       <c r="AT192">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU192">
         <v>1.68</v>
@@ -39496,7 +39496,7 @@
         <v>1.11</v>
       </c>
       <c r="AS200">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT200">
         <v>1.08</v>
@@ -42170,7 +42170,7 @@
         <v>1.2</v>
       </c>
       <c r="AS214">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT214">
         <v>1.25</v>
@@ -43128,7 +43128,7 @@
         <v>0.62</v>
       </c>
       <c r="AT219">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU219">
         <v>1.27</v>
@@ -45802,7 +45802,7 @@
         <v>1.62</v>
       </c>
       <c r="AT233">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU233">
         <v>1.47</v>
@@ -46754,7 +46754,7 @@
         <v>1.45</v>
       </c>
       <c r="AS238">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT238">
         <v>1.23</v>
@@ -50819,6 +50819,197 @@
         <v>9</v>
       </c>
       <c r="BK259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2468565</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44991.69791666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>84</v>
+      </c>
+      <c r="H260" t="s">
+        <v>74</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260" t="s">
+        <v>86</v>
+      </c>
+      <c r="P260" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>5</v>
+      </c>
+      <c r="T260">
+        <v>3.05</v>
+      </c>
+      <c r="U260">
+        <v>2.02</v>
+      </c>
+      <c r="V260">
+        <v>3.7</v>
+      </c>
+      <c r="W260">
+        <v>1.47</v>
+      </c>
+      <c r="X260">
+        <v>2.58</v>
+      </c>
+      <c r="Y260">
+        <v>3.16</v>
+      </c>
+      <c r="Z260">
+        <v>1.33</v>
+      </c>
+      <c r="AA260">
+        <v>8.4</v>
+      </c>
+      <c r="AB260">
+        <v>1.05</v>
+      </c>
+      <c r="AC260">
+        <v>2.39</v>
+      </c>
+      <c r="AD260">
+        <v>3.2</v>
+      </c>
+      <c r="AE260">
+        <v>2.71</v>
+      </c>
+      <c r="AF260">
+        <v>1.04</v>
+      </c>
+      <c r="AG260">
+        <v>7.6</v>
+      </c>
+      <c r="AH260">
+        <v>1.36</v>
+      </c>
+      <c r="AI260">
+        <v>2.82</v>
+      </c>
+      <c r="AJ260">
+        <v>2.23</v>
+      </c>
+      <c r="AK260">
+        <v>1.63</v>
+      </c>
+      <c r="AL260">
+        <v>1.89</v>
+      </c>
+      <c r="AM260">
+        <v>1.85</v>
+      </c>
+      <c r="AN260">
+        <v>1.33</v>
+      </c>
+      <c r="AO260">
+        <v>1.28</v>
+      </c>
+      <c r="AP260">
+        <v>1.55</v>
+      </c>
+      <c r="AQ260">
+        <v>2.08</v>
+      </c>
+      <c r="AR260">
+        <v>1.42</v>
+      </c>
+      <c r="AS260">
+        <v>2</v>
+      </c>
+      <c r="AT260">
+        <v>1.38</v>
+      </c>
+      <c r="AU260">
+        <v>1.83</v>
+      </c>
+      <c r="AV260">
+        <v>1.46</v>
+      </c>
+      <c r="AW260">
+        <v>3.29</v>
+      </c>
+      <c r="AX260">
+        <v>1.69</v>
+      </c>
+      <c r="AY260">
+        <v>7.5</v>
+      </c>
+      <c r="AZ260">
+        <v>2.72</v>
+      </c>
+      <c r="BA260">
+        <v>1.5</v>
+      </c>
+      <c r="BB260">
+        <v>1.85</v>
+      </c>
+      <c r="BC260">
+        <v>2.38</v>
+      </c>
+      <c r="BD260">
+        <v>3.18</v>
+      </c>
+      <c r="BE260">
+        <v>4.64</v>
+      </c>
+      <c r="BF260">
+        <v>7</v>
+      </c>
+      <c r="BG260">
+        <v>2</v>
+      </c>
+      <c r="BH260">
+        <v>7</v>
+      </c>
+      <c r="BI260">
+        <v>5</v>
+      </c>
+      <c r="BJ260">
+        <v>14</v>
+      </c>
+      <c r="BK260">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,30 @@
     <t>['16', '79']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['15', '27', '54']</t>
+  </si>
+  <si>
+    <t>['25', '48']</t>
+  </si>
+  <si>
+    <t>['4', '72']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['66', '71']</t>
+  </si>
+  <si>
+    <t>['34', '85']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -803,9 +827,6 @@
   </si>
   <si>
     <t>['14', '20', '52']</t>
-  </si>
-  <si>
-    <t>['34', '85']</t>
   </si>
   <si>
     <t>['26', '55']</t>
@@ -952,9 +973,6 @@
     <t>['19']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -986,6 +1004,18 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['11', '60']</t>
+  </si>
+  <si>
+    <t>['38', '90+2']</t>
+  </si>
+  <si>
+    <t>['4', '69']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2060,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT4">
         <v>0.93</v>
@@ -2355,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2442,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2737,7 +2767,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2827,7 +2857,7 @@
         <v>1.54</v>
       </c>
       <c r="AT8">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3018,7 +3048,7 @@
         <v>1.77</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3119,7 +3149,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3397,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3588,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
         <v>0.5</v>
@@ -3692,7 +3722,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3779,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT13">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3970,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4074,7 +4104,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4164,7 +4194,7 @@
         <v>1.08</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4355,7 +4385,7 @@
         <v>1.62</v>
       </c>
       <c r="AT16">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4543,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT17">
         <v>1.38</v>
@@ -4734,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT18">
         <v>1.85</v>
@@ -4928,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5029,7 +5059,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5116,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT20">
         <v>1.69</v>
@@ -5498,10 +5528,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT22">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5880,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT24">
         <v>1.31</v>
@@ -6453,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6557,7 +6587,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6748,7 +6778,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6838,7 +6868,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.27</v>
@@ -7029,7 +7059,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU30">
         <v>1.26</v>
@@ -7130,7 +7160,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7321,7 +7351,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7408,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
         <v>1.85</v>
@@ -7512,7 +7542,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7599,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT33">
         <v>1.38</v>
@@ -7894,7 +7924,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8175,7 +8205,7 @@
         <v>1.62</v>
       </c>
       <c r="AT36">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU36">
         <v>0.9</v>
@@ -8363,10 +8393,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8467,7 +8497,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8554,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT38">
         <v>1.62</v>
@@ -8748,7 +8778,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU39">
         <v>2.51</v>
@@ -8849,7 +8879,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8936,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT40">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU40">
         <v>1</v>
@@ -9127,10 +9157,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU41">
         <v>1.49</v>
@@ -9231,7 +9261,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9321,7 +9351,7 @@
         <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU42">
         <v>1.46</v>
@@ -9703,7 +9733,7 @@
         <v>2.38</v>
       </c>
       <c r="AT44">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU44">
         <v>1.31</v>
@@ -9804,7 +9834,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9995,7 +10025,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10082,7 +10112,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10186,7 +10216,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10276,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10464,10 +10494,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU48">
         <v>1.67</v>
@@ -10759,7 +10789,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11037,7 +11067,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT51">
         <v>1.08</v>
@@ -11231,7 +11261,7 @@
         <v>1.92</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11332,7 +11362,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11419,7 +11449,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11523,7 +11553,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11610,7 +11640,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT54">
         <v>1.62</v>
@@ -11714,7 +11744,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11804,7 +11834,7 @@
         <v>1.43</v>
       </c>
       <c r="AT55">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU55">
         <v>1.65</v>
@@ -12096,7 +12126,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12186,7 +12216,7 @@
         <v>1.62</v>
       </c>
       <c r="AT57">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU57">
         <v>1.27</v>
@@ -12287,7 +12317,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12374,7 +12404,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT58">
         <v>0.5</v>
@@ -12478,7 +12508,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12565,7 +12595,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT59">
         <v>1.85</v>
@@ -12756,10 +12786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU60">
         <v>1.45</v>
@@ -13141,7 +13171,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.62</v>
@@ -13523,7 +13553,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13714,7 +13744,7 @@
         <v>1.77</v>
       </c>
       <c r="AT65">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU65">
         <v>1.66</v>
@@ -13815,7 +13845,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13902,7 +13932,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.08</v>
@@ -14006,7 +14036,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14093,7 +14123,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -14197,7 +14227,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14287,7 +14317,7 @@
         <v>1.62</v>
       </c>
       <c r="AT68">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU68">
         <v>1.56</v>
@@ -14388,7 +14418,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14478,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU69">
         <v>1.45</v>
@@ -14579,7 +14609,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14666,7 +14696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14857,10 +14887,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU71">
         <v>1.47</v>
@@ -14961,7 +14991,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15152,7 +15182,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15239,10 +15269,10 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT73">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU73">
         <v>1.4</v>
@@ -15433,7 +15463,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -15621,7 +15651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT75">
         <v>0.6899999999999999</v>
@@ -15812,7 +15842,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT76">
         <v>0.93</v>
@@ -16006,7 +16036,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU77">
         <v>1.35</v>
@@ -16385,10 +16415,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -16489,7 +16519,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16770,7 +16800,7 @@
         <v>1.92</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU81">
         <v>1.45</v>
@@ -16871,7 +16901,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16958,7 +16988,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -17062,7 +17092,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17253,7 +17283,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17340,7 +17370,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>0.5</v>
@@ -17444,7 +17474,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17722,10 +17752,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT86">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17916,7 +17946,7 @@
         <v>2.38</v>
       </c>
       <c r="AT87">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU87">
         <v>1.52</v>
@@ -18107,7 +18137,7 @@
         <v>1.62</v>
       </c>
       <c r="AT88">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18486,7 +18516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT90">
         <v>0.6899999999999999</v>
@@ -18590,7 +18620,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18677,7 +18707,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT91">
         <v>1.23</v>
@@ -18781,7 +18811,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18871,7 +18901,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU92">
         <v>1.88</v>
@@ -19059,10 +19089,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT93">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU93">
         <v>1.39</v>
@@ -19354,7 +19384,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19441,7 +19471,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT95">
         <v>1.38</v>
@@ -19545,7 +19575,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19632,10 +19662,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19826,7 +19856,7 @@
         <v>1.54</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -20396,10 +20426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT100">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20587,7 +20617,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT101">
         <v>1.31</v>
@@ -20882,7 +20912,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20969,10 +20999,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT103">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU103">
         <v>1.5</v>
@@ -21163,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU104">
         <v>1.86</v>
@@ -21354,7 +21384,7 @@
         <v>2.38</v>
       </c>
       <c r="AT105">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU105">
         <v>1.54</v>
@@ -21455,7 +21485,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21542,7 +21572,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT106">
         <v>1.31</v>
@@ -21646,7 +21676,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21736,7 +21766,7 @@
         <v>1.62</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21837,7 +21867,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21924,7 +21954,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT108">
         <v>1.08</v>
@@ -22219,7 +22249,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22497,7 +22527,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22601,7 +22631,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22688,10 +22718,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22792,7 +22822,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23174,7 +23204,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23452,10 +23482,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT116">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23643,7 +23673,7 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT117">
         <v>1.85</v>
@@ -23834,7 +23864,7 @@
         <v>2</v>
       </c>
       <c r="AS118">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
         <v>1.69</v>
@@ -24028,7 +24058,7 @@
         <v>1.43</v>
       </c>
       <c r="AT119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU119">
         <v>1.26</v>
@@ -24216,10 +24246,10 @@
         <v>1.4</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT120">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24320,7 +24350,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24410,7 +24440,7 @@
         <v>1.86</v>
       </c>
       <c r="AT121">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU121">
         <v>1.57</v>
@@ -24511,7 +24541,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24792,7 +24822,7 @@
         <v>1.08</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25171,7 +25201,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT125">
         <v>0.6899999999999999</v>
@@ -25365,7 +25395,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU126">
         <v>1.53</v>
@@ -25466,7 +25496,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25553,10 +25583,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -25744,10 +25774,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU128">
         <v>1.53</v>
@@ -26126,7 +26156,7 @@
         <v>0.17</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT130">
         <v>0.5</v>
@@ -26508,10 +26538,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT132">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU132">
         <v>1.4</v>
@@ -26612,7 +26642,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -27272,7 +27302,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT136">
         <v>1.23</v>
@@ -27463,10 +27493,10 @@
         <v>0.83</v>
       </c>
       <c r="AS137">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.26</v>
@@ -27657,7 +27687,7 @@
         <v>1.86</v>
       </c>
       <c r="AT138">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU138">
         <v>1.55</v>
@@ -27845,10 +27875,10 @@
         <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT139">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -28036,10 +28066,10 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT140">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU140">
         <v>1.59</v>
@@ -28140,7 +28170,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28331,7 +28361,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28418,7 +28448,7 @@
         <v>1.29</v>
       </c>
       <c r="AS142">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT142">
         <v>1.31</v>
@@ -28609,7 +28639,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
         <v>0.6899999999999999</v>
@@ -28800,10 +28830,10 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT144">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU144">
         <v>1.77</v>
@@ -28904,7 +28934,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29182,10 +29212,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT146">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU146">
         <v>1.3</v>
@@ -29477,7 +29507,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29567,7 +29597,7 @@
         <v>1.62</v>
       </c>
       <c r="AT148">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29668,7 +29698,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -29949,7 +29979,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU150">
         <v>1.76</v>
@@ -30137,7 +30167,7 @@
         <v>2</v>
       </c>
       <c r="AS151">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT151">
         <v>1.85</v>
@@ -30522,7 +30552,7 @@
         <v>2.38</v>
       </c>
       <c r="AT153">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU153">
         <v>1.57</v>
@@ -31095,7 +31125,7 @@
         <v>1.77</v>
       </c>
       <c r="AT156">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31283,7 +31313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS157">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT157">
         <v>1.31</v>
@@ -31474,10 +31504,10 @@
         <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU158">
         <v>1.21</v>
@@ -31578,7 +31608,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31665,10 +31695,10 @@
         <v>1.88</v>
       </c>
       <c r="AS159">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU159">
         <v>1.47</v>
@@ -31859,7 +31889,7 @@
         <v>1.86</v>
       </c>
       <c r="AT160">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.47</v>
@@ -31960,7 +31990,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -32047,7 +32077,7 @@
         <v>1.57</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT161">
         <v>1.69</v>
@@ -32429,10 +32459,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT163">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32620,10 +32650,10 @@
         <v>0.71</v>
       </c>
       <c r="AS164">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT164">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU164">
         <v>1.32</v>
@@ -33193,7 +33223,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT167">
         <v>1.62</v>
@@ -33488,7 +33518,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -33575,10 +33605,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT169">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU169">
         <v>1.58</v>
@@ -33870,7 +33900,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33957,10 +33987,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT171">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU171">
         <v>1.47</v>
@@ -34061,7 +34091,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34151,7 +34181,7 @@
         <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -34443,7 +34473,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34530,7 +34560,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT174">
         <v>1.62</v>
@@ -34634,7 +34664,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34724,7 +34754,7 @@
         <v>1.62</v>
       </c>
       <c r="AT175">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU175">
         <v>1.5</v>
@@ -34912,7 +34942,7 @@
         <v>1.25</v>
       </c>
       <c r="AS176">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT176">
         <v>1.08</v>
@@ -35016,7 +35046,7 @@
         <v>187</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35106,7 +35136,7 @@
         <v>1</v>
       </c>
       <c r="AT177">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU177">
         <v>1.23</v>
@@ -35294,10 +35324,10 @@
         <v>0.63</v>
       </c>
       <c r="AS178">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT178">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU178">
         <v>1.28</v>
@@ -35398,7 +35428,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -35485,10 +35515,10 @@
         <v>1.13</v>
       </c>
       <c r="AS179">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT179">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU179">
         <v>1.3</v>
@@ -35867,7 +35897,7 @@
         <v>1.13</v>
       </c>
       <c r="AS181">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT181">
         <v>1.23</v>
@@ -35971,7 +36001,7 @@
         <v>190</v>
       </c>
       <c r="P182" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36440,7 +36470,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT184">
         <v>1.31</v>
@@ -36544,7 +36574,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36825,7 +36855,7 @@
         <v>1.77</v>
       </c>
       <c r="AT186">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU186">
         <v>1.52</v>
@@ -36926,7 +36956,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37013,7 +37043,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT187">
         <v>1.23</v>
@@ -37207,7 +37237,7 @@
         <v>1.54</v>
       </c>
       <c r="AT188">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU188">
         <v>1.37</v>
@@ -37308,7 +37338,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37398,7 +37428,7 @@
         <v>1.92</v>
       </c>
       <c r="AT189">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37690,7 +37720,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37777,10 +37807,10 @@
         <v>0.78</v>
       </c>
       <c r="AS191">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.77</v>
@@ -37881,7 +37911,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -37968,7 +37998,7 @@
         <v>1.11</v>
       </c>
       <c r="AS192">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT192">
         <v>1.38</v>
@@ -38162,7 +38192,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38263,7 +38293,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38350,7 +38380,7 @@
         <v>1.67</v>
       </c>
       <c r="AS194">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT194">
         <v>1.69</v>
@@ -38454,7 +38484,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38541,7 +38571,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT195">
         <v>1.62</v>
@@ -38732,10 +38762,10 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT196">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU196">
         <v>1.3</v>
@@ -38836,7 +38866,7 @@
         <v>142</v>
       </c>
       <c r="P197" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39027,7 +39057,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39114,10 +39144,10 @@
         <v>1.11</v>
       </c>
       <c r="AS198">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT198">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39218,7 +39248,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39305,10 +39335,10 @@
         <v>0.67</v>
       </c>
       <c r="AS199">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT199">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU199">
         <v>1.35</v>
@@ -39600,7 +39630,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39690,7 +39720,7 @@
         <v>1.43</v>
       </c>
       <c r="AT201">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU201">
         <v>1.19</v>
@@ -39791,7 +39821,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -40260,7 +40290,7 @@
         <v>0.8</v>
       </c>
       <c r="AS204">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT204">
         <v>0.6899999999999999</v>
@@ -40642,10 +40672,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT206">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU206">
         <v>1.29</v>
@@ -40746,7 +40776,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40836,7 +40866,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU207">
         <v>1.4</v>
@@ -41128,7 +41158,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41215,7 +41245,7 @@
         <v>0.3</v>
       </c>
       <c r="AS209">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT209">
         <v>0.5</v>
@@ -41406,10 +41436,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT210">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU210">
         <v>1.51</v>
@@ -41600,7 +41630,7 @@
         <v>1.54</v>
       </c>
       <c r="AT211">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU211">
         <v>1.36</v>
@@ -41701,7 +41731,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41788,10 +41818,10 @@
         <v>1.5</v>
       </c>
       <c r="AS212">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT212">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU212">
         <v>1.55</v>
@@ -42083,7 +42113,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42173,7 +42203,7 @@
         <v>2</v>
       </c>
       <c r="AT214">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU214">
         <v>1.78</v>
@@ -42364,7 +42394,7 @@
         <v>1.43</v>
       </c>
       <c r="AT215">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU215">
         <v>1.2</v>
@@ -42465,7 +42495,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42552,7 +42582,7 @@
         <v>1.3</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT216">
         <v>1.23</v>
@@ -42746,7 +42776,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU217">
         <v>1.52</v>
@@ -42934,7 +42964,7 @@
         <v>1.1</v>
       </c>
       <c r="AS218">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT218">
         <v>1.08</v>
@@ -43125,7 +43155,7 @@
         <v>1.3</v>
       </c>
       <c r="AS219">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT219">
         <v>1.38</v>
@@ -43229,7 +43259,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43316,10 +43346,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT220">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU220">
         <v>1.68</v>
@@ -43420,7 +43450,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43698,10 +43728,10 @@
         <v>0.5</v>
       </c>
       <c r="AS222">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT222">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -43802,7 +43832,7 @@
         <v>216</v>
       </c>
       <c r="P223" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -43889,7 +43919,7 @@
         <v>0.55</v>
       </c>
       <c r="AS223">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT223">
         <v>0.5</v>
@@ -43993,7 +44023,7 @@
         <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44080,7 +44110,7 @@
         <v>2</v>
       </c>
       <c r="AS224">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT224">
         <v>1.85</v>
@@ -44274,7 +44304,7 @@
         <v>1.86</v>
       </c>
       <c r="AT225">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44462,7 +44492,7 @@
         <v>0.73</v>
       </c>
       <c r="AS226">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT226">
         <v>0.6899999999999999</v>
@@ -44656,7 +44686,7 @@
         <v>1.08</v>
       </c>
       <c r="AT227">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU227">
         <v>1.34</v>
@@ -44757,7 +44787,7 @@
         <v>178</v>
       </c>
       <c r="P228" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q228">
         <v>6</v>
@@ -44844,7 +44874,7 @@
         <v>1.09</v>
       </c>
       <c r="AS228">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT228">
         <v>0.93</v>
@@ -45035,10 +45065,10 @@
         <v>1</v>
       </c>
       <c r="AS229">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT229">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU229">
         <v>1.52</v>
@@ -45229,7 +45259,7 @@
         <v>1.77</v>
       </c>
       <c r="AT230">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU230">
         <v>1.56</v>
@@ -45420,7 +45450,7 @@
         <v>1.92</v>
       </c>
       <c r="AT231">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU231">
         <v>1.67</v>
@@ -45521,7 +45551,7 @@
         <v>86</v>
       </c>
       <c r="P232" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45608,7 +45638,7 @@
         <v>1</v>
       </c>
       <c r="AS232">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT232">
         <v>1.08</v>
@@ -45993,7 +46023,7 @@
         <v>1.54</v>
       </c>
       <c r="AT234">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU234">
         <v>1.35</v>
@@ -46372,7 +46402,7 @@
         <v>1.18</v>
       </c>
       <c r="AS236">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT236">
         <v>1.31</v>
@@ -46476,7 +46506,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -46948,7 +46978,7 @@
         <v>2.38</v>
       </c>
       <c r="AT239">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU239">
         <v>1.52</v>
@@ -47049,7 +47079,7 @@
         <v>222</v>
       </c>
       <c r="P240" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q240">
         <v>9</v>
@@ -47136,7 +47166,7 @@
         <v>0.82</v>
       </c>
       <c r="AS240">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT240">
         <v>1</v>
@@ -47327,7 +47357,7 @@
         <v>1.92</v>
       </c>
       <c r="AS241">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT241">
         <v>1.85</v>
@@ -47431,7 +47461,7 @@
         <v>115</v>
       </c>
       <c r="P242" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47518,10 +47548,10 @@
         <v>0.92</v>
       </c>
       <c r="AS242">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT242">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU242">
         <v>1.44</v>
@@ -47709,7 +47739,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT243">
         <v>0.93</v>
@@ -48091,10 +48121,10 @@
         <v>1.25</v>
       </c>
       <c r="AS245">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT245">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU245">
         <v>1.5</v>
@@ -48282,10 +48312,10 @@
         <v>1</v>
       </c>
       <c r="AS246">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT246">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU246">
         <v>1.75</v>
@@ -48476,7 +48506,7 @@
         <v>1</v>
       </c>
       <c r="AT247">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU247">
         <v>1.37</v>
@@ -48577,7 +48607,7 @@
         <v>86</v>
       </c>
       <c r="P248" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -48664,10 +48694,10 @@
         <v>1.09</v>
       </c>
       <c r="AS248">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AT248">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU248">
         <v>1.22</v>
@@ -48768,7 +48798,7 @@
         <v>227</v>
       </c>
       <c r="P249" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q249">
         <v>3</v>
@@ -48855,10 +48885,10 @@
         <v>0.45</v>
       </c>
       <c r="AS249">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT249">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU249">
         <v>1.3</v>
@@ -48959,7 +48989,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49049,7 +49079,7 @@
         <v>1.62</v>
       </c>
       <c r="AT250">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU250">
         <v>1.72</v>
@@ -49341,7 +49371,7 @@
         <v>86</v>
       </c>
       <c r="P252" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q252">
         <v>6</v>
@@ -49532,7 +49562,7 @@
         <v>230</v>
       </c>
       <c r="P253" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -49914,7 +49944,7 @@
         <v>231</v>
       </c>
       <c r="P255" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50105,7 +50135,7 @@
         <v>232</v>
       </c>
       <c r="P256" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q256">
         <v>2</v>
@@ -50678,7 +50708,7 @@
         <v>162</v>
       </c>
       <c r="P259" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q259">
         <v>11</v>
@@ -51011,6 +51041,1725 @@
       </c>
       <c r="BK260">
         <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>3168633</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F261">
+        <v>27</v>
+      </c>
+      <c r="G261" t="s">
+        <v>74</v>
+      </c>
+      <c r="H261" t="s">
+        <v>70</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>234</v>
+      </c>
+      <c r="P261" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q261">
+        <v>3</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>5</v>
+      </c>
+      <c r="T261">
+        <v>3.1</v>
+      </c>
+      <c r="U261">
+        <v>1.93</v>
+      </c>
+      <c r="V261">
+        <v>3.6</v>
+      </c>
+      <c r="W261">
+        <v>1.49</v>
+      </c>
+      <c r="X261">
+        <v>2.4</v>
+      </c>
+      <c r="Y261">
+        <v>3.2</v>
+      </c>
+      <c r="Z261">
+        <v>1.3</v>
+      </c>
+      <c r="AA261">
+        <v>8.75</v>
+      </c>
+      <c r="AB261">
+        <v>1.06</v>
+      </c>
+      <c r="AC261">
+        <v>2.45</v>
+      </c>
+      <c r="AD261">
+        <v>2.95</v>
+      </c>
+      <c r="AE261">
+        <v>2.8</v>
+      </c>
+      <c r="AF261">
+        <v>1.1</v>
+      </c>
+      <c r="AG261">
+        <v>6.5</v>
+      </c>
+      <c r="AH261">
+        <v>1.4</v>
+      </c>
+      <c r="AI261">
+        <v>2.8</v>
+      </c>
+      <c r="AJ261">
+        <v>2.1</v>
+      </c>
+      <c r="AK261">
+        <v>1.65</v>
+      </c>
+      <c r="AL261">
+        <v>1.9</v>
+      </c>
+      <c r="AM261">
+        <v>1.86</v>
+      </c>
+      <c r="AN261">
+        <v>1.37</v>
+      </c>
+      <c r="AO261">
+        <v>1.35</v>
+      </c>
+      <c r="AP261">
+        <v>1.53</v>
+      </c>
+      <c r="AQ261">
+        <v>2.08</v>
+      </c>
+      <c r="AR261">
+        <v>1.62</v>
+      </c>
+      <c r="AS261">
+        <v>2</v>
+      </c>
+      <c r="AT261">
+        <v>1.57</v>
+      </c>
+      <c r="AU261">
+        <v>1.74</v>
+      </c>
+      <c r="AV261">
+        <v>1.32</v>
+      </c>
+      <c r="AW261">
+        <v>3.06</v>
+      </c>
+      <c r="AX261">
+        <v>1.9</v>
+      </c>
+      <c r="AY261">
+        <v>7.2</v>
+      </c>
+      <c r="AZ261">
+        <v>2.34</v>
+      </c>
+      <c r="BA261">
+        <v>1.48</v>
+      </c>
+      <c r="BB261">
+        <v>1.9</v>
+      </c>
+      <c r="BC261">
+        <v>2.5</v>
+      </c>
+      <c r="BD261">
+        <v>3.5</v>
+      </c>
+      <c r="BE261">
+        <v>5.1</v>
+      </c>
+      <c r="BF261">
+        <v>4</v>
+      </c>
+      <c r="BG261">
+        <v>4</v>
+      </c>
+      <c r="BH261">
+        <v>4</v>
+      </c>
+      <c r="BI261">
+        <v>7</v>
+      </c>
+      <c r="BJ261">
+        <v>8</v>
+      </c>
+      <c r="BK261">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2468566</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>75</v>
+      </c>
+      <c r="H262" t="s">
+        <v>79</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" t="s">
+        <v>185</v>
+      </c>
+      <c r="P262" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q262">
+        <v>11</v>
+      </c>
+      <c r="R262">
+        <v>4</v>
+      </c>
+      <c r="S262">
+        <v>15</v>
+      </c>
+      <c r="T262">
+        <v>2.45</v>
+      </c>
+      <c r="U262">
+        <v>2.1</v>
+      </c>
+      <c r="V262">
+        <v>4.1</v>
+      </c>
+      <c r="W262">
+        <v>1.38</v>
+      </c>
+      <c r="X262">
+        <v>2.8</v>
+      </c>
+      <c r="Y262">
+        <v>2.7</v>
+      </c>
+      <c r="Z262">
+        <v>1.4</v>
+      </c>
+      <c r="AA262">
+        <v>7</v>
+      </c>
+      <c r="AB262">
+        <v>1.09</v>
+      </c>
+      <c r="AC262">
+        <v>1.93</v>
+      </c>
+      <c r="AD262">
+        <v>3.5</v>
+      </c>
+      <c r="AE262">
+        <v>3.8</v>
+      </c>
+      <c r="AF262">
+        <v>1.05</v>
+      </c>
+      <c r="AG262">
+        <v>9</v>
+      </c>
+      <c r="AH262">
+        <v>1.28</v>
+      </c>
+      <c r="AI262">
+        <v>3.5</v>
+      </c>
+      <c r="AJ262">
+        <v>1.9</v>
+      </c>
+      <c r="AK262">
+        <v>1.8</v>
+      </c>
+      <c r="AL262">
+        <v>1.77</v>
+      </c>
+      <c r="AM262">
+        <v>1.93</v>
+      </c>
+      <c r="AN262">
+        <v>1.24</v>
+      </c>
+      <c r="AO262">
+        <v>1.28</v>
+      </c>
+      <c r="AP262">
+        <v>1.87</v>
+      </c>
+      <c r="AQ262">
+        <v>1.62</v>
+      </c>
+      <c r="AR262">
+        <v>1.25</v>
+      </c>
+      <c r="AS262">
+        <v>1.57</v>
+      </c>
+      <c r="AT262">
+        <v>1.23</v>
+      </c>
+      <c r="AU262">
+        <v>1.7</v>
+      </c>
+      <c r="AV262">
+        <v>1.47</v>
+      </c>
+      <c r="AW262">
+        <v>3.17</v>
+      </c>
+      <c r="AX262">
+        <v>1.55</v>
+      </c>
+      <c r="AY262">
+        <v>7.8</v>
+      </c>
+      <c r="AZ262">
+        <v>3.13</v>
+      </c>
+      <c r="BA262">
+        <v>1.32</v>
+      </c>
+      <c r="BB262">
+        <v>1.58</v>
+      </c>
+      <c r="BC262">
+        <v>2.02</v>
+      </c>
+      <c r="BD262">
+        <v>2.7</v>
+      </c>
+      <c r="BE262">
+        <v>3.75</v>
+      </c>
+      <c r="BF262">
+        <v>4</v>
+      </c>
+      <c r="BG262">
+        <v>8</v>
+      </c>
+      <c r="BH262">
+        <v>10</v>
+      </c>
+      <c r="BI262">
+        <v>4</v>
+      </c>
+      <c r="BJ262">
+        <v>14</v>
+      </c>
+      <c r="BK262">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2468568</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>83</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>235</v>
+      </c>
+      <c r="P263" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q263">
+        <v>3</v>
+      </c>
+      <c r="R263">
+        <v>1</v>
+      </c>
+      <c r="S263">
+        <v>4</v>
+      </c>
+      <c r="T263">
+        <v>3.4</v>
+      </c>
+      <c r="U263">
+        <v>1.87</v>
+      </c>
+      <c r="V263">
+        <v>3.4</v>
+      </c>
+      <c r="W263">
+        <v>1.53</v>
+      </c>
+      <c r="X263">
+        <v>2.41</v>
+      </c>
+      <c r="Y263">
+        <v>3.48</v>
+      </c>
+      <c r="Z263">
+        <v>1.28</v>
+      </c>
+      <c r="AA263">
+        <v>9.5</v>
+      </c>
+      <c r="AB263">
+        <v>1.04</v>
+      </c>
+      <c r="AC263">
+        <v>2.75</v>
+      </c>
+      <c r="AD263">
+        <v>2.95</v>
+      </c>
+      <c r="AE263">
+        <v>2.75</v>
+      </c>
+      <c r="AF263">
+        <v>1.1</v>
+      </c>
+      <c r="AG263">
+        <v>7.6</v>
+      </c>
+      <c r="AH263">
+        <v>1.46</v>
+      </c>
+      <c r="AI263">
+        <v>2.74</v>
+      </c>
+      <c r="AJ263">
+        <v>2.3</v>
+      </c>
+      <c r="AK263">
+        <v>1.55</v>
+      </c>
+      <c r="AL263">
+        <v>2.02</v>
+      </c>
+      <c r="AM263">
+        <v>1.76</v>
+      </c>
+      <c r="AN263">
+        <v>1.45</v>
+      </c>
+      <c r="AO263">
+        <v>1.4</v>
+      </c>
+      <c r="AP263">
+        <v>1.45</v>
+      </c>
+      <c r="AQ263">
+        <v>1.31</v>
+      </c>
+      <c r="AR263">
+        <v>1.46</v>
+      </c>
+      <c r="AS263">
+        <v>1.21</v>
+      </c>
+      <c r="AT263">
+        <v>1.57</v>
+      </c>
+      <c r="AU263">
+        <v>1.47</v>
+      </c>
+      <c r="AV263">
+        <v>1.33</v>
+      </c>
+      <c r="AW263">
+        <v>2.8</v>
+      </c>
+      <c r="AX263">
+        <v>2.07</v>
+      </c>
+      <c r="AY263">
+        <v>7.1</v>
+      </c>
+      <c r="AZ263">
+        <v>2.13</v>
+      </c>
+      <c r="BA263">
+        <v>1.45</v>
+      </c>
+      <c r="BB263">
+        <v>1.85</v>
+      </c>
+      <c r="BC263">
+        <v>2.4</v>
+      </c>
+      <c r="BD263">
+        <v>3.35</v>
+      </c>
+      <c r="BE263">
+        <v>4.8</v>
+      </c>
+      <c r="BF263">
+        <v>3</v>
+      </c>
+      <c r="BG263">
+        <v>4</v>
+      </c>
+      <c r="BH263">
+        <v>5</v>
+      </c>
+      <c r="BI263">
+        <v>1</v>
+      </c>
+      <c r="BJ263">
+        <v>8</v>
+      </c>
+      <c r="BK263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2468569</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>76</v>
+      </c>
+      <c r="H264" t="s">
+        <v>84</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
+        <v>5</v>
+      </c>
+      <c r="O264" t="s">
+        <v>236</v>
+      </c>
+      <c r="P264" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q264">
+        <v>2</v>
+      </c>
+      <c r="R264">
+        <v>8</v>
+      </c>
+      <c r="S264">
+        <v>10</v>
+      </c>
+      <c r="T264">
+        <v>4.1</v>
+      </c>
+      <c r="U264">
+        <v>1.9</v>
+      </c>
+      <c r="V264">
+        <v>2.95</v>
+      </c>
+      <c r="W264">
+        <v>1.5</v>
+      </c>
+      <c r="X264">
+        <v>2.5</v>
+      </c>
+      <c r="Y264">
+        <v>3.4</v>
+      </c>
+      <c r="Z264">
+        <v>1.3</v>
+      </c>
+      <c r="AA264">
+        <v>9</v>
+      </c>
+      <c r="AB264">
+        <v>1.05</v>
+      </c>
+      <c r="AC264">
+        <v>3.35</v>
+      </c>
+      <c r="AD264">
+        <v>3.15</v>
+      </c>
+      <c r="AE264">
+        <v>2.19</v>
+      </c>
+      <c r="AF264">
+        <v>1.1</v>
+      </c>
+      <c r="AG264">
+        <v>6.5</v>
+      </c>
+      <c r="AH264">
+        <v>1.44</v>
+      </c>
+      <c r="AI264">
+        <v>2.62</v>
+      </c>
+      <c r="AJ264">
+        <v>2.4</v>
+      </c>
+      <c r="AK264">
+        <v>1.5</v>
+      </c>
+      <c r="AL264">
+        <v>2.06</v>
+      </c>
+      <c r="AM264">
+        <v>1.73</v>
+      </c>
+      <c r="AN264">
+        <v>1.6</v>
+      </c>
+      <c r="AO264">
+        <v>1.35</v>
+      </c>
+      <c r="AP264">
+        <v>1.3</v>
+      </c>
+      <c r="AQ264">
+        <v>0.62</v>
+      </c>
+      <c r="AR264">
+        <v>1.08</v>
+      </c>
+      <c r="AS264">
+        <v>0.79</v>
+      </c>
+      <c r="AT264">
+        <v>1</v>
+      </c>
+      <c r="AU264">
+        <v>1.24</v>
+      </c>
+      <c r="AV264">
+        <v>1.24</v>
+      </c>
+      <c r="AW264">
+        <v>2.48</v>
+      </c>
+      <c r="AX264">
+        <v>2.35</v>
+      </c>
+      <c r="AY264">
+        <v>5.25</v>
+      </c>
+      <c r="AZ264">
+        <v>1.76</v>
+      </c>
+      <c r="BA264">
+        <v>1.41</v>
+      </c>
+      <c r="BB264">
+        <v>1.74</v>
+      </c>
+      <c r="BC264">
+        <v>2.28</v>
+      </c>
+      <c r="BD264">
+        <v>3.15</v>
+      </c>
+      <c r="BE264">
+        <v>4.5</v>
+      </c>
+      <c r="BF264">
+        <v>6</v>
+      </c>
+      <c r="BG264">
+        <v>4</v>
+      </c>
+      <c r="BH264">
+        <v>3</v>
+      </c>
+      <c r="BI264">
+        <v>4</v>
+      </c>
+      <c r="BJ264">
+        <v>9</v>
+      </c>
+      <c r="BK264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>2468570</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>81</v>
+      </c>
+      <c r="H265" t="s">
+        <v>73</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>4</v>
+      </c>
+      <c r="O265" t="s">
+        <v>237</v>
+      </c>
+      <c r="P265" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q265">
+        <v>1</v>
+      </c>
+      <c r="R265">
+        <v>6</v>
+      </c>
+      <c r="S265">
+        <v>7</v>
+      </c>
+      <c r="T265">
+        <v>3.75</v>
+      </c>
+      <c r="U265">
+        <v>1.87</v>
+      </c>
+      <c r="V265">
+        <v>3.25</v>
+      </c>
+      <c r="W265">
+        <v>1.56</v>
+      </c>
+      <c r="X265">
+        <v>2.29</v>
+      </c>
+      <c r="Y265">
+        <v>3.7</v>
+      </c>
+      <c r="Z265">
+        <v>1.24</v>
+      </c>
+      <c r="AA265">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB265">
+        <v>1.03</v>
+      </c>
+      <c r="AC265">
+        <v>2.65</v>
+      </c>
+      <c r="AD265">
+        <v>3</v>
+      </c>
+      <c r="AE265">
+        <v>2.8</v>
+      </c>
+      <c r="AF265">
+        <v>1.1</v>
+      </c>
+      <c r="AG265">
+        <v>7</v>
+      </c>
+      <c r="AH265">
+        <v>1.48</v>
+      </c>
+      <c r="AI265">
+        <v>2.47</v>
+      </c>
+      <c r="AJ265">
+        <v>2.4</v>
+      </c>
+      <c r="AK265">
+        <v>1.5</v>
+      </c>
+      <c r="AL265">
+        <v>2.1</v>
+      </c>
+      <c r="AM265">
+        <v>1.68</v>
+      </c>
+      <c r="AN265">
+        <v>1.53</v>
+      </c>
+      <c r="AO265">
+        <v>1.3</v>
+      </c>
+      <c r="AP265">
+        <v>1.38</v>
+      </c>
+      <c r="AQ265">
+        <v>1.77</v>
+      </c>
+      <c r="AR265">
+        <v>1.25</v>
+      </c>
+      <c r="AS265">
+        <v>1.71</v>
+      </c>
+      <c r="AT265">
+        <v>1.23</v>
+      </c>
+      <c r="AU265">
+        <v>1.32</v>
+      </c>
+      <c r="AV265">
+        <v>1.31</v>
+      </c>
+      <c r="AW265">
+        <v>2.63</v>
+      </c>
+      <c r="AX265">
+        <v>2.5</v>
+      </c>
+      <c r="AY265">
+        <v>5.25</v>
+      </c>
+      <c r="AZ265">
+        <v>1.71</v>
+      </c>
+      <c r="BA265">
+        <v>1.48</v>
+      </c>
+      <c r="BB265">
+        <v>1.9</v>
+      </c>
+      <c r="BC265">
+        <v>2.5</v>
+      </c>
+      <c r="BD265">
+        <v>3.5</v>
+      </c>
+      <c r="BE265">
+        <v>5.1</v>
+      </c>
+      <c r="BF265">
+        <v>5</v>
+      </c>
+      <c r="BG265">
+        <v>7</v>
+      </c>
+      <c r="BH265">
+        <v>4</v>
+      </c>
+      <c r="BI265">
+        <v>9</v>
+      </c>
+      <c r="BJ265">
+        <v>9</v>
+      </c>
+      <c r="BK265">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>2468571</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>80</v>
+      </c>
+      <c r="H266" t="s">
+        <v>71</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>238</v>
+      </c>
+      <c r="P266" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>5</v>
+      </c>
+      <c r="S266">
+        <v>5</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="U266">
+        <v>1.95</v>
+      </c>
+      <c r="V266">
+        <v>3.75</v>
+      </c>
+      <c r="W266">
+        <v>1.52</v>
+      </c>
+      <c r="X266">
+        <v>2.39</v>
+      </c>
+      <c r="Y266">
+        <v>3.45</v>
+      </c>
+      <c r="Z266">
+        <v>1.27</v>
+      </c>
+      <c r="AA266">
+        <v>9.4</v>
+      </c>
+      <c r="AB266">
+        <v>1.03</v>
+      </c>
+      <c r="AC266">
+        <v>2.4</v>
+      </c>
+      <c r="AD266">
+        <v>3</v>
+      </c>
+      <c r="AE266">
+        <v>3.15</v>
+      </c>
+      <c r="AF266">
+        <v>1.1</v>
+      </c>
+      <c r="AG266">
+        <v>7</v>
+      </c>
+      <c r="AH266">
+        <v>1.53</v>
+      </c>
+      <c r="AI266">
+        <v>2.2</v>
+      </c>
+      <c r="AJ266">
+        <v>2.4</v>
+      </c>
+      <c r="AK266">
+        <v>1.5</v>
+      </c>
+      <c r="AL266">
+        <v>2</v>
+      </c>
+      <c r="AM266">
+        <v>1.75</v>
+      </c>
+      <c r="AN266">
+        <v>1.28</v>
+      </c>
+      <c r="AO266">
+        <v>1.3</v>
+      </c>
+      <c r="AP266">
+        <v>1.6</v>
+      </c>
+      <c r="AQ266">
+        <v>1.69</v>
+      </c>
+      <c r="AR266">
+        <v>0.92</v>
+      </c>
+      <c r="AS266">
+        <v>1.79</v>
+      </c>
+      <c r="AT266">
+        <v>0.86</v>
+      </c>
+      <c r="AU266">
+        <v>1.32</v>
+      </c>
+      <c r="AV266">
+        <v>1.15</v>
+      </c>
+      <c r="AW266">
+        <v>2.47</v>
+      </c>
+      <c r="AX266">
+        <v>1.95</v>
+      </c>
+      <c r="AY266">
+        <v>5.25</v>
+      </c>
+      <c r="AZ266">
+        <v>2.15</v>
+      </c>
+      <c r="BA266">
+        <v>1.54</v>
+      </c>
+      <c r="BB266">
+        <v>2</v>
+      </c>
+      <c r="BC266">
+        <v>2.7</v>
+      </c>
+      <c r="BD266">
+        <v>3.8</v>
+      </c>
+      <c r="BE266">
+        <v>5.15</v>
+      </c>
+      <c r="BF266">
+        <v>6</v>
+      </c>
+      <c r="BG266">
+        <v>7</v>
+      </c>
+      <c r="BH266">
+        <v>6</v>
+      </c>
+      <c r="BI266">
+        <v>2</v>
+      </c>
+      <c r="BJ266">
+        <v>12</v>
+      </c>
+      <c r="BK266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>2468572</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F267">
+        <v>27</v>
+      </c>
+      <c r="G267" t="s">
+        <v>77</v>
+      </c>
+      <c r="H267" t="s">
+        <v>78</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>239</v>
+      </c>
+      <c r="P267" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q267">
+        <v>5</v>
+      </c>
+      <c r="R267">
+        <v>5</v>
+      </c>
+      <c r="S267">
+        <v>10</v>
+      </c>
+      <c r="T267">
+        <v>2.87</v>
+      </c>
+      <c r="U267">
+        <v>1.93</v>
+      </c>
+      <c r="V267">
+        <v>3.9</v>
+      </c>
+      <c r="W267">
+        <v>1.5</v>
+      </c>
+      <c r="X267">
+        <v>2.49</v>
+      </c>
+      <c r="Y267">
+        <v>3.34</v>
+      </c>
+      <c r="Z267">
+        <v>1.3</v>
+      </c>
+      <c r="AA267">
+        <v>9.1</v>
+      </c>
+      <c r="AB267">
+        <v>1.05</v>
+      </c>
+      <c r="AC267">
+        <v>2.24</v>
+      </c>
+      <c r="AD267">
+        <v>3.1</v>
+      </c>
+      <c r="AE267">
+        <v>3.35</v>
+      </c>
+      <c r="AF267">
+        <v>1.1</v>
+      </c>
+      <c r="AG267">
+        <v>6.5</v>
+      </c>
+      <c r="AH267">
+        <v>1.44</v>
+      </c>
+      <c r="AI267">
+        <v>2.4</v>
+      </c>
+      <c r="AJ267">
+        <v>2.4</v>
+      </c>
+      <c r="AK267">
+        <v>1.5</v>
+      </c>
+      <c r="AL267">
+        <v>2</v>
+      </c>
+      <c r="AM267">
+        <v>1.77</v>
+      </c>
+      <c r="AN267">
+        <v>1.31</v>
+      </c>
+      <c r="AO267">
+        <v>1.34</v>
+      </c>
+      <c r="AP267">
+        <v>1.67</v>
+      </c>
+      <c r="AQ267">
+        <v>1.17</v>
+      </c>
+      <c r="AR267">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS267">
+        <v>1.31</v>
+      </c>
+      <c r="AT267">
+        <v>0.64</v>
+      </c>
+      <c r="AU267">
+        <v>1.53</v>
+      </c>
+      <c r="AV267">
+        <v>1.12</v>
+      </c>
+      <c r="AW267">
+        <v>2.65</v>
+      </c>
+      <c r="AX267">
+        <v>1.68</v>
+      </c>
+      <c r="AY267">
+        <v>7.4</v>
+      </c>
+      <c r="AZ267">
+        <v>2.75</v>
+      </c>
+      <c r="BA267">
+        <v>1.43</v>
+      </c>
+      <c r="BB267">
+        <v>1.8</v>
+      </c>
+      <c r="BC267">
+        <v>2.33</v>
+      </c>
+      <c r="BD267">
+        <v>3.25</v>
+      </c>
+      <c r="BE267">
+        <v>4.6</v>
+      </c>
+      <c r="BF267">
+        <v>9</v>
+      </c>
+      <c r="BG267">
+        <v>4</v>
+      </c>
+      <c r="BH267">
+        <v>3</v>
+      </c>
+      <c r="BI267">
+        <v>3</v>
+      </c>
+      <c r="BJ267">
+        <v>12</v>
+      </c>
+      <c r="BK267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>2468573</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F268">
+        <v>27</v>
+      </c>
+      <c r="G268" t="s">
+        <v>69</v>
+      </c>
+      <c r="H268" t="s">
+        <v>66</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" t="s">
+        <v>240</v>
+      </c>
+      <c r="P268" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q268">
+        <v>2</v>
+      </c>
+      <c r="R268">
+        <v>5</v>
+      </c>
+      <c r="S268">
+        <v>7</v>
+      </c>
+      <c r="T268">
+        <v>3.5</v>
+      </c>
+      <c r="U268">
+        <v>1.87</v>
+      </c>
+      <c r="V268">
+        <v>3.25</v>
+      </c>
+      <c r="W268">
+        <v>1.54</v>
+      </c>
+      <c r="X268">
+        <v>2.39</v>
+      </c>
+      <c r="Y268">
+        <v>3.56</v>
+      </c>
+      <c r="Z268">
+        <v>1.27</v>
+      </c>
+      <c r="AA268">
+        <v>9.9</v>
+      </c>
+      <c r="AB268">
+        <v>1.04</v>
+      </c>
+      <c r="AC268">
+        <v>2.75</v>
+      </c>
+      <c r="AD268">
+        <v>3</v>
+      </c>
+      <c r="AE268">
+        <v>2.7</v>
+      </c>
+      <c r="AF268">
+        <v>1.11</v>
+      </c>
+      <c r="AG268">
+        <v>6</v>
+      </c>
+      <c r="AH268">
+        <v>1.47</v>
+      </c>
+      <c r="AI268">
+        <v>2.6</v>
+      </c>
+      <c r="AJ268">
+        <v>2.4</v>
+      </c>
+      <c r="AK268">
+        <v>1.5</v>
+      </c>
+      <c r="AL268">
+        <v>2.06</v>
+      </c>
+      <c r="AM268">
+        <v>1.73</v>
+      </c>
+      <c r="AN268">
+        <v>1.5</v>
+      </c>
+      <c r="AO268">
+        <v>1.36</v>
+      </c>
+      <c r="AP268">
+        <v>1.42</v>
+      </c>
+      <c r="AQ268">
+        <v>1.33</v>
+      </c>
+      <c r="AR268">
+        <v>1.38</v>
+      </c>
+      <c r="AS268">
+        <v>1.46</v>
+      </c>
+      <c r="AT268">
+        <v>1.29</v>
+      </c>
+      <c r="AU268">
+        <v>1.37</v>
+      </c>
+      <c r="AV268">
+        <v>1.1</v>
+      </c>
+      <c r="AW268">
+        <v>2.47</v>
+      </c>
+      <c r="AX268">
+        <v>2.12</v>
+      </c>
+      <c r="AY268">
+        <v>7.1</v>
+      </c>
+      <c r="AZ268">
+        <v>2.08</v>
+      </c>
+      <c r="BA268">
+        <v>1.57</v>
+      </c>
+      <c r="BB268">
+        <v>2.02</v>
+      </c>
+      <c r="BC268">
+        <v>2.75</v>
+      </c>
+      <c r="BD268">
+        <v>3.9</v>
+      </c>
+      <c r="BE268">
+        <v>5.25</v>
+      </c>
+      <c r="BF268">
+        <v>8</v>
+      </c>
+      <c r="BG268">
+        <v>4</v>
+      </c>
+      <c r="BH268">
+        <v>6</v>
+      </c>
+      <c r="BI268">
+        <v>5</v>
+      </c>
+      <c r="BJ268">
+        <v>14</v>
+      </c>
+      <c r="BK268">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>2468574</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
+      </c>
+      <c r="G269" t="s">
+        <v>67</v>
+      </c>
+      <c r="H269" t="s">
+        <v>65</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>241</v>
+      </c>
+      <c r="P269" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q269">
+        <v>3</v>
+      </c>
+      <c r="R269">
+        <v>4</v>
+      </c>
+      <c r="S269">
+        <v>7</v>
+      </c>
+      <c r="T269">
+        <v>2.85</v>
+      </c>
+      <c r="U269">
+        <v>1.93</v>
+      </c>
+      <c r="V269">
+        <v>4</v>
+      </c>
+      <c r="W269">
+        <v>1.51</v>
+      </c>
+      <c r="X269">
+        <v>2.37</v>
+      </c>
+      <c r="Y269">
+        <v>3.3</v>
+      </c>
+      <c r="Z269">
+        <v>1.28</v>
+      </c>
+      <c r="AA269">
+        <v>9.5</v>
+      </c>
+      <c r="AB269">
+        <v>1.05</v>
+      </c>
+      <c r="AC269">
+        <v>2.19</v>
+      </c>
+      <c r="AD269">
+        <v>3.15</v>
+      </c>
+      <c r="AE269">
+        <v>3.4</v>
+      </c>
+      <c r="AF269">
+        <v>1.1</v>
+      </c>
+      <c r="AG269">
+        <v>6.5</v>
+      </c>
+      <c r="AH269">
+        <v>1.44</v>
+      </c>
+      <c r="AI269">
+        <v>2.62</v>
+      </c>
+      <c r="AJ269">
+        <v>2.4</v>
+      </c>
+      <c r="AK269">
+        <v>1.5</v>
+      </c>
+      <c r="AL269">
+        <v>2.08</v>
+      </c>
+      <c r="AM269">
+        <v>1.71</v>
+      </c>
+      <c r="AN269">
+        <v>1.29</v>
+      </c>
+      <c r="AO269">
+        <v>1.34</v>
+      </c>
+      <c r="AP269">
+        <v>1.65</v>
+      </c>
+      <c r="AQ269">
+        <v>0.92</v>
+      </c>
+      <c r="AR269">
+        <v>0.5</v>
+      </c>
+      <c r="AS269">
+        <v>1.07</v>
+      </c>
+      <c r="AT269">
+        <v>0.46</v>
+      </c>
+      <c r="AU269">
+        <v>1.42</v>
+      </c>
+      <c r="AV269">
+        <v>1.22</v>
+      </c>
+      <c r="AW269">
+        <v>2.64</v>
+      </c>
+      <c r="AX269">
+        <v>1.6</v>
+      </c>
+      <c r="AY269">
+        <v>5.75</v>
+      </c>
+      <c r="AZ269">
+        <v>2.65</v>
+      </c>
+      <c r="BA269">
+        <v>1.41</v>
+      </c>
+      <c r="BB269">
+        <v>1.74</v>
+      </c>
+      <c r="BC269">
+        <v>2.28</v>
+      </c>
+      <c r="BD269">
+        <v>3.15</v>
+      </c>
+      <c r="BE269">
+        <v>4.5</v>
+      </c>
+      <c r="BF269">
+        <v>6</v>
+      </c>
+      <c r="BG269">
+        <v>2</v>
+      </c>
+      <c r="BH269">
+        <v>2</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>8</v>
+      </c>
+      <c r="BK269">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,12 @@
     <t>['34', '85']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['30', '48', '84']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -1377,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK269"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2385,7 +2391,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2767,7 +2773,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3045,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3149,7 +3155,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3722,7 +3728,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4104,7 +4110,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -4767,7 +4773,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4955,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT19">
         <v>1.29</v>
@@ -5059,7 +5065,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -6101,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT25">
         <v>0.6899999999999999</v>
@@ -6486,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU27">
         <v>1.59</v>
@@ -6587,7 +6593,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6778,7 +6784,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7160,7 +7166,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7351,7 +7357,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7441,7 +7447,7 @@
         <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU32">
         <v>2.15</v>
@@ -7542,7 +7548,7 @@
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7924,7 +7930,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8497,7 +8503,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8879,7 +8885,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9261,7 +9267,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9348,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT42">
         <v>0.46</v>
@@ -9733,7 +9739,7 @@
         <v>2.38</v>
       </c>
       <c r="AT44">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU44">
         <v>1.31</v>
@@ -9834,7 +9840,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -10025,7 +10031,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10216,7 +10222,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10303,7 +10309,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10789,7 +10795,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11362,7 +11368,7 @@
         <v>97</v>
       </c>
       <c r="P53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11553,7 +11559,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11744,7 +11750,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -12126,7 +12132,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12317,7 +12323,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12508,7 +12514,7 @@
         <v>92</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12598,7 +12604,7 @@
         <v>1.21</v>
       </c>
       <c r="AT59">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU59">
         <v>1.87</v>
@@ -13741,7 +13747,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
         <v>0.86</v>
@@ -13845,7 +13851,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14036,7 +14042,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14227,7 +14233,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -14418,7 +14424,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14505,7 +14511,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT69">
         <v>1.57</v>
@@ -14991,7 +14997,7 @@
         <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15182,7 +15188,7 @@
         <v>109</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15463,7 +15469,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU74">
         <v>1.97</v>
@@ -16227,7 +16233,7 @@
         <v>1.08</v>
       </c>
       <c r="AT78">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU78">
         <v>1.64</v>
@@ -16519,7 +16525,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16606,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT80">
         <v>1.69</v>
@@ -16901,7 +16907,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17092,7 +17098,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17283,7 +17289,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17474,7 +17480,7 @@
         <v>138</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17561,7 +17567,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT85">
         <v>1.31</v>
@@ -18620,7 +18626,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18811,7 +18817,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19283,7 +19289,7 @@
         <v>1.43</v>
       </c>
       <c r="AT94">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU94">
         <v>1.47</v>
@@ -19384,7 +19390,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19575,7 +19581,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19665,7 +19671,7 @@
         <v>0.79</v>
       </c>
       <c r="AT96">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -20044,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT98">
         <v>0.93</v>
@@ -20912,7 +20918,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21485,7 +21491,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21676,7 +21682,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21867,7 +21873,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22145,7 +22151,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT109">
         <v>0.6899999999999999</v>
@@ -22249,7 +22255,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22631,7 +22637,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22822,7 +22828,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23100,7 +23106,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT114">
         <v>1.38</v>
@@ -23204,7 +23210,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23676,7 +23682,7 @@
         <v>0.79</v>
       </c>
       <c r="AT117">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU117">
         <v>1.58</v>
@@ -24249,7 +24255,7 @@
         <v>1.46</v>
       </c>
       <c r="AT120">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24350,7 +24356,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24541,7 +24547,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -25010,7 +25016,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT124">
         <v>1.08</v>
@@ -25496,7 +25502,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -26642,7 +26648,7 @@
         <v>131</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -27114,7 +27120,7 @@
         <v>1.62</v>
       </c>
       <c r="AT135">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU135">
         <v>1.46</v>
@@ -27878,7 +27884,7 @@
         <v>1.31</v>
       </c>
       <c r="AT139">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -28170,7 +28176,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -28257,7 +28263,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28361,7 +28367,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28934,7 +28940,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29021,7 +29027,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT145">
         <v>1.62</v>
@@ -29507,7 +29513,7 @@
         <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29698,7 +29704,7 @@
         <v>115</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>7</v>
@@ -30170,7 +30176,7 @@
         <v>1.07</v>
       </c>
       <c r="AT151">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU151">
         <v>1.53</v>
@@ -31122,7 +31128,7 @@
         <v>0.57</v>
       </c>
       <c r="AS156">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT156">
         <v>0.64</v>
@@ -31507,7 +31513,7 @@
         <v>1.71</v>
       </c>
       <c r="AT158">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU158">
         <v>1.21</v>
@@ -31608,7 +31614,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31990,7 +31996,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -33414,10 +33420,10 @@
         <v>2.13</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT168">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU168">
         <v>1.28</v>
@@ -33518,7 +33524,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>9</v>
@@ -33608,7 +33614,7 @@
         <v>1.21</v>
       </c>
       <c r="AT169">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU169">
         <v>1.58</v>
@@ -33900,7 +33906,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34091,7 +34097,7 @@
         <v>184</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -34473,7 +34479,7 @@
         <v>115</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>2</v>
@@ -34664,7 +34670,7 @@
         <v>186</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35046,7 +35052,7 @@
         <v>187</v>
       </c>
       <c r="P177" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35133,7 +35139,7 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT177">
         <v>0.46</v>
@@ -35428,7 +35434,7 @@
         <v>188</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -36001,7 +36007,7 @@
         <v>190</v>
       </c>
       <c r="P182" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36574,7 +36580,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36852,7 +36858,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT186">
         <v>1.29</v>
@@ -36956,7 +36962,7 @@
         <v>195</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37338,7 +37344,7 @@
         <v>197</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37428,7 +37434,7 @@
         <v>1.92</v>
       </c>
       <c r="AT189">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37720,7 +37726,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37911,7 +37917,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>8</v>
@@ -38293,7 +38299,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q194">
         <v>7</v>
@@ -38484,7 +38490,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38866,7 +38872,7 @@
         <v>142</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38956,7 +38962,7 @@
         <v>1.62</v>
       </c>
       <c r="AT197">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU197">
         <v>1.75</v>
@@ -39057,7 +39063,7 @@
         <v>202</v>
       </c>
       <c r="P198" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39248,7 +39254,7 @@
         <v>203</v>
       </c>
       <c r="P199" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39630,7 +39636,7 @@
         <v>86</v>
       </c>
       <c r="P201" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39821,7 +39827,7 @@
         <v>204</v>
       </c>
       <c r="P202" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39911,7 +39917,7 @@
         <v>1.92</v>
       </c>
       <c r="AT202">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU202">
         <v>1.67</v>
@@ -40099,7 +40105,7 @@
         <v>1.2</v>
       </c>
       <c r="AS203">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT203">
         <v>1.31</v>
@@ -40481,7 +40487,7 @@
         <v>0.9</v>
       </c>
       <c r="AS205">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT205">
         <v>0.93</v>
@@ -40776,7 +40782,7 @@
         <v>207</v>
       </c>
       <c r="P207" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40866,7 +40872,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU207">
         <v>1.4</v>
@@ -41158,7 +41164,7 @@
         <v>209</v>
       </c>
       <c r="P209" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41731,7 +41737,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42113,7 +42119,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42495,7 +42501,7 @@
         <v>86</v>
       </c>
       <c r="P216" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -43259,7 +43265,7 @@
         <v>214</v>
       </c>
       <c r="P220" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q220">
         <v>5</v>
@@ -43450,7 +43456,7 @@
         <v>86</v>
       </c>
       <c r="P221" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q221">
         <v>2</v>
@@ -43832,7 +43838,7 @@
         <v>216</v>
       </c>
       <c r="P223" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -44023,7 +44029,7 @@
         <v>112</v>
       </c>
       <c r="P224" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44113,7 +44119,7 @@
         <v>2</v>
       </c>
       <c r="AT224">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU224">
         <v>1.73</v>
@@ -44787,7 +44793,7 @@
         <v>178</v>
       </c>
       <c r="P228" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q228">
         <v>6</v>
@@ -45256,7 +45262,7 @@
         <v>0.91</v>
       </c>
       <c r="AS230">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT230">
         <v>1</v>
@@ -46023,7 +46029,7 @@
         <v>1.54</v>
       </c>
       <c r="AT234">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU234">
         <v>1.35</v>
@@ -46506,7 +46512,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -47079,7 +47085,7 @@
         <v>222</v>
       </c>
       <c r="P240" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q240">
         <v>9</v>
@@ -47360,7 +47366,7 @@
         <v>1.79</v>
       </c>
       <c r="AT241">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU241">
         <v>1.39</v>
@@ -47461,7 +47467,7 @@
         <v>115</v>
       </c>
       <c r="P242" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47930,7 +47936,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT244">
         <v>0.5</v>
@@ -48503,7 +48509,7 @@
         <v>0.75</v>
       </c>
       <c r="AS247">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT247">
         <v>0.64</v>
@@ -48607,7 +48613,7 @@
         <v>86</v>
       </c>
       <c r="P248" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -48798,7 +48804,7 @@
         <v>227</v>
       </c>
       <c r="P249" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q249">
         <v>3</v>
@@ -48989,7 +48995,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49371,7 +49377,7 @@
         <v>86</v>
       </c>
       <c r="P252" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q252">
         <v>6</v>
@@ -49562,7 +49568,7 @@
         <v>230</v>
       </c>
       <c r="P253" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -49649,7 +49655,7 @@
         <v>1.58</v>
       </c>
       <c r="AS253">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT253">
         <v>1.69</v>
@@ -49944,7 +49950,7 @@
         <v>231</v>
       </c>
       <c r="P255" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50135,7 +50141,7 @@
         <v>232</v>
       </c>
       <c r="P256" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q256">
         <v>2</v>
@@ -50708,7 +50714,7 @@
         <v>162</v>
       </c>
       <c r="P259" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q259">
         <v>11</v>
@@ -51281,7 +51287,7 @@
         <v>185</v>
       </c>
       <c r="P262" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q262">
         <v>11</v>
@@ -51371,7 +51377,7 @@
         <v>1.57</v>
       </c>
       <c r="AT262">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU262">
         <v>1.7</v>
@@ -51472,7 +51478,7 @@
         <v>235</v>
       </c>
       <c r="P263" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q263">
         <v>3</v>
@@ -51663,7 +51669,7 @@
         <v>236</v>
       </c>
       <c r="P264" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q264">
         <v>2</v>
@@ -51854,7 +51860,7 @@
         <v>237</v>
       </c>
       <c r="P265" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q265">
         <v>1</v>
@@ -52760,6 +52766,388 @@
       </c>
       <c r="BK269">
         <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>2468567</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>44998.69791666666</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>72</v>
+      </c>
+      <c r="H270" t="s">
+        <v>68</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>242</v>
+      </c>
+      <c r="P270" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q270">
+        <v>3</v>
+      </c>
+      <c r="R270">
+        <v>3</v>
+      </c>
+      <c r="S270">
+        <v>6</v>
+      </c>
+      <c r="T270">
+        <v>3.1</v>
+      </c>
+      <c r="U270">
+        <v>1.91</v>
+      </c>
+      <c r="V270">
+        <v>4.33</v>
+      </c>
+      <c r="W270">
+        <v>1.62</v>
+      </c>
+      <c r="X270">
+        <v>2.2</v>
+      </c>
+      <c r="Y270">
+        <v>4</v>
+      </c>
+      <c r="Z270">
+        <v>1.22</v>
+      </c>
+      <c r="AA270">
+        <v>13</v>
+      </c>
+      <c r="AB270">
+        <v>1.04</v>
+      </c>
+      <c r="AC270">
+        <v>2.35</v>
+      </c>
+      <c r="AD270">
+        <v>3.1</v>
+      </c>
+      <c r="AE270">
+        <v>3.1</v>
+      </c>
+      <c r="AF270">
+        <v>1.12</v>
+      </c>
+      <c r="AG270">
+        <v>6</v>
+      </c>
+      <c r="AH270">
+        <v>1.5</v>
+      </c>
+      <c r="AI270">
+        <v>2.25</v>
+      </c>
+      <c r="AJ270">
+        <v>2.55</v>
+      </c>
+      <c r="AK270">
+        <v>1.45</v>
+      </c>
+      <c r="AL270">
+        <v>2.25</v>
+      </c>
+      <c r="AM270">
+        <v>1.57</v>
+      </c>
+      <c r="AN270">
+        <v>1.29</v>
+      </c>
+      <c r="AO270">
+        <v>1.38</v>
+      </c>
+      <c r="AP270">
+        <v>1.6</v>
+      </c>
+      <c r="AQ270">
+        <v>1.77</v>
+      </c>
+      <c r="AR270">
+        <v>1.85</v>
+      </c>
+      <c r="AS270">
+        <v>1.71</v>
+      </c>
+      <c r="AT270">
+        <v>1.79</v>
+      </c>
+      <c r="AU270">
+        <v>1.59</v>
+      </c>
+      <c r="AV270">
+        <v>1.24</v>
+      </c>
+      <c r="AW270">
+        <v>2.83</v>
+      </c>
+      <c r="AX270">
+        <v>1.57</v>
+      </c>
+      <c r="AY270">
+        <v>5.75</v>
+      </c>
+      <c r="AZ270">
+        <v>2.65</v>
+      </c>
+      <c r="BA270">
+        <v>1.4</v>
+      </c>
+      <c r="BB270">
+        <v>1.74</v>
+      </c>
+      <c r="BC270">
+        <v>2.25</v>
+      </c>
+      <c r="BD270">
+        <v>3.04</v>
+      </c>
+      <c r="BE270">
+        <v>4.4</v>
+      </c>
+      <c r="BF270">
+        <v>6</v>
+      </c>
+      <c r="BG270">
+        <v>8</v>
+      </c>
+      <c r="BH270">
+        <v>7</v>
+      </c>
+      <c r="BI270">
+        <v>4</v>
+      </c>
+      <c r="BJ270">
+        <v>13</v>
+      </c>
+      <c r="BK270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>2468534</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F271">
+        <v>23</v>
+      </c>
+      <c r="G271" t="s">
+        <v>82</v>
+      </c>
+      <c r="H271" t="s">
+        <v>79</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>243</v>
+      </c>
+      <c r="P271" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q271">
+        <v>4</v>
+      </c>
+      <c r="R271">
+        <v>8</v>
+      </c>
+      <c r="S271">
+        <v>12</v>
+      </c>
+      <c r="T271">
+        <v>3</v>
+      </c>
+      <c r="U271">
+        <v>1.93</v>
+      </c>
+      <c r="V271">
+        <v>3.6</v>
+      </c>
+      <c r="W271">
+        <v>1.49</v>
+      </c>
+      <c r="X271">
+        <v>2.4</v>
+      </c>
+      <c r="Y271">
+        <v>3.3</v>
+      </c>
+      <c r="Z271">
+        <v>1.29</v>
+      </c>
+      <c r="AA271">
+        <v>9.25</v>
+      </c>
+      <c r="AB271">
+        <v>1.05</v>
+      </c>
+      <c r="AC271">
+        <v>2.25</v>
+      </c>
+      <c r="AD271">
+        <v>3.28</v>
+      </c>
+      <c r="AE271">
+        <v>3.28</v>
+      </c>
+      <c r="AF271">
+        <v>1.1</v>
+      </c>
+      <c r="AG271">
+        <v>6.5</v>
+      </c>
+      <c r="AH271">
+        <v>1.42</v>
+      </c>
+      <c r="AI271">
+        <v>2.75</v>
+      </c>
+      <c r="AJ271">
+        <v>2.2</v>
+      </c>
+      <c r="AK271">
+        <v>1.62</v>
+      </c>
+      <c r="AL271">
+        <v>1.98</v>
+      </c>
+      <c r="AM271">
+        <v>1.73</v>
+      </c>
+      <c r="AN271">
+        <v>1.36</v>
+      </c>
+      <c r="AO271">
+        <v>1.34</v>
+      </c>
+      <c r="AP271">
+        <v>1.55</v>
+      </c>
+      <c r="AQ271">
+        <v>1</v>
+      </c>
+      <c r="AR271">
+        <v>1.23</v>
+      </c>
+      <c r="AS271">
+        <v>1.15</v>
+      </c>
+      <c r="AT271">
+        <v>1.14</v>
+      </c>
+      <c r="AU271">
+        <v>1.46</v>
+      </c>
+      <c r="AV271">
+        <v>1.49</v>
+      </c>
+      <c r="AW271">
+        <v>2.95</v>
+      </c>
+      <c r="AX271">
+        <v>1.65</v>
+      </c>
+      <c r="AY271">
+        <v>8.5</v>
+      </c>
+      <c r="AZ271">
+        <v>2.5</v>
+      </c>
+      <c r="BA271">
+        <v>1.4</v>
+      </c>
+      <c r="BB271">
+        <v>1.67</v>
+      </c>
+      <c r="BC271">
+        <v>2.1</v>
+      </c>
+      <c r="BD271">
+        <v>2.63</v>
+      </c>
+      <c r="BE271">
+        <v>3.6</v>
+      </c>
+      <c r="BF271">
+        <v>6</v>
+      </c>
+      <c r="BG271">
+        <v>7</v>
+      </c>
+      <c r="BH271">
+        <v>4</v>
+      </c>
+      <c r="BI271">
+        <v>4</v>
+      </c>
+      <c r="BJ271">
+        <v>10</v>
+      </c>
+      <c r="BK271">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.64</v>
@@ -2527,7 +2527,7 @@
         <v>1.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT11" t="n">
         <v>1.57</v>
@@ -2933,7 +2933,7 @@
         <v>1.57</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.86</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT19" t="n">
         <v>1.29</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5369,7 +5369,7 @@
         <v>1.46</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5572,7 +5572,7 @@
         <v>1.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -5775,7 +5775,7 @@
         <v>1.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT27" t="n">
         <v>1.14</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU34" t="n">
         <v>1.49</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU36" t="n">
         <v>0.9</v>
@@ -8211,7 +8211,7 @@
         <v>1.21</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU38" t="n">
         <v>1.48</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT39" t="n">
         <v>1.57</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT44" t="n">
         <v>1.14</v>
@@ -9632,7 +9632,7 @@
         <v>1.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU45" t="n">
         <v>1.6</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT48" t="n">
         <v>0.64</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU49" t="n">
         <v>1.28</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -10850,7 +10850,7 @@
         <v>1.46</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1.29</v>
@@ -11459,7 +11459,7 @@
         <v>0.79</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU54" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
         <v>0.86</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.57</v>
@@ -12271,7 +12271,7 @@
         <v>1.79</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU58" t="n">
         <v>1.35</v>
@@ -12677,7 +12677,7 @@
         <v>1.57</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU60" t="n">
         <v>1.45</v>
@@ -12877,10 +12877,10 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.96</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU63" t="n">
         <v>1.32</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14098,7 +14098,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU67" t="n">
         <v>1.04</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>0.64</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT69" t="n">
         <v>1.57</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT72" t="n">
         <v>1.38</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15722,7 +15722,7 @@
         <v>0.79</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15925,7 +15925,7 @@
         <v>1.21</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU76" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.29</v>
@@ -16328,7 +16328,7 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT78" t="n">
         <v>1.79</v>
@@ -16534,7 +16534,7 @@
         <v>1.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1.71</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>0.46</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.43</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU84" t="n">
         <v>1.87</v>
@@ -17749,10 +17749,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.64</v>
@@ -18564,7 +18564,7 @@
         <v>1.86</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18767,7 +18767,7 @@
         <v>1.31</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -18970,7 +18970,7 @@
         <v>1.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.46</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT94" t="n">
         <v>1.79</v>
@@ -20185,10 +20185,10 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU97" t="n">
         <v>1.34</v>
@@ -20391,7 +20391,7 @@
         <v>1.71</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20591,10 +20591,10 @@
         <v>2.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -21000,7 +21000,7 @@
         <v>1.07</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU101" t="n">
         <v>1.46</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT104" t="n">
         <v>0.64</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.54</v>
@@ -22015,7 +22015,7 @@
         <v>1.31</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
         <v>0.46</v>
@@ -22421,7 +22421,7 @@
         <v>1.79</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -22824,10 +22824,10 @@
         <v>0.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU110" t="n">
         <v>1.45</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23839,10 +23839,10 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24451,7 +24451,7 @@
         <v>1.71</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.24</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT123" t="n">
         <v>0.46</v>
@@ -25666,10 +25666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -25872,7 +25872,7 @@
         <v>1.79</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.86</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT127" t="n">
         <v>1.29</v>
@@ -26481,7 +26481,7 @@
         <v>1.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU128" t="n">
         <v>1.53</v>
@@ -26681,10 +26681,10 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.77</v>
@@ -26887,7 +26887,7 @@
         <v>1.31</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU130" t="n">
         <v>1.5</v>
@@ -27087,10 +27087,10 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU133" t="n">
         <v>1.19</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.38</v>
@@ -27899,7 +27899,7 @@
         <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
         <v>1.79</v>
@@ -28105,7 +28105,7 @@
         <v>0.79</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU136" t="n">
         <v>1.42</v>
@@ -29323,7 +29323,7 @@
         <v>1.57</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29526,7 +29526,7 @@
         <v>1.21</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29726,10 +29726,10 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30335,10 +30335,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>1.29</v>
@@ -30741,10 +30741,10 @@
         <v>0.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU149" t="n">
         <v>1.29</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT150" t="n">
         <v>0.86</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31553,7 +31553,7 @@
         <v>1.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT153" t="n">
         <v>1.57</v>
@@ -31756,10 +31756,10 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31959,10 +31959,10 @@
         <v>1.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32365,10 +32365,10 @@
         <v>1.5</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -33180,7 +33180,7 @@
         <v>1.46</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33380,7 +33380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
         <v>1.38</v>
@@ -33992,7 +33992,7 @@
         <v>1.86</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34192,10 +34192,10 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU166" t="n">
         <v>1.33</v>
@@ -34398,7 +34398,7 @@
         <v>1.79</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34598,7 +34598,7 @@
         <v>2.13</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT168" t="n">
         <v>1.79</v>
@@ -35004,10 +35004,10 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU170" t="n">
         <v>1.41</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT172" t="n">
         <v>1.57</v>
@@ -35613,7 +35613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT173" t="n">
         <v>1.38</v>
@@ -35819,7 +35819,7 @@
         <v>1.46</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU174" t="n">
         <v>1.34</v>
@@ -36019,10 +36019,10 @@
         <v>1</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU175" t="n">
         <v>1.5</v>
@@ -36225,7 +36225,7 @@
         <v>1.57</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU176" t="n">
         <v>1.65</v>
@@ -36425,7 +36425,7 @@
         <v>0.63</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT177" t="n">
         <v>0.46</v>
@@ -37034,10 +37034,10 @@
         <v>1.75</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37240,7 +37240,7 @@
         <v>1.31</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU181" t="n">
         <v>1.51</v>
@@ -37440,10 +37440,10 @@
         <v>0.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37646,7 +37646,7 @@
         <v>1.86</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -37849,7 +37849,7 @@
         <v>1.21</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU184" t="n">
         <v>1.58</v>
@@ -38049,10 +38049,10 @@
         <v>0.89</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU185" t="n">
         <v>1.19</v>
@@ -38458,7 +38458,7 @@
         <v>1.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU187" t="n">
         <v>1.42</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT188" t="n">
         <v>1.57</v>
@@ -38861,7 +38861,7 @@
         <v>1.22</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
         <v>1.14</v>
@@ -39064,7 +39064,7 @@
         <v>0.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT190" t="n">
         <v>1</v>
@@ -39267,7 +39267,7 @@
         <v>0.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -39673,7 +39673,7 @@
         <v>1.8</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
         <v>1.57</v>
@@ -39879,7 +39879,7 @@
         <v>0.79</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU194" t="n">
         <v>1.27</v>
@@ -40082,7 +40082,7 @@
         <v>1.71</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40285,7 +40285,7 @@
         <v>1.79</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU196" t="n">
         <v>1.3</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1.79</v>
@@ -41094,10 +41094,10 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41297,7 +41297,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT201" t="n">
         <v>1.57</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT202" t="n">
         <v>1.79</v>
@@ -41706,7 +41706,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU203" t="n">
         <v>1.55</v>
@@ -41906,10 +41906,10 @@
         <v>0.8</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -42109,10 +42109,10 @@
         <v>0.9</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU205" t="n">
         <v>1.28</v>
@@ -42515,7 +42515,7 @@
         <v>1.2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT207" t="n">
         <v>1.14</v>
@@ -42924,7 +42924,7 @@
         <v>1.07</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU209" t="n">
         <v>1.4</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT211" t="n">
         <v>1</v>
@@ -43733,10 +43733,10 @@
         <v>1.8</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU213" t="n">
         <v>1.47</v>
@@ -43936,10 +43936,10 @@
         <v>1.2</v>
       </c>
       <c r="AS214" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU214" t="n">
         <v>1.78</v>
@@ -44139,7 +44139,7 @@
         <v>0.6</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT215" t="n">
         <v>0.64</v>
@@ -44345,7 +44345,7 @@
         <v>1.46</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU216" t="n">
         <v>1.36</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT217" t="n">
         <v>1.57</v>
@@ -44751,7 +44751,7 @@
         <v>1.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>1.28</v>
@@ -45357,10 +45357,10 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU221" t="n">
         <v>1.77</v>
@@ -45766,7 +45766,7 @@
         <v>0.79</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU223" t="n">
         <v>1.24</v>
@@ -45966,7 +45966,7 @@
         <v>2</v>
       </c>
       <c r="AS224" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT224" t="n">
         <v>1.79</v>
@@ -46375,7 +46375,7 @@
         <v>1.07</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU226" t="n">
         <v>1.4</v>
@@ -46575,7 +46575,7 @@
         <v>1.64</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT227" t="n">
         <v>1.57</v>
@@ -46781,7 +46781,7 @@
         <v>1.79</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU228" t="n">
         <v>1.3</v>
@@ -47387,7 +47387,7 @@
         <v>1.58</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT231" t="n">
         <v>1.57</v>
@@ -47593,7 +47593,7 @@
         <v>1.31</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU232" t="n">
         <v>1.53</v>
@@ -47793,7 +47793,7 @@
         <v>1.45</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT233" t="n">
         <v>1.38</v>
@@ -47996,7 +47996,7 @@
         <v>1.36</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
         <v>1.14</v>
@@ -48199,10 +48199,10 @@
         <v>1.55</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU235" t="n">
         <v>1.25</v>
@@ -48405,7 +48405,7 @@
         <v>1.71</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU236" t="n">
         <v>1.31</v>
@@ -48608,7 +48608,7 @@
         <v>1.86</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU237" t="n">
         <v>1.52</v>
@@ -48808,10 +48808,10 @@
         <v>1.45</v>
       </c>
       <c r="AS238" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU238" t="n">
         <v>1.78</v>
@@ -49011,7 +49011,7 @@
         <v>0.82</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT239" t="n">
         <v>0.64</v>
@@ -49826,7 +49826,7 @@
         <v>1.57</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU243" t="n">
         <v>1.65</v>
@@ -50029,7 +50029,7 @@
         <v>1.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT246" t="n">
         <v>0.86</v>
@@ -50635,7 +50635,7 @@
         <v>0.75</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT247" t="n">
         <v>0.64</v>
@@ -50841,7 +50841,7 @@
         <v>0.79</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU248" t="n">
         <v>1.22</v>
@@ -51244,7 +51244,7 @@
         <v>1.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>1.57</v>
@@ -51447,7 +51447,7 @@
         <v>1</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT251" t="n">
         <v>1</v>
@@ -51650,10 +51650,10 @@
         <v>1.5</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU252" t="n">
         <v>1.41</v>
@@ -51853,10 +51853,10 @@
         <v>1.58</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU253" t="n">
         <v>1.44</v>
@@ -52056,10 +52056,10 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU254" t="n">
         <v>1.65</v>
@@ -52259,10 +52259,10 @@
         <v>1.17</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU255" t="n">
         <v>1.31</v>
@@ -52465,7 +52465,7 @@
         <v>1.86</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU256" t="n">
         <v>1.56</v>
@@ -52665,10 +52665,10 @@
         <v>1.33</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU257" t="n">
         <v>1.24</v>
@@ -52868,10 +52868,10 @@
         <v>1.17</v>
       </c>
       <c r="AS258" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU258" t="n">
         <v>1.54</v>
@@ -53071,10 +53071,10 @@
         <v>0.67</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU259" t="n">
         <v>1.48</v>
@@ -53274,7 +53274,7 @@
         <v>1.42</v>
       </c>
       <c r="AS260" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT260" t="n">
         <v>1.38</v>
@@ -53477,7 +53477,7 @@
         <v>1.62</v>
       </c>
       <c r="AS261" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT261" t="n">
         <v>1.57</v>
@@ -54292,7 +54292,7 @@
         <v>1.71</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -55507,7 +55507,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT271" t="n">
         <v>1.14</v>
@@ -55562,6 +55562,2036 @@
       </c>
       <c r="BK271" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2468582</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['58', '66']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['68', '85']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>2</v>
+      </c>
+      <c r="R272" t="n">
+        <v>9</v>
+      </c>
+      <c r="S272" t="n">
+        <v>11</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2468579</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Amiens SC</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>3</v>
+      </c>
+      <c r="N273" t="n">
+        <v>4</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['13', '62', '76']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>5</v>
+      </c>
+      <c r="R273" t="n">
+        <v>3</v>
+      </c>
+      <c r="S273" t="n">
+        <v>8</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V273" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2468578</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>5</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>9</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U274" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V274" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2468575</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>2</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['72', '80']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>4</v>
+      </c>
+      <c r="R275" t="n">
+        <v>5</v>
+      </c>
+      <c r="S275" t="n">
+        <v>9</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2468580</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>3</v>
+      </c>
+      <c r="M276" t="n">
+        <v>2</v>
+      </c>
+      <c r="N276" t="n">
+        <v>5</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['45+2', '72', '88']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['40', '83']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>1</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>4</v>
+      </c>
+      <c r="T276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U276" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2468576</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>9</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>10</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2468583</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['9', '77']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>7</v>
+      </c>
+      <c r="S278" t="n">
+        <v>12</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V278" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2468577</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F279" t="n">
+        <v>28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>9</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1</v>
+      </c>
+      <c r="S279" t="n">
+        <v>10</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V279" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3168634</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Nîmes</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2</v>
+      </c>
+      <c r="S280" t="n">
+        <v>7</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2468581</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>13</v>
+      </c>
+      <c r="R281" t="n">
+        <v>4</v>
+      </c>
+      <c r="S281" t="n">
+        <v>17</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V281" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -59889,13 +59889,13 @@
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R293" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S293" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T293" t="n">
         <v>2.7</v>
@@ -60012,22 +60012,22 @@
         <v>3.5</v>
       </c>
       <c r="BF293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH293" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI293" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ293" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK293" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
@@ -60092,13 +60092,13 @@
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R294" t="n">
         <v>1</v>
       </c>
       <c r="S294" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T294" t="n">
         <v>2.59</v>
@@ -60215,22 +60215,22 @@
         <v>5.2</v>
       </c>
       <c r="BF294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI294" t="n">
         <v>4</v>
-      </c>
-      <c r="BG294" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH294" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI294" t="n">
-        <v>2</v>
       </c>
       <c r="BJ294" t="n">
         <v>7</v>
       </c>
       <c r="BK294" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295">
@@ -60418,22 +60418,22 @@
         <v>5.35</v>
       </c>
       <c r="BF295" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG295" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH295" t="n">
         <v>6</v>
       </c>
       <c r="BI295" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ295" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK295" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -60621,22 +60621,22 @@
         <v>5.3</v>
       </c>
       <c r="BF296" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BG296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH296" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI296" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ296" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BK296" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297">
@@ -60824,22 +60824,22 @@
         <v>3.5</v>
       </c>
       <c r="BF297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH297" t="n">
         <v>4</v>
       </c>
-      <c r="BG297" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH297" t="n">
-        <v>5</v>
-      </c>
       <c r="BI297" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ297" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK297" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298">
@@ -61030,19 +61030,19 @@
         <v>3</v>
       </c>
       <c r="BG298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI298" t="n">
         <v>4</v>
       </c>
-      <c r="BH298" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI298" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ298" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK298" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
@@ -61230,19 +61230,19 @@
         <v>3.25</v>
       </c>
       <c r="BF299" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI299" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ299" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK299" t="n">
         <v>8</v>
@@ -61433,22 +61433,22 @@
         <v>3.5</v>
       </c>
       <c r="BF300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG300" t="n">
         <v>3</v>
       </c>
       <c r="BH300" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI300" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ300" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BK300" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK300"/>
+  <dimension ref="A1:BK301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6</v>
@@ -5572,7 +5572,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.22</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.93</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT49" t="n">
         <v>1.27</v>
@@ -11865,7 +11865,7 @@
         <v>1.13</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.76</v>
@@ -15722,7 +15722,7 @@
         <v>0.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT77" t="n">
         <v>1.2</v>
@@ -18767,7 +18767,7 @@
         <v>1.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.36</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU109" t="n">
         <v>1.31</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT115" t="n">
         <v>1.07</v>
@@ -25872,7 +25872,7 @@
         <v>1.87</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU125" t="n">
         <v>1.3</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT134" t="n">
         <v>1.4</v>
@@ -29526,7 +29526,7 @@
         <v>1.13</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT152" t="n">
         <v>1.13</v>
@@ -33992,7 +33992,7 @@
         <v>1.93</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -35004,7 +35004,7 @@
         <v>0.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT170" t="n">
         <v>0.44</v>
@@ -38052,7 +38052,7 @@
         <v>1.44</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU185" t="n">
         <v>1.19</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT188" t="n">
         <v>1.67</v>
@@ -41909,7 +41909,7 @@
         <v>2.07</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT211" t="n">
         <v>0.93</v>
@@ -46375,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU226" t="n">
         <v>1.4</v>
@@ -47996,7 +47996,7 @@
         <v>1.36</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT234" t="n">
         <v>1.07</v>
@@ -51653,7 +51653,7 @@
         <v>1.6</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU252" t="n">
         <v>1.48</v>
@@ -51853,7 +51853,7 @@
         <v>1.5</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT253" t="n">
         <v>1.67</v>
@@ -56725,7 +56725,7 @@
         <v>1.69</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT277" t="n">
         <v>1.6</v>
@@ -56931,7 +56931,7 @@
         <v>2.13</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU278" t="n">
         <v>1.84</v>
@@ -61448,6 +61448,209 @@
         <v>7</v>
       </c>
       <c r="BK300" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2468594</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45026.65625</v>
+      </c>
+      <c r="F301" t="n">
+        <v>30</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>2</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>3</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['29', '84']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>2</v>
+      </c>
+      <c r="R301" t="n">
+        <v>5</v>
+      </c>
+      <c r="S301" t="n">
+        <v>7</v>
+      </c>
+      <c r="T301" t="n">
+        <v>3</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V301" t="n">
+        <v>4</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK301" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/France Ligue 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -6790,7 +6790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>1.46</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT41" t="n">
         <v>1.56</v>
@@ -9835,7 +9835,7 @@
         <v>1.56</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>0.79</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
         <v>0.44</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -17143,7 +17143,7 @@
         <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17952,7 +17952,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>0.93</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT108" t="n">
         <v>0.88</v>
@@ -23030,7 +23030,7 @@
         <v>1.94</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU111" t="n">
         <v>1.95</v>
@@ -25263,7 +25263,7 @@
         <v>1.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
         <v>0.6</v>
@@ -29120,7 +29120,7 @@
         <v>1.88</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT146" t="n">
         <v>0.47</v>
@@ -31353,7 +31353,7 @@
         <v>1.6</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT167" t="n">
         <v>1.67</v>
@@ -39067,7 +39067,7 @@
         <v>1.13</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT196" t="n">
         <v>1.27</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT206" t="n">
         <v>1.2</v>
@@ -42721,7 +42721,7 @@
         <v>2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU208" t="n">
         <v>1.53</v>
@@ -46778,7 +46778,7 @@
         <v>1.09</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT228" t="n">
         <v>1.19</v>
@@ -49217,7 +49217,7 @@
         <v>1.47</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU240" t="n">
         <v>1.37</v>
@@ -49417,7 +49417,7 @@
         <v>1.92</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT241" t="n">
         <v>1.94</v>
@@ -51450,7 +51450,7 @@
         <v>2.07</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU251" t="n">
         <v>1.64</v>
@@ -54492,7 +54492,7 @@
         <v>0.92</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT266" t="n">
         <v>0.75</v>
@@ -55713,7 +55713,7 @@
         <v>2.2</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU272" t="n">
         <v>1.52</v>
@@ -58755,7 +58755,7 @@
         <v>1.14</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT287" t="n">
         <v>1</v>
@@ -60788,7 +60788,7 @@
         <v>1</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU297" t="n">
         <v>1.44</v>
@@ -63479,6 +63479,209 @@
       </c>
       <c r="BK310" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2468606</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>France Ligue 2</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45033.65625</v>
+      </c>
+      <c r="F311" t="n">
+        <v>31</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Grenoble Foot 38</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>2</v>
+      </c>
+      <c r="N311" t="n">
+        <v>2</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['46', '79']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>5</v>
+      </c>
+      <c r="R311" t="n">
+        <v>9</v>
+      </c>
+      <c r="S311" t="n">
+        <v>14</v>
+      </c>
+      <c r="T311" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V311" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
